--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE03F3-8B55-4CB8-8DE9-6EBC725DEB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544ED37-11F3-476B-99A0-F54092E0E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -91,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +120,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +144,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,11 +163,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -158,120 +243,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,23 +283,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:J81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="Exportaciones (MMD)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="Importaciones (MMD)" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{0BDA1396-70E3-4AB0-B259-0CDD2B2DF995}" name="Balanza comercial" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6DEB65D8-413C-4512-B329-880165AC5E11}" name="Ingresos petroleros" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{6427F30E-C76C-400F-9CB9-3DC3566CCE0F}" name="Ingresos no petroleros" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{69713E03-90A4-469E-A6EF-D30AB021C116}" name="Gasto público neto pagado (MMP)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A3AC605D-29FF-48E7-84A8-A71373DA1416}" name="Ingresos presupuestarios (MMP)" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{96B94C03-453C-46A5-BA22-0C28661C8483}" name="Balance público" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,24 +508,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N85"/>
+  <dimension ref="B2:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
@@ -580,37 +564,37 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>45413</v>
       </c>
       <c r="C5" s="8">
@@ -634,41 +618,41 @@
       <c r="I5" s="8">
         <v>601.21309730000007</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <v>-174.07080500000001</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+      <c r="B6" s="10">
         <v>45383</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>51319.472999999998</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>55065.692999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="11">
         <v>91.970373080000002</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="11">
         <v>661.97862450000002</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <v>679.05697310000005</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="11">
         <v>753.94899759999998</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>99.264560549999999</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>45352</v>
       </c>
       <c r="C7" s="8">
@@ -692,41 +676,41 @@
       <c r="I7" s="8">
         <v>627.09185890000003</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>-38.605951619999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="B8" s="10">
         <v>45323</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>50741.993000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>51305.805</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>103.3408436</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>477.88434889999996</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <v>838.62550580000004</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>581.22519250000005</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <v>-264.86976669999996</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>45292</v>
       </c>
       <c r="C9" s="8">
@@ -750,41 +734,41 @@
       <c r="I9" s="8">
         <v>658.90359510000008</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>-147.19145090000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
+      <c r="B10" s="10">
         <v>45261</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>49271.110999999997</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>45007.241999999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>4.2638689999999997</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>82.904605689999997</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>609.57428900000002</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>983.61721550000004</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>692.4524914000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="12">
         <v>-291.29677990000005</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>45231</v>
       </c>
       <c r="C11" s="8">
@@ -808,41 +792,41 @@
       <c r="I11" s="8">
         <v>566.21468670000002</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>-87.662297609999996</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+      <c r="B12" s="10">
         <v>45200</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>51856.870999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>52226.163</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>116.26270889999999</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>468.79586229999995</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>619.35053419999997</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="11">
         <v>585.04371649999996</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>45170</v>
       </c>
       <c r="C13" s="8">
@@ -866,41 +850,41 @@
       <c r="I13" s="8">
         <v>547.44243669999992</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>-132.88201470000001</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
+      <c r="B14" s="10">
         <v>45139</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>52458.59</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>53737.01</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>80.800463280000002</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>464.00524910000001</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <v>580.01827819999994</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <v>544.80571239999995</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>45108</v>
       </c>
       <c r="C15" s="8">
@@ -924,41 +908,41 @@
       <c r="I15" s="8">
         <v>638.50286259999996</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="9">
         <v>-78.264336509999993</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+      <c r="B16" s="10">
         <v>45078</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>51820.218999999997</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>51762.017999999996</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="11">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <v>80.119920429999993</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11">
         <v>460.81278079999998</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <v>806.45105030000002</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="11">
         <v>540.93270129999996</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>45047</v>
       </c>
       <c r="C17" s="8">
@@ -982,41 +966,41 @@
       <c r="I17" s="8">
         <v>555.57111129999998</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>-104.34415510000001</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="10">
         <v>45017</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>46086.559999999998</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>47732.749000000003</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="11">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="11">
         <v>62.250813090000001</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="11">
         <v>562.73411880000003</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="11">
         <v>560.13222569999994</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="11">
         <v>624.98493189999999</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>44986</v>
       </c>
       <c r="C19" s="8">
@@ -1040,41 +1024,41 @@
       <c r="I19" s="8">
         <v>633.88471259999994</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="9">
         <v>7.1024282839999993</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="10">
         <v>44958</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="11">
         <v>44891.478999999999</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>46778.476000000002</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="11">
         <v>-1.886997</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="11">
         <v>76.452717770000007</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="11">
         <v>409.97190820000003</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="11">
         <v>571.3513946999999</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="11">
         <v>486.42462599999999</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
+      <c r="B21" s="7">
         <v>44927</v>
       </c>
       <c r="C21" s="8">
@@ -1098,41 +1082,41 @@
       <c r="I21" s="8">
         <v>623.06477700000005</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="9">
         <v>-31.44971232</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
+      <c r="B22" s="10">
         <v>44896</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>49319.341999999997</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>48339.023999999998</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="11">
         <v>0.98031800000000002</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="11">
         <v>197.15876370000001</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="11">
         <v>458.42825479999999</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="11">
         <v>1057.9730569999999</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="11">
         <v>655.58701839999992</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="12">
         <v>-429.45266149999998</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>44866</v>
       </c>
       <c r="C23" s="8">
@@ -1156,41 +1140,41 @@
       <c r="I23" s="8">
         <v>554.64395230000002</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="9">
         <v>-120.41750089999999</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
+      <c r="B24" s="10">
         <v>44835</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>49199.06</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="11">
         <v>51287.15</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="11">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="11">
         <v>130.97315</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="11">
         <v>374.10714110000004</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="11">
         <v>559.9618984</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="11">
         <v>505.08029119999998</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>44805</v>
       </c>
       <c r="C25" s="8">
@@ -1214,41 +1198,41 @@
       <c r="I25" s="8">
         <v>505.89206039999999</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="9">
         <v>-106.3323824</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
+      <c r="B26" s="10">
         <v>44774</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="11">
         <v>50464.228999999999</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>56168.196000000004</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="11">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="11">
         <v>131.2182956</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="11">
         <v>387.78720280000005</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="11">
         <v>541.53896669999995</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="11">
         <v>519.0054983</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>44743</v>
       </c>
       <c r="C27" s="8">
@@ -1272,41 +1256,41 @@
       <c r="I27" s="8">
         <v>557.42874410000002</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="9">
         <v>-40.157839670000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
+      <c r="B28" s="10">
         <v>44713</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>51220.139000000003</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="11">
         <v>55191.302000000003</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="11">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="11">
         <v>98.318560459999986</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="11">
         <v>461.41755320000004</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="11">
         <v>706.11272819999999</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="11">
         <v>559.73611370000003</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>44682</v>
       </c>
       <c r="C29" s="8">
@@ -1330,41 +1314,41 @@
       <c r="I29" s="8">
         <v>471.06455729999999</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="9">
         <v>-35.348529640000002</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
+      <c r="B30" s="10">
         <v>44652</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>47580.499000000003</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>49363.531999999999</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="11">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="11">
         <v>125.4457233</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="11">
         <v>431.7948993</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="11">
         <v>507.60401580000001</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="11">
         <v>557.2406226999999</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>44621</v>
       </c>
       <c r="C31" s="8">
@@ -1388,41 +1372,41 @@
       <c r="I31" s="8">
         <v>730.48246879999999</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="9">
         <v>104.18798840000001</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
+      <c r="B32" s="10">
         <v>44593</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="11">
         <v>46288.481</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="11">
         <v>44953.076999999997</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="11">
         <v>1.335405</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="11">
         <v>75.364108080000008</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="11">
         <v>368.0548756</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="11">
         <v>566.15684659999999</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="11">
         <v>443.41898369999996</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
+      <c r="B33" s="7">
         <v>44562</v>
       </c>
       <c r="C33" s="8">
@@ -1446,41 +1430,41 @@
       <c r="I33" s="8">
         <v>543.24934059999998</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="9">
         <v>-55.147272040000004</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
+      <c r="B34" s="10">
         <v>44531</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="11">
         <v>47866.48</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>47102.457999999999</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="11">
         <v>0.76374199999999992</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="11">
         <v>257.82414310000001</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="11">
         <v>451.8106952</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="11">
         <v>1009.928812</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="11">
         <v>709.63483829999996</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="12">
         <v>-302.75952919999997</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>44501</v>
       </c>
       <c r="C35" s="8">
@@ -1504,41 +1488,41 @@
       <c r="I35" s="8">
         <v>494.50499080000003</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="9">
         <v>-98.701497130000007</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
+      <c r="B36" s="10">
         <v>44470</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="11">
         <v>41858.777999999998</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="11">
         <v>44658.125999999997</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="11">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="11">
         <v>89.701747210000008</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="11">
         <v>344.80696409999996</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="11">
         <v>431.36228289999997</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="11">
         <v>434.50871130000002</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="12">
         <v>10.9780493</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4">
+      <c r="B37" s="7">
         <v>44440</v>
       </c>
       <c r="C37" s="8">
@@ -1562,41 +1546,41 @@
       <c r="I37" s="8">
         <v>429.69536700000003</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="9">
         <v>-99.578348899999995</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
+      <c r="B38" s="10">
         <v>44409</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="11">
         <v>40471.381000000001</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>44215.64</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="11">
         <v>-3.744259</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="11">
         <v>102.06880959999999</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="11">
         <v>381.44135790000001</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="11">
         <v>493.58672080000002</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="11">
         <v>483.51016749999997</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>44378</v>
       </c>
       <c r="C39" s="8">
@@ -1620,41 +1604,41 @@
       <c r="I39" s="8">
         <v>477.80359320000002</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="9">
         <v>-11.479581379999999</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
+      <c r="B40" s="10">
         <v>44348</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="11">
         <v>42619.373</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="11">
         <v>41909.428999999996</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="11">
         <v>0.70994500000000005</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="11">
         <v>63.459127159999994</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="11">
         <v>411.21127050000001</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="11">
         <v>608.01465940000003</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="11">
         <v>474.67039769999997</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="4">
+      <c r="B41" s="7">
         <v>44317</v>
       </c>
       <c r="C41" s="8">
@@ -1678,41 +1662,41 @@
       <c r="I41" s="8">
         <v>456.4940363</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="9">
         <v>-3.0755186110000001</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
+      <c r="B42" s="10">
         <v>44287</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="11">
         <v>40944.531000000003</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="11">
         <v>39259.65</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="11">
         <v>1.6848810000000001</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="11">
         <v>66.844172089999986</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="11">
         <v>368.94457970000002</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="11">
         <v>469.50509600000004</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="11">
         <v>435.7887518</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="4">
+      <c r="B43" s="7">
         <v>44256</v>
       </c>
       <c r="C43" s="8">
@@ -1736,41 +1720,41 @@
       <c r="I43" s="8">
         <v>636.64992270000005</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="9">
         <v>15.93710081</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
+      <c r="B44" s="10">
         <v>44228</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="11">
         <v>36213.207000000002</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="11">
         <v>33486.199000000001</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="11">
         <v>2.7270089999999998</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="11">
         <v>79.15757769999999</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="11">
         <v>356.06520949999998</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="11">
         <v>534.51791370000001</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="11">
         <v>435.22278720000003</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="4">
+      <c r="B45" s="7">
         <v>44197</v>
       </c>
       <c r="C45" s="8">
@@ -1794,41 +1778,41 @@
       <c r="I45" s="8">
         <v>492.46105679999999</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="9">
         <v>-7.9565803100000005</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
+      <c r="B46" s="10">
         <v>44166</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="11">
         <v>43154.635000000002</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="11">
         <v>36879.947999999997</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="11">
         <v>6.2746870000000001</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="11">
         <v>109.36903909999999</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="11">
         <v>496.30375180000004</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="11">
         <v>841.94544250000001</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="11">
         <v>605.6727909</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="12">
         <v>-277.08696509999999</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="4">
+      <c r="B47" s="7">
         <v>44136</v>
       </c>
       <c r="C47" s="8">
@@ -1852,41 +1836,41 @@
       <c r="I47" s="8">
         <v>438.95863640000005</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="9">
         <v>-71.949392129999993</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
+      <c r="B48" s="10">
         <v>44105</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="11">
         <v>41950.815000000002</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="11">
         <v>35694.81</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="11">
         <v>6.2560039999999999</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="11">
         <v>52.19927337</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="11">
         <v>354.22100019999999</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="11">
         <v>412.91902829999998</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="11">
         <v>406.42027350000001</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="4">
+      <c r="B49" s="7">
         <v>44075</v>
       </c>
       <c r="C49" s="8">
@@ -1910,41 +1894,41 @@
       <c r="I49" s="8">
         <v>380.43586629999999</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="9">
         <v>-33.416701580000002</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
+      <c r="B50" s="10">
         <v>44044</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="11">
         <v>37001.120999999999</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="11">
         <v>30845.723000000002</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="11">
         <v>6.1553969999999998</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="11">
         <v>46.15270237</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="11">
         <v>464.12677960000002</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="11">
         <v>368.06555599999996</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="11">
         <v>510.27948190000001</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="4">
+      <c r="B51" s="7">
         <v>44013</v>
       </c>
       <c r="C51" s="8">
@@ -1968,41 +1952,41 @@
       <c r="I51" s="8">
         <v>395.16910050000001</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="9">
         <v>-121.3940712</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
+      <c r="B52" s="10">
         <v>43983</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="11">
         <v>33047.724999999999</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="11">
         <v>27512.168000000001</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="11">
         <v>5.5355569999999998</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="11">
         <v>63.830817719999999</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="11">
         <v>343.07254890000002</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="11">
         <v>550.00062520000006</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="11">
         <v>406.90336660000003</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="4">
+      <c r="B53" s="7">
         <v>43952</v>
       </c>
       <c r="C53" s="8">
@@ -2026,41 +2010,41 @@
       <c r="I53" s="8">
         <v>326.88726809999997</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="9">
         <v>-74.267093519999989</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
+      <c r="B54" s="10">
         <v>43922</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="11">
         <v>23222.657999999999</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="11">
         <v>26457.052</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="11">
         <v>-3.234394</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="11">
         <v>22.58804619</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="11">
         <v>383.74187000000001</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="11">
         <v>476.66517670000002</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="11">
         <v>406.32991619999996</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="4">
+      <c r="B55" s="7">
         <v>43891</v>
       </c>
       <c r="C55" s="8">
@@ -2084,41 +2068,41 @@
       <c r="I55" s="8">
         <v>527.82391359999997</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="9">
         <v>16.26658407</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="5">
+      <c r="B56" s="10">
         <v>43862</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="11">
         <v>36433.716999999997</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="11">
         <v>33715.379000000001</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="11">
         <v>2.7183380000000001</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="11">
         <v>41.572570460000001</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="11">
         <v>353.25470010000004</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="11">
         <v>433.69674780000003</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="11">
         <v>394.82727059999996</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="4">
+      <c r="B57" s="7">
         <v>43831</v>
       </c>
       <c r="C57" s="8">
@@ -2142,41 +2126,41 @@
       <c r="I57" s="8">
         <v>540.28258030000006</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="9">
         <v>40.826203909999997</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="5">
+      <c r="B58" s="10">
         <v>43800</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="11">
         <v>38654.358999999997</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="11">
         <v>35587.868999999999</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="11">
         <v>3.0664899999999999</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="11">
         <v>121.4484357</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="11">
         <v>422.13415889999999</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="11">
         <v>734.08934550000004</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="11">
         <v>543.58259450000003</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="12">
         <v>-226.43600739999999</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="4">
+      <c r="B59" s="7">
         <v>43770</v>
       </c>
       <c r="C59" s="8">
@@ -2200,41 +2184,41 @@
       <c r="I59" s="8">
         <v>473.86982849999998</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="9">
         <v>-13.121122880000001</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="5">
+      <c r="B60" s="10">
         <v>43739</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="11">
         <v>40762.114000000001</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="11">
         <v>41449.531999999999</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="11">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="11">
         <v>52.107626119999999</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="11">
         <v>339.1700821</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="11">
         <v>393.85330019999998</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="11">
         <v>391.27770820000001</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="4">
+      <c r="B61" s="7">
         <v>43709</v>
       </c>
       <c r="C61" s="8">
@@ -2258,41 +2242,41 @@
       <c r="I61" s="8">
         <v>498.68650060000004</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="9">
         <v>-42.120543259999998</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="5">
+      <c r="B62" s="10">
         <v>43678</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="11">
         <v>40051.154000000002</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="11">
         <v>39648.432999999997</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="11">
         <v>0.402721</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="11">
         <v>61.700976759999996</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="11">
         <v>366.11959970000004</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="11">
         <v>394.68113240000002</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="11">
         <v>427.82057650000002</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="4">
+      <c r="B63" s="7">
         <v>43647</v>
       </c>
       <c r="C63" s="8">
@@ -2316,41 +2300,41 @@
       <c r="I63" s="8">
         <v>427.2480716</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="9">
         <v>-33.152173529999999</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="5">
+      <c r="B64" s="10">
         <v>43617</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="11">
         <v>37924.985999999997</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="11">
         <v>35382.743999999999</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="11">
         <v>2.5422420000000003</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="11">
         <v>69.954328790000005</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="11">
         <v>353.10700009999999</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="11">
         <v>576.3008863</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="11">
         <v>423.06132890000003</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="4">
+      <c r="B65" s="7">
         <v>43586</v>
       </c>
       <c r="C65" s="8">
@@ -2374,41 +2358,41 @@
       <c r="I65" s="8">
         <v>413.0890435</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="9">
         <v>-5.692812215</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="5">
+      <c r="B66" s="10">
         <v>43556</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="11">
         <v>39586.47</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="11">
         <v>38076.400999999998</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="11">
         <v>1.5100689999999999</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="11">
         <v>84.355074259999995</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="11">
         <v>406.61840089999998</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="11">
         <v>426.19051860000002</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="11">
         <v>490.97347509999997</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="4">
+      <c r="B67" s="7">
         <v>43525</v>
       </c>
       <c r="C67" s="8">
@@ -2432,41 +2416,41 @@
       <c r="I67" s="8">
         <v>442.90060790000001</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="9">
         <v>3.1435708460000003</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="5">
+      <c r="B68" s="10">
         <v>43497</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="11">
         <v>36437.807000000001</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="11">
         <v>35073.896999999997</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="11">
         <v>1.3639100000000002</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="11">
         <v>60.695827799999996</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="11">
         <v>345.78550730000001</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="11">
         <v>391.78540830000003</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="11">
         <v>406.48133510000002</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="12">
         <v>15.10888634</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="4">
+      <c r="B69" s="7">
         <v>43466</v>
       </c>
       <c r="C69" s="8">
@@ -2490,41 +2474,41 @@
       <c r="I69" s="8">
         <v>445.9932058</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="9">
         <v>-42.735297079999995</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="5">
+      <c r="B70" s="10">
         <v>43435</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="11">
         <v>37597.546999999999</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="11">
         <v>35692.966999999997</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="11">
         <v>1.9045799999999999</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="11">
         <v>93.046003830000004</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="11">
         <v>365.93439640000003</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="11">
         <v>623.05252050000001</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="11">
         <v>458.98040019999996</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="4">
+      <c r="B71" s="7">
         <v>43405</v>
       </c>
       <c r="C71" s="8">
@@ -2548,41 +2532,41 @@
       <c r="I71" s="8">
         <v>435.33598950000004</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="9">
         <v>-40.905675330000001</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="5">
+      <c r="B72" s="10">
         <v>43374</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="11">
         <v>41356.07</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="11">
         <v>44290.891000000003</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="11">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="11">
         <v>84.098175850000004</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="11">
         <v>345.19699420000001</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="11">
         <v>401.2088488</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="11">
         <v>429.29517010000001</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="4">
+      <c r="B73" s="7">
         <v>43344</v>
       </c>
       <c r="C73" s="8">
@@ -2606,41 +2590,41 @@
       <c r="I73" s="8">
         <v>374.62295510000001</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="9">
         <v>-80.179064410000009</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="5">
+      <c r="B74" s="10">
         <v>43313</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="11">
         <v>39545.207999999999</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="11">
         <v>42129.495999999999</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="11">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="11">
         <v>86.42946843</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="11">
         <v>317.49349560000002</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="11">
         <v>431.72454049999999</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="11">
         <v>403.9229641</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="4">
+      <c r="B75" s="7">
         <v>43282</v>
       </c>
       <c r="C75" s="8">
@@ -2664,41 +2648,41 @@
       <c r="I75" s="8">
         <v>510.96441529999998</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="9">
         <v>7.344534736</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="5">
+      <c r="B76" s="10">
         <v>43252</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="11">
         <v>37483.508000000002</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="11">
         <v>38383.337</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="11">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="11">
         <v>77.601648080000004</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="11">
         <v>329.01200010000002</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="11">
         <v>566.17339060000006</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="11">
         <v>406.6136482</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="4">
+      <c r="B77" s="7">
         <v>43221</v>
       </c>
       <c r="C77" s="8">
@@ -2722,41 +2706,41 @@
       <c r="I77" s="8">
         <v>378.23739899999998</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="9">
         <v>-42.702346929999997</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="5">
+      <c r="B78" s="10">
         <v>43191</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="11">
         <v>37181.694000000003</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="11">
         <v>37471.964999999997</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="11">
         <v>-0.290271</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="11">
         <v>94.803737770000012</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="11">
         <v>362.92628529999996</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="11">
         <v>431.92046120000003</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="11">
         <v>457.73002299999996</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="4">
+      <c r="B79" s="7">
         <v>43160</v>
       </c>
       <c r="C79" s="8">
@@ -2780,65 +2764,65 @@
       <c r="I79" s="8">
         <v>405.0149012</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="9">
         <v>-24.13319199</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="5">
+      <c r="B80" s="10">
         <v>43132</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="11">
         <v>35093.792999999998</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="11">
         <v>34149.86</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="11">
         <v>0.94393300000000002</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="11">
         <v>61.288216349999999</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="11">
         <v>327.94041100000004</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="11">
         <v>443.14275679999997</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="11">
         <v>389.22862729999997</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="4">
+      <c r="B81" s="13">
         <v>43101</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="14">
         <v>30718.526999999998</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="14">
         <v>35140.478000000003</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="14">
         <v>-4.421951</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="14">
         <v>89.233049929999993</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="14">
         <v>375.93154670000001</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="14">
         <v>491.60764439999997</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="14">
         <v>465.16459659999998</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="15">
         <v>-20.418911999999999</v>
       </c>
     </row>
@@ -2850,10 +2834,6 @@
       <c r="E82" s="2"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J82" s="9"/>
     </row>
     <row r="83" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
@@ -2863,10 +2843,6 @@
       <c r="E83" s="2"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
@@ -2883,15 +2859,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544ED37-11F3-476B-99A0-F54092E0E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66D7D7-9978-4C0C-87F5-E7B22353081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -155,43 +155,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -227,12 +194,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -246,33 +235,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -283,6 +370,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:J81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B4:J81" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{10743F00-F9DC-47F7-922E-9841D7311A9D}" name="Periodo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{79E0A04F-296B-455D-A21E-6E46636AB772}" name="Exportaciones (MMD)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2F1395D1-34F9-4F75-ABAF-2E9A1DE9579A}" name="Importaciones (MMD)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E4F001CF-A784-4D9C-B022-62FD6E578F58}" name="Balanza comercial" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8430C06B-EFD6-475E-846C-D34E4AD20090}" name="Ingresos petroleros" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos no petroleros" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Gasto público neto pagado (MMP)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2740B0E6-4F74-4A5C-B486-3F77EAD67DB4}" name="Ingresos presupuestarios (MMP)" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{73C0E9DD-33C1-496F-A5B9-700C4976B696}" name="Balance público" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N87"/>
+  <dimension ref="B2:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -517,15 +628,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="29.09765625" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
@@ -564,2265 +675,2265 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>45413</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>55670.928</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>53679.716999999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>1.9912100000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>127.2761107</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>473.93698649999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>781.00119410000002</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>601.21309730000007</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="12">
         <v>-174.07080500000001</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>45383</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>51319.472999999998</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>55065.692999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>91.970373080000002</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>661.97862450000002</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>679.05697310000005</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <v>753.94899759999998</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="6">
         <v>99.264560549999999</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>45352</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>50646.334000000003</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>48654.080000000002</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>1.992254</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>87.018766290000002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>540.0730926</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>669.69044339999994</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>627.09185890000003</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>-38.605951619999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>45323</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>50741.993000000002</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>51305.805</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="6">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>103.3408436</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="6">
         <v>477.88434889999996</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <v>838.62550580000004</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="6">
         <v>581.22519250000005</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="6">
         <v>-264.86976669999996</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>45292</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>42137.728000000003</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>46271.845999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>-4.134118</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>63.990267279999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>594.95777870000006</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>811.33754150000004</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>658.90359510000008</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>-147.19145090000001</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
         <v>45261</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>49271.110999999997</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>45007.241999999998</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>4.2638689999999997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>82.904605689999997</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>609.57428900000002</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>983.61721550000004</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>692.4524914000001</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="14">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="7">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8">
         <v>45231</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>50182.773000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>49621.455000000002</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0.56131799999999998</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>92.737154150000009</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>473.4884773</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>656.28544590000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>566.21468670000002</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
         <v>45200</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>51856.870999999999</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>52226.163</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="6">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <v>116.26270889999999</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="6">
         <v>468.79586229999995</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="6">
         <v>619.35053419999997</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="6">
         <v>585.04371649999996</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="6">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="7">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8">
         <v>45170</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>49641.591999999997</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>51139.512999999999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>79.329067260000002</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>468.12283130000003</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>687.7519393</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>547.44243669999992</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
         <v>45139</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>52458.59</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>53737.01</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>80.800463280000002</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>464.00524910000001</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="6">
         <v>580.01827819999994</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="6">
         <v>544.80571239999995</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="6">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="7">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
         <v>45108</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>47786.853000000003</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>48431.637999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>145.0278701</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>493.47499249999998</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>707.7514357</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <v>638.50286259999996</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
         <v>45078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>51820.218999999997</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>51762.017999999996</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="6">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>80.119920429999993</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <v>460.81278079999998</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <v>806.45105030000002</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="6">
         <v>540.93270129999996</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="6">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
         <v>45047</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>52835.328999999998</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>52934.5</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>82.92634846</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>472.64476280000002</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <v>653.17400809999992</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <v>555.57111129999998</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="5">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
         <v>45017</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="6">
         <v>46086.559999999998</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>47732.749000000003</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>62.250813090000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <v>562.73411880000003</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <v>560.13222569999994</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="6">
         <v>624.98493189999999</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="6">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="7">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
         <v>44986</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>53564.188999999998</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>52388.860999999997</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>1.1753279999999999</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>96.979409270000005</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>536.90530339999998</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>657.83727329999999</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <v>633.88471259999994</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>44958</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>44891.478999999999</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>46778.476000000002</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <v>-1.886997</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <v>76.452717770000007</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="6">
         <v>409.97190820000003</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="6">
         <v>571.3513946999999</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="6">
         <v>486.42462599999999</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="6">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="7">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
         <v>44927</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>42609.733999999997</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>46715.743999999999</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>83.199869219999997</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>539.86490780000008</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>638.22747579999998</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>623.06477700000005</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
         <v>44896</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>49319.341999999997</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <v>48339.023999999998</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>0.98031800000000002</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="14">
         <v>197.15876370000001</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="14">
         <v>458.42825479999999</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="14">
         <v>1057.9730569999999</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="14">
         <v>655.58701839999992</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="14">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="7">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8">
         <v>44866</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>49249.146999999997</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>49407.417000000001</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>146.966982</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>407.67697040000002</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <v>673.24339520000001</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="5">
         <v>554.64395230000002</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="5">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
         <v>44835</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="6">
         <v>49199.06</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>51287.15</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="6">
         <v>130.97315</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="6">
         <v>374.10714110000004</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="6">
         <v>559.9618984</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="6">
         <v>505.08029119999998</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="6">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="7">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8">
         <v>44805</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>52323.438000000002</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>53233.430999999997</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <v>114.3161025</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="5">
         <v>391.57595789999999</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="5">
         <v>605.29125480000005</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="5">
         <v>505.89206039999999</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="5">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
         <v>44774</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="6">
         <v>50464.228999999999</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="6">
         <v>56168.196000000004</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="6">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="6">
         <v>131.2182956</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="6">
         <v>387.78720280000005</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="6">
         <v>541.53896669999995</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="6">
         <v>519.0054983</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="6">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="7">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
         <v>44743</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>46216.525999999998</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>52463.962</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>166.75375820000002</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>390.67498599999999</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>600.62089690000005</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="5">
         <v>557.42874410000002</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="5">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
         <v>44713</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="6">
         <v>51220.139000000003</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="6">
         <v>55191.302000000003</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="6">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="6">
         <v>98.318560459999986</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="6">
         <v>461.41755320000004</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="6">
         <v>706.11272819999999</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="6">
         <v>559.73611370000003</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="6">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="7">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
         <v>44682</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>49964.769</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>52220.451999999997</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
         <v>79.78186479</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="5">
         <v>391.2826925</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="5">
         <v>497.06811629999999</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="5">
         <v>471.06455729999999</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="5">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
         <v>44652</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="6">
         <v>47580.499000000003</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="6">
         <v>49363.531999999999</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>125.4457233</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="6">
         <v>431.7948993</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="6">
         <v>507.60401580000001</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="6">
         <v>557.2406226999999</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="6">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="7">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8">
         <v>44621</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>51948.841999999997</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>51801.682999999997</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>0.14715899999999998</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <v>145.9187416</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="5">
         <v>584.56372720000002</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="5">
         <v>636.99511129999996</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="5">
         <v>730.48246879999999</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="5">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
         <v>44593</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="6">
         <v>46288.481</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>44953.076999999997</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="6">
         <v>1.335405</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="6">
         <v>75.364108080000008</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="6">
         <v>368.0548756</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="6">
         <v>566.15684659999999</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="6">
         <v>443.41898369999996</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="6">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="7">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10">
         <v>44562</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>33923.040999999997</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>40185.364999999998</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>69.364702199999996</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>473.88463839999997</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>601.56697069999996</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>543.24934059999998</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
         <v>44531</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>47866.48</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="14">
         <v>47102.457999999999</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="14">
         <v>0.76374199999999992</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="14">
         <v>257.82414310000001</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="14">
         <v>451.8106952</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="14">
         <v>1009.928812</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="14">
         <v>709.63483829999996</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="14">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="7">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8">
         <v>44501</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>45676.661999999997</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>45698.67</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>-2.2008E-2</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>122.01124229999999</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>372.49374849999998</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="5">
         <v>586.4894286</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="5">
         <v>494.50499080000003</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="5">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
         <v>44470</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="6">
         <v>41858.777999999998</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>44658.125999999997</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="6">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="6">
         <v>89.701747210000008</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="6">
         <v>344.80696409999996</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="6">
         <v>431.36228289999997</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="6">
         <v>434.50871130000002</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="6">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7">
+    <row r="37" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8">
         <v>44440</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>41754.362999999998</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>44078.455999999998</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <v>-2.324093</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="5">
         <v>77.364064190000008</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="5">
         <v>352.3313028</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="5">
         <v>523.26265420000004</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="5">
         <v>429.69536700000003</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="5">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
         <v>44409</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="6">
         <v>40471.381000000001</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>44215.64</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="6">
         <v>-3.744259</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="6">
         <v>102.06880959999999</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="6">
         <v>381.44135790000001</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="6">
         <v>493.58672080000002</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="6">
         <v>483.51016749999997</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="6">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="7">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
         <v>44378</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>40952.955999999998</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>44950.627999999997</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="5">
         <v>80.378816399999991</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="5">
         <v>397.42477680000002</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="5">
         <v>496.53029499999997</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="5">
         <v>477.80359320000002</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="5">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
         <v>44348</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="6">
         <v>42619.373</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="6">
         <v>41909.428999999996</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="6">
         <v>0.70994500000000005</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="6">
         <v>63.459127159999994</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="6">
         <v>411.21127050000001</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="6">
         <v>608.01465940000003</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="6">
         <v>474.67039769999997</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="6">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="7">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
         <v>44317</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>40845.599999999999</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>40458.684000000001</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <v>0.38691599999999998</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>92.098913179999997</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="5">
         <v>364.39512310000003</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="5">
         <v>453.70198959999999</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="5">
         <v>456.4940363</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="5">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
         <v>44287</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="6">
         <v>40944.531000000003</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="6">
         <v>39259.65</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="6">
         <v>1.6848810000000001</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="6">
         <v>66.844172089999986</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="6">
         <v>368.94457970000002</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="6">
         <v>469.50509600000004</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="6">
         <v>435.7887518</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="6">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="7">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8">
         <v>44256</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>43029.98</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>45974.453999999998</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="5">
         <v>-2.944474</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="5">
         <v>77.497578070000003</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="5">
         <v>559.15234459999999</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="5">
         <v>630.18856669999991</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="5">
         <v>636.64992270000005</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="5">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
         <v>44228</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="6">
         <v>36213.207000000002</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="6">
         <v>33486.199000000001</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="6">
         <v>2.7270089999999998</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="6">
         <v>79.15757769999999</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="6">
         <v>356.06520949999998</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="6">
         <v>534.51791370000001</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="6">
         <v>435.22278720000003</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="6">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="7">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="10">
         <v>44197</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>32716.018</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>33910.701999999997</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>48.080826710000004</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>444.38023010000001</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>498.73122280000001</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>492.46105679999999</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
         <v>44166</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="14">
         <v>43154.635000000002</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="14">
         <v>36879.947999999997</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="14">
         <v>6.2746870000000001</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="14">
         <v>109.36903909999999</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="14">
         <v>496.30375180000004</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="14">
         <v>841.94544250000001</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="14">
         <v>605.6727909</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="14">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="7">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8">
         <v>44136</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>38313.68</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>35257.525000000001</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="5">
         <v>3.0561550000000004</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="5">
         <v>47.748503800000002</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="5">
         <v>391.21013260000001</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="5">
         <v>506.89896440000001</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="5">
         <v>438.95863640000005</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="5">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
         <v>44105</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="6">
         <v>41950.815000000002</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="6">
         <v>35694.81</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="6">
         <v>6.2560039999999999</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="6">
         <v>52.19927337</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="6">
         <v>354.22100019999999</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="6">
         <v>412.91902829999998</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="6">
         <v>406.42027350000001</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="6">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="7">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="8">
         <v>44075</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>38539.74</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>34142.601999999999</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="5">
         <v>4.397138</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="5">
         <v>48.21359047</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="5">
         <v>332.2222759</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="5">
         <v>428.07223010000001</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="5">
         <v>380.43586629999999</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="5">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
         <v>44044</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="6">
         <v>37001.120999999999</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="6">
         <v>30845.723000000002</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>6.1553969999999998</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <v>46.15270237</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="6">
         <v>464.12677960000002</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="6">
         <v>368.06555599999996</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="6">
         <v>510.27948190000001</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="6">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="7">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8">
         <v>44013</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>35499.49</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>29844.448</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="5">
         <v>5.6550420000000008</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="5">
         <v>52.381400419999999</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>342.7877001</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="5">
         <v>515.39163680000001</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="5">
         <v>395.16910050000001</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="5">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
         <v>43983</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="6">
         <v>33047.724999999999</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="6">
         <v>27512.168000000001</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="6">
         <v>5.5355569999999998</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="6">
         <v>63.830817719999999</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="6">
         <v>343.07254890000002</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="6">
         <v>550.00062520000006</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="6">
         <v>406.90336660000003</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="6">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="7">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="8">
         <v>43952</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>18116.042000000001</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>21578.337</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="5">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="5">
         <v>28.305219940000001</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="5">
         <v>298.58204820000003</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="5">
         <v>414.11920990000004</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="5">
         <v>326.88726809999997</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="5">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
         <v>43922</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="6">
         <v>23222.657999999999</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="6">
         <v>26457.052</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="6">
         <v>-3.234394</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="6">
         <v>22.58804619</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="6">
         <v>383.74187000000001</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="6">
         <v>476.66517670000002</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="6">
         <v>406.32991619999996</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="6">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="7">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="8">
         <v>43891</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>38310.269</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>34995.932000000001</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <v>3.3143370000000001</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="5">
         <v>38.183420570000003</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="5">
         <v>489.64049299999999</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="5">
         <v>543.02371759999994</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="5">
         <v>527.82391359999997</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="5">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
         <v>43862</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="6">
         <v>36433.716999999997</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="6">
         <v>33715.379000000001</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="6">
         <v>2.7183380000000001</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="6">
         <v>41.572570460000001</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="6">
         <v>353.25470010000004</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="6">
         <v>433.69674780000003</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="6">
         <v>394.82727059999996</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="6">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="7">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10">
         <v>43831</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>33580.843000000001</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>36062</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>55.314693489999996</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>484.96788679999997</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>504.22741729999996</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>540.28258030000006</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="7">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
         <v>43800</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="14">
         <v>38654.358999999997</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="14">
         <v>35587.868999999999</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="14">
         <v>3.0664899999999999</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="14">
         <v>121.4484357</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="14">
         <v>422.13415889999999</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="14">
         <v>734.08934550000004</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="14">
         <v>543.58259450000003</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="14">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="7">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8">
         <v>43770</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <v>37484.46</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>36697.660000000003</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="5">
         <v>0.78679999999999994</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="5">
         <v>74.790037569999996</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>399.07979090000003</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="5">
         <v>477.06680619999997</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="5">
         <v>473.86982849999998</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="5">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
         <v>43739</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="6">
         <v>40762.114000000001</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="6">
         <v>41449.531999999999</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="6">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="6">
         <v>52.107626119999999</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="6">
         <v>339.1700821</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="6">
         <v>393.85330019999998</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="6">
         <v>391.27770820000001</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="6">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="7">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8">
         <v>43709</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="5">
         <v>37180.582999999999</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>37332.184000000001</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="5">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="5">
         <v>163.53974220000001</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="5">
         <v>335.14675829999999</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="5">
         <v>536.88821819999998</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="5">
         <v>498.68650060000004</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="5">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
         <v>43678</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="6">
         <v>40051.154000000002</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="6">
         <v>39648.432999999997</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="6">
         <v>0.402721</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="6">
         <v>61.700976759999996</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="6">
         <v>366.11959970000004</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="6">
         <v>394.68113240000002</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="6">
         <v>427.82057650000002</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="6">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="7">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="8">
         <v>43647</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>39115.732000000004</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>40406.334999999999</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="5">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="5">
         <v>69.484158519999994</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="5">
         <v>357.76391310000002</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="5">
         <v>480.08610249999998</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="5">
         <v>427.2480716</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="5">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
         <v>43617</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="6">
         <v>37924.985999999997</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="6">
         <v>35382.743999999999</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="6">
         <v>2.5422420000000003</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="6">
         <v>69.954328790000005</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="6">
         <v>353.10700009999999</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="6">
         <v>576.3008863</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="6">
         <v>423.06132890000003</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="6">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="7">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8">
         <v>43586</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="5">
         <v>41749.982000000004</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>40792.86</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="5">
         <v>0.95712199999999992</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="5">
         <v>79.2564797</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="5">
         <v>333.8325638</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="5">
         <v>424.37654580000003</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="5">
         <v>413.0890435</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="5">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
         <v>43556</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="6">
         <v>39586.47</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="6">
         <v>38076.400999999998</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="6">
         <v>1.5100689999999999</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="6">
         <v>84.355074259999995</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="6">
         <v>406.61840089999998</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="6">
         <v>426.19051860000002</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="6">
         <v>490.97347509999997</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="6">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="7">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="8">
         <v>43525</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <v>39018.828000000001</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>37530.885999999999</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="5">
         <v>1.487941</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="5">
         <v>73.907545100000007</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="5">
         <v>368.99306280000002</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="5">
         <v>447.99316820000001</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="5">
         <v>442.90060790000001</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="5">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
         <v>43497</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="6">
         <v>36437.807000000001</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>35073.896999999997</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="6">
         <v>1.3639100000000002</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="6">
         <v>60.695827799999996</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="6">
         <v>345.78550730000001</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="6">
         <v>391.78540830000003</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="6">
         <v>406.48133510000002</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="6">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="7">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="10">
         <v>43466</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>32637.22</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>37262.788</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <v>44.457353900000001</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>401.53585190000001</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="7">
         <v>509.31251370000001</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>445.9932058</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="7">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
         <v>43435</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="6">
         <v>37597.546999999999</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="6">
         <v>35692.966999999997</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="6">
         <v>1.9045799999999999</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="6">
         <v>93.046003830000004</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="6">
         <v>365.93439640000003</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="6">
         <v>623.05252050000001</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="6">
         <v>458.98040019999996</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="6">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="7">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8">
         <v>43405</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="5">
         <v>38595.389000000003</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>40928.716</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="5">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="5">
         <v>87.314448180000014</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="5">
         <v>348.02154129999997</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="5">
         <v>454.46364279999995</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="5">
         <v>435.33598950000004</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="5">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
         <v>43374</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="6">
         <v>41356.07</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>44290.891000000003</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="6">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="6">
         <v>84.098175850000004</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="6">
         <v>345.19699420000001</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="6">
         <v>401.2088488</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="6">
         <v>429.29517010000001</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="6">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="7">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="8">
         <v>43344</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <v>37700.601999999999</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>38001.682999999997</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="5">
         <v>59.744647569999998</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="5">
         <v>314.87830750000001</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="5">
         <v>455.0669992</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="5">
         <v>374.62295510000001</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="5">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
         <v>43313</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="6">
         <v>39545.207999999999</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>42129.495999999999</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="6">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="6">
         <v>86.42946843</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="6">
         <v>317.49349560000002</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="6">
         <v>431.72454049999999</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="6">
         <v>403.9229641</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="6">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="7">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8">
         <v>43282</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>36742.212</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>39612.118000000002</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="5">
         <v>-2.869907</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="5">
         <v>92.059573439999994</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="5">
         <v>418.90484179999999</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="5">
         <v>434.67264309999996</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="5">
         <v>510.96441529999998</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="5">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
         <v>43252</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="6">
         <v>37483.508000000002</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="6">
         <v>38383.337</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="6">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="6">
         <v>77.601648080000004</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="6">
         <v>329.01200010000002</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="6">
         <v>566.17339060000006</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="6">
         <v>406.6136482</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="6">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="7">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8">
         <v>43221</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>39213.911999999997</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>40766.241000000002</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="5">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="5">
         <v>74.942058579999994</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="5">
         <v>303.29534039999999</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="5">
         <v>414.29038909999997</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="5">
         <v>378.23739899999998</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="5">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
         <v>43191</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="6">
         <v>37181.694000000003</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="6">
         <v>37471.964999999997</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="6">
         <v>-0.290271</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="6">
         <v>94.803737770000012</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="6">
         <v>362.92628529999996</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="6">
         <v>431.92046120000003</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="6">
         <v>457.73002299999996</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="6">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="7">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="8">
         <v>43160</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="5">
         <v>39484.266000000003</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>37734.614999999998</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="5">
         <v>1.7496510000000001</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="5">
         <v>77.807657630000008</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="5">
         <v>327.20724359999997</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="5">
         <v>442.02748349999996</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="5">
         <v>405.0149012</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="5">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
         <v>43132</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="6">
         <v>35093.792999999998</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="6">
         <v>34149.86</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="6">
         <v>0.94393300000000002</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="6">
         <v>61.288216349999999</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="6">
         <v>327.94041100000004</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="6">
         <v>443.14275679999997</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="6">
         <v>389.22862729999997</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="6">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="8">
         <v>43101</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="5">
         <v>30718.526999999998</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="5">
         <v>35140.478000000003</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="5">
         <v>-4.421951</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="5">
         <v>89.233049929999993</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="5">
         <v>375.93154670000001</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="5">
         <v>491.60764439999997</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="5">
         <v>465.16459659999998</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="5">
         <v>-20.418911999999999</v>
       </c>
     </row>
@@ -2834,6 +2945,10 @@
       <c r="E82" s="2"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
+      <c r="I82" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
@@ -2843,6 +2958,10 @@
       <c r="E83" s="2"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
+      <c r="I83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="15"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
@@ -2859,24 +2978,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="I86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="I87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J87" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865AD72A-04F8-4831-B29F-4838B02D9D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1762560-95D4-49F8-A32D-1E73B94E3F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Balanza comercial</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Fuente: INEGI. Banco de Información Económica (BIE). Resumen de la balanza comercial de mercancías en México. En: www.inegi.org.mx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
   </si>
   <si>
     <t>Exportaciones (MMD)</t>
@@ -80,10 +77,49 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Añoi</t>
+    <t>Actualización: agosto 2024.</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
   </si>
 </sst>
 </file>
@@ -221,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -263,6 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -303,13 +342,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -319,6 +351,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -373,7 +412,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K84" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K84" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B4:K84" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
@@ -383,7 +422,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{10743F00-F9DC-47F7-922E-9841D7311A9D}" name="Añoi" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{10743F00-F9DC-47F7-922E-9841D7311A9D}" name="Año" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{77BB675A-5E57-4648-861E-BC5B3D73D6BA}" name="Mes" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{79E0A04F-296B-455D-A21E-6E46636AB772}" name="Exportaciones (MMD)" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{2F1395D1-34F9-4F75-ABAF-2E9A1DE9579A}" name="Importaciones (MMD)" dataDxfId="6"/>
@@ -648,7 +687,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -682,16 +721,16 @@
     </row>
     <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>0</v>
@@ -703,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>3</v>
@@ -716,8 +755,8 @@
       <c r="B5" s="13">
         <v>2024</v>
       </c>
-      <c r="C5" s="13">
-        <v>8</v>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="6">
         <v>51915.491999999998</v>
@@ -748,8 +787,8 @@
       <c r="B6" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
-        <v>7</v>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>54788.55</v>
@@ -780,8 +819,8 @@
       <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13">
-        <v>6</v>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>48870.656000000003</v>
@@ -812,8 +851,8 @@
       <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="14">
-        <v>5</v>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="5">
         <v>55670.928</v>
@@ -844,8 +883,8 @@
       <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13">
-        <v>4</v>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="6">
         <v>51319.472999999998</v>
@@ -876,8 +915,8 @@
       <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="14">
-        <v>3</v>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>50646.334000000003</v>
@@ -908,8 +947,8 @@
       <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13">
-        <v>2</v>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="6">
         <v>50741.993000000002</v>
@@ -940,8 +979,8 @@
       <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
+      <c r="C12" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="7">
         <v>42137.728000000003</v>
@@ -972,8 +1011,8 @@
       <c r="B13" s="16">
         <v>2023</v>
       </c>
-      <c r="C13" s="16">
-        <v>12</v>
+      <c r="C13" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="8">
         <v>49271.110999999997</v>
@@ -1004,8 +1043,8 @@
       <c r="B14" s="14">
         <v>2023</v>
       </c>
-      <c r="C14" s="14">
-        <v>11</v>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="5">
         <v>50182.773000000001</v>
@@ -1036,8 +1075,8 @@
       <c r="B15" s="13">
         <v>2023</v>
       </c>
-      <c r="C15" s="13">
-        <v>10</v>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="6">
         <v>51856.870999999999</v>
@@ -1068,8 +1107,8 @@
       <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14">
-        <v>9</v>
+      <c r="C16" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="5">
         <v>49641.591999999997</v>
@@ -1100,8 +1139,8 @@
       <c r="B17" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="13">
-        <v>8</v>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="6">
         <v>52458.59</v>
@@ -1132,8 +1171,8 @@
       <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14">
-        <v>7</v>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="5">
         <v>47786.853000000003</v>
@@ -1164,8 +1203,8 @@
       <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13">
-        <v>6</v>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="6">
         <v>51820.218999999997</v>
@@ -1196,8 +1235,8 @@
       <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14">
-        <v>5</v>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="5">
         <v>52835.328999999998</v>
@@ -1228,8 +1267,8 @@
       <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13">
-        <v>4</v>
+      <c r="C21" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="6">
         <v>46086.559999999998</v>
@@ -1260,8 +1299,8 @@
       <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14">
-        <v>3</v>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="5">
         <v>53564.188999999998</v>
@@ -1292,8 +1331,8 @@
       <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13">
-        <v>2</v>
+      <c r="C23" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="6">
         <v>44891.478999999999</v>
@@ -1324,8 +1363,8 @@
       <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15">
-        <v>1</v>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="7">
         <v>42609.733999999997</v>
@@ -1356,8 +1395,8 @@
       <c r="B25" s="16">
         <v>2022</v>
       </c>
-      <c r="C25" s="16">
-        <v>12</v>
+      <c r="C25" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="8">
         <v>49319.341999999997</v>
@@ -1388,8 +1427,8 @@
       <c r="B26" s="14">
         <v>2022</v>
       </c>
-      <c r="C26" s="14">
-        <v>11</v>
+      <c r="C26" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <v>49249.146999999997</v>
@@ -1420,8 +1459,8 @@
       <c r="B27" s="13">
         <v>2022</v>
       </c>
-      <c r="C27" s="13">
-        <v>10</v>
+      <c r="C27" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="6">
         <v>49199.06</v>
@@ -1452,8 +1491,8 @@
       <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14">
-        <v>9</v>
+      <c r="C28" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="5">
         <v>52323.438000000002</v>
@@ -1484,8 +1523,8 @@
       <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="13">
-        <v>8</v>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D29" s="6">
         <v>50464.228999999999</v>
@@ -1516,8 +1555,8 @@
       <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14">
-        <v>7</v>
+      <c r="C30" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="5">
         <v>46216.525999999998</v>
@@ -1548,8 +1587,8 @@
       <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13">
-        <v>6</v>
+      <c r="C31" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="6">
         <v>51220.139000000003</v>
@@ -1580,8 +1619,8 @@
       <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14">
-        <v>5</v>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="5">
         <v>49964.769</v>
@@ -1612,8 +1651,8 @@
       <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13">
-        <v>4</v>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="6">
         <v>47580.499000000003</v>
@@ -1644,8 +1683,8 @@
       <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14">
-        <v>3</v>
+      <c r="C34" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="5">
         <v>51948.841999999997</v>
@@ -1676,8 +1715,8 @@
       <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13">
-        <v>2</v>
+      <c r="C35" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>46288.481</v>
@@ -1708,8 +1747,8 @@
       <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15">
-        <v>1</v>
+      <c r="C36" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="7">
         <v>33923.040999999997</v>
@@ -1740,8 +1779,8 @@
       <c r="B37" s="16">
         <v>2021</v>
       </c>
-      <c r="C37" s="16">
-        <v>12</v>
+      <c r="C37" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D37" s="8">
         <v>47866.48</v>
@@ -1772,8 +1811,8 @@
       <c r="B38" s="14">
         <v>2021</v>
       </c>
-      <c r="C38" s="14">
-        <v>11</v>
+      <c r="C38" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="5">
         <v>45676.661999999997</v>
@@ -1804,8 +1843,8 @@
       <c r="B39" s="13">
         <v>2021</v>
       </c>
-      <c r="C39" s="13">
-        <v>10</v>
+      <c r="C39" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="6">
         <v>41858.777999999998</v>
@@ -1836,8 +1875,8 @@
       <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14">
-        <v>9</v>
+      <c r="C40" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="5">
         <v>41754.362999999998</v>
@@ -1868,8 +1907,8 @@
       <c r="B41" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="13">
-        <v>8</v>
+      <c r="C41" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="6">
         <v>40471.381000000001</v>
@@ -1900,8 +1939,8 @@
       <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14">
-        <v>7</v>
+      <c r="C42" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D42" s="5">
         <v>40952.955999999998</v>
@@ -1932,8 +1971,8 @@
       <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13">
-        <v>6</v>
+      <c r="C43" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="6">
         <v>42619.373</v>
@@ -1964,8 +2003,8 @@
       <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14">
-        <v>5</v>
+      <c r="C44" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="5">
         <v>40845.599999999999</v>
@@ -1996,8 +2035,8 @@
       <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13">
-        <v>4</v>
+      <c r="C45" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="6">
         <v>40944.531000000003</v>
@@ -2028,8 +2067,8 @@
       <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14">
-        <v>3</v>
+      <c r="C46" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D46" s="5">
         <v>43029.98</v>
@@ -2060,8 +2099,8 @@
       <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13">
-        <v>2</v>
+      <c r="C47" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D47" s="6">
         <v>36213.207000000002</v>
@@ -2092,8 +2131,8 @@
       <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15">
-        <v>1</v>
+      <c r="C48" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="7">
         <v>32716.018</v>
@@ -2124,8 +2163,8 @@
       <c r="B49" s="16">
         <v>2020</v>
       </c>
-      <c r="C49" s="16">
-        <v>12</v>
+      <c r="C49" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="8">
         <v>43154.635000000002</v>
@@ -2156,8 +2195,8 @@
       <c r="B50" s="14">
         <v>2020</v>
       </c>
-      <c r="C50" s="14">
-        <v>11</v>
+      <c r="C50" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="5">
         <v>38313.68</v>
@@ -2188,8 +2227,8 @@
       <c r="B51" s="13">
         <v>2020</v>
       </c>
-      <c r="C51" s="13">
-        <v>10</v>
+      <c r="C51" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D51" s="6">
         <v>41950.815000000002</v>
@@ -2220,8 +2259,8 @@
       <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14">
-        <v>9</v>
+      <c r="C52" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="5">
         <v>38539.74</v>
@@ -2252,8 +2291,8 @@
       <c r="B53" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="13">
-        <v>8</v>
+      <c r="C53" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D53" s="6">
         <v>37001.120999999999</v>
@@ -2284,8 +2323,8 @@
       <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14">
-        <v>7</v>
+      <c r="C54" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="5">
         <v>35499.49</v>
@@ -2316,8 +2355,8 @@
       <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13">
-        <v>6</v>
+      <c r="C55" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="6">
         <v>33047.724999999999</v>
@@ -2348,8 +2387,8 @@
       <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14">
-        <v>5</v>
+      <c r="C56" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="5">
         <v>18116.042000000001</v>
@@ -2380,8 +2419,8 @@
       <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13">
-        <v>4</v>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D57" s="6">
         <v>23222.657999999999</v>
@@ -2412,8 +2451,8 @@
       <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14">
-        <v>3</v>
+      <c r="C58" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D58" s="5">
         <v>38310.269</v>
@@ -2444,8 +2483,8 @@
       <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13">
-        <v>2</v>
+      <c r="C59" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D59" s="6">
         <v>36433.716999999997</v>
@@ -2476,8 +2515,8 @@
       <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15">
-        <v>1</v>
+      <c r="C60" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D60" s="7">
         <v>33580.843000000001</v>
@@ -2508,8 +2547,8 @@
       <c r="B61" s="16">
         <v>2019</v>
       </c>
-      <c r="C61" s="16">
-        <v>12</v>
+      <c r="C61" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D61" s="8">
         <v>38654.358999999997</v>
@@ -2540,8 +2579,8 @@
       <c r="B62" s="14">
         <v>2019</v>
       </c>
-      <c r="C62" s="14">
-        <v>11</v>
+      <c r="C62" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="5">
         <v>37484.46</v>
@@ -2572,8 +2611,8 @@
       <c r="B63" s="13">
         <v>2019</v>
       </c>
-      <c r="C63" s="13">
-        <v>10</v>
+      <c r="C63" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D63" s="6">
         <v>40762.114000000001</v>
@@ -2604,8 +2643,8 @@
       <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14">
-        <v>9</v>
+      <c r="C64" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D64" s="5">
         <v>37180.582999999999</v>
@@ -2636,8 +2675,8 @@
       <c r="B65" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="13">
-        <v>8</v>
+      <c r="C65" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D65" s="6">
         <v>40051.154000000002</v>
@@ -2668,8 +2707,8 @@
       <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14">
-        <v>7</v>
+      <c r="C66" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D66" s="5">
         <v>39115.732000000004</v>
@@ -2700,8 +2739,8 @@
       <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13">
-        <v>6</v>
+      <c r="C67" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="6">
         <v>37924.985999999997</v>
@@ -2732,8 +2771,8 @@
       <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14">
-        <v>5</v>
+      <c r="C68" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D68" s="5">
         <v>41749.982000000004</v>
@@ -2764,8 +2803,8 @@
       <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13">
-        <v>4</v>
+      <c r="C69" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="6">
         <v>39586.47</v>
@@ -2796,8 +2835,8 @@
       <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14">
-        <v>3</v>
+      <c r="C70" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D70" s="5">
         <v>39018.828000000001</v>
@@ -2828,8 +2867,8 @@
       <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13">
-        <v>2</v>
+      <c r="C71" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D71" s="6">
         <v>36437.807000000001</v>
@@ -2860,8 +2899,8 @@
       <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15">
-        <v>1</v>
+      <c r="C72" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D72" s="7">
         <v>32637.22</v>
@@ -2892,8 +2931,8 @@
       <c r="B73" s="13">
         <v>2018</v>
       </c>
-      <c r="C73" s="13">
-        <v>12</v>
+      <c r="C73" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D73" s="6">
         <v>37597.546999999999</v>
@@ -2924,8 +2963,8 @@
       <c r="B74" s="14">
         <v>2018</v>
       </c>
-      <c r="C74" s="14">
-        <v>11</v>
+      <c r="C74" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D74" s="5">
         <v>38595.389000000003</v>
@@ -2956,8 +2995,8 @@
       <c r="B75" s="13">
         <v>2018</v>
       </c>
-      <c r="C75" s="13">
-        <v>10</v>
+      <c r="C75" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D75" s="6">
         <v>41356.07</v>
@@ -2988,8 +3027,8 @@
       <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14">
-        <v>9</v>
+      <c r="C76" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D76" s="5">
         <v>37700.601999999999</v>
@@ -3020,8 +3059,8 @@
       <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13">
-        <v>8</v>
+      <c r="C77" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D77" s="6">
         <v>39545.207999999999</v>
@@ -3052,8 +3091,8 @@
       <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14">
-        <v>7</v>
+      <c r="C78" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D78" s="5">
         <v>36742.212</v>
@@ -3084,8 +3123,8 @@
       <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13">
-        <v>6</v>
+      <c r="C79" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D79" s="6">
         <v>37483.508000000002</v>
@@ -3116,8 +3155,8 @@
       <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14">
-        <v>5</v>
+      <c r="C80" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D80" s="5">
         <v>39213.911999999997</v>
@@ -3148,8 +3187,8 @@
       <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13">
-        <v>4</v>
+      <c r="C81" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D81" s="6">
         <v>37181.694000000003</v>
@@ -3180,8 +3219,8 @@
       <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14">
-        <v>3</v>
+      <c r="C82" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D82" s="5">
         <v>39484.266000000003</v>
@@ -3212,8 +3251,8 @@
       <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13">
-        <v>2</v>
+      <c r="C83" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D83" s="6">
         <v>35093.792999999998</v>
@@ -3244,8 +3283,8 @@
       <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14">
-        <v>1</v>
+      <c r="C84" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D84" s="5">
         <v>30718.526999999998</v>
@@ -3274,12 +3313,12 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3291,7 +3330,7 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3312,8 +3351,8 @@
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>5</v>
+      <c r="B89" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552BFFD7-C08D-45ED-B945-91532325EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25ADA0-5516-4A5A-8801-47FDFA433ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -252,12 +252,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -302,6 +317,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -342,13 +360,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -358,6 +369,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -412,7 +430,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B4:K85" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
@@ -427,10 +445,10 @@
     <tableColumn id="2" xr3:uid="{79E0A04F-296B-455D-A21E-6E46636AB772}" name="Exportaciones (MMD)" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{2F1395D1-34F9-4F75-ABAF-2E9A1DE9579A}" name="Importaciones (MMD)" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{E4F001CF-A784-4D9C-B022-62FD6E578F58}" name="Balanza comercial" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8430C06B-EFD6-475E-846C-D34E4AD20090}" name="Ingresos petroleros" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos no petroleros" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Gasto público neto pagado (MMP)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2740B0E6-4F74-4A5C-B486-3F77EAD67DB4}" name="Ingresos presupuestarios (MMP)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8430C06B-EFD6-475E-846C-D34E4AD20090}" name="Ingresos presupuestarios (MMP)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos petroleros" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Ingresos no petroleros" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2740B0E6-4F74-4A5C-B486-3F77EAD67DB4}" name="Gasto público neto pagado (MMP)" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{73C0E9DD-33C1-496F-A5B9-700C4976B696}" name="Balance público" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -674,10 +692,10 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18.8984375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="29.09765625" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="26.8984375" customWidth="1"/>
+    <col min="8" max="8" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.296875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
@@ -694,8 +712,6 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -719,7 +735,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
@@ -735,17 +751,17 @@
       <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>3</v>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25ADA0-5516-4A5A-8801-47FDFA433ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62107D53-DD2B-4F40-83AD-66E84A33750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Balanza comercial</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">   Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -133,19 +133,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,20 +153,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -394,7 +394,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -430,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B4:K85" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K86" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B4:K86" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -458,7 +458,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,28 +466,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -496,14 +496,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -678,32 +678,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O90"/>
+  <dimension ref="B2:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="26.8984375" customWidth="1"/>
-    <col min="8" max="8" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.296875" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -735,7 +735,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
@@ -767,2618 +767,2638 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
         <v>2024</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <v>57671.148000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>57300.385000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.37076199999999998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>562.31859410000004</v>
+      </c>
+      <c r="H5" s="6">
+        <v>54.726741560000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>507.59185259999998</v>
+      </c>
+      <c r="J5" s="6">
+        <v>520.65286160000005</v>
+      </c>
+      <c r="K5" s="6">
+        <v>37.657212510000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>49625.911</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>50204.85</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>575.00933599999996</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>89.737521120000011</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>485.27181480000002</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>756.40009349999991</v>
       </c>
-      <c r="K5" s="5">
-        <v>-161.08517800000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13">
+      <c r="K6" s="5">
+        <v>-160.16996040000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>51915.491999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>56783.508000000002</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>608.96338760000003</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="6">
         <v>79.915929640000002</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="6">
         <v>529.04745800000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="6">
         <v>613.05172149999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="6">
         <v>-3.7060652479999998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>54788.55</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>54860.54</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>621.65065849999996</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <v>57.693381670000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="5">
         <v>563.95727680000005</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>766.68068119999998</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <v>-136.6763278</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>48870.656000000003</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>49907.542000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>-1.036886</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>596.233924</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="6">
         <v>73.592280530000011</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="6">
         <v>522.64164349999999</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J9" s="6">
         <v>783.35208120000004</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K9" s="6">
         <v>-166.5477496</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>55670.928</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>53679.716999999997</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>601.21309730000007</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <v>127.2689903</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <v>473.93698649999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <v>781.49538820000009</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <v>-174.69886650000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>51319.472999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>55065.692999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>753.97330149999993</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <v>91.977493539999998</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="6">
         <v>661.99580800000001</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="6">
         <v>678.64183389999994</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <v>99.43141396</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>50646.334000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>48654.080000000002</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>1.992254</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>632.91837659999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>92.825991580000007</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <v>540.09238500000004</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <v>670.10168539999995</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <v>-38.86993597</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>50741.993000000002</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>51305.805</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>575.42935719999991</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>97.489482409999994</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I13" s="6">
         <v>477.93987479999998</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J13" s="6">
         <v>844.58018900000002</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K13" s="6">
         <v>-263.875923</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>42137.728000000003</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>46271.845999999998</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>-4.134118</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>659.00872040000002</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>64.044574209999993</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>594.95777870000006</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>810.97817429999998</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="7">
         <v>-147.21179219999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
         <v>2023</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>49271.110999999997</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>45007.241999999998</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>692.4524914000001</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>82.904605689999997</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>609.57428900000002</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <v>983.61721550000004</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K15" s="8">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>50182.773000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>49621.455000000002</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>566.21468670000002</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <v>92.737154150000009</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <v>473.4775325</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <v>656.28544590000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="13">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>51856.870999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>52226.163</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>585.04371649999996</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <v>116.26270889999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="6">
         <v>468.78100760000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="6">
         <v>619.35053419999997</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="6">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>49641.591999999997</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>51139.512999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>547.44243669999992</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>79.329067260000002</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I18" s="5">
         <v>468.11336949999998</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>687.7519393</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="13">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>52458.59</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>53737.01</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>544.80571239999995</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>80.800463280000002</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="6">
         <v>463.98606169999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <v>580.01827819999994</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="6">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>47786.853000000003</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>48431.637999999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>638.50286259999996</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>145.0278701</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <v>493.47499249999998</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <v>707.7514357</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="13">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>51820.218999999997</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>51762.017999999996</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>540.93270129999996</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <v>80.119920429999993</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <v>460.81278079999998</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="6">
         <v>806.45105030000002</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="6">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>52835.328999999998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>52934.5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>555.57111129999998</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <v>82.92634846</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <v>472.64476280000002</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>653.17400809999992</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="13">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>46086.559999999998</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>47732.749000000003</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>624.98493189999999</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <v>62.250813090000001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <v>562.73411880000003</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J23" s="6">
         <v>560.13222569999994</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K23" s="6">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>53564.188999999998</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>52388.860999999997</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>633.88471259999994</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <v>96.979409270000005</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I24" s="5">
         <v>536.90530339999998</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <v>657.83727329999999</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="13">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>44891.478999999999</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>46778.476000000002</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>-1.886997</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>486.42462599999999</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <v>76.452717770000007</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>409.97190820000003</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="6">
         <v>571.3513946999999</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K25" s="6">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>42609.733999999997</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>46715.743999999999</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>623.06477700000005</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>83.199869219999997</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>539.86490780000008</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="7">
         <v>638.22747579999998</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K26" s="7">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
         <v>2022</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>49319.341999999997</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>48339.023999999998</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>655.58701839999992</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>197.15876370000001</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>458.42825479999999</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K27" s="8">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>49249.146999999997</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>49407.417000000001</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28" s="5">
         <v>554.64395230000002</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="5">
         <v>146.966982</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I28" s="5">
         <v>407.67697040000002</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J28" s="5">
         <v>673.24339520000001</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K28" s="5">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>49199.06</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>51287.15</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>505.08029119999998</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <v>130.97315</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>374.10714110000004</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J29" s="6">
         <v>559.9618984</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K29" s="6">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>52323.438000000002</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>53233.430999999997</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>505.89206039999999</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>114.3161025</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I30" s="5">
         <v>391.57595789999999</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>605.29125480000005</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K30" s="5">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>50464.228999999999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>56168.196000000004</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>519.0054983</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="6">
         <v>131.2182956</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>387.78720280000005</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J31" s="6">
         <v>541.53896669999995</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K31" s="6">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>46216.525999999998</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>52463.962</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>557.42874410000002</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <v>166.75375820000002</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <v>390.67498599999999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="5">
         <v>600.62089690000005</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K32" s="5">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>51220.139000000003</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>55191.302000000003</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>559.73611370000003</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H33" s="6">
         <v>98.318560459999986</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="6">
         <v>461.41755320000004</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J33" s="6">
         <v>706.11272819999999</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K33" s="6">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>49964.769</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>52220.451999999997</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="5">
         <v>471.06455729999999</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H34" s="5">
         <v>79.78186479</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I34" s="5">
         <v>391.2826925</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J34" s="5">
         <v>497.06811629999999</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K34" s="5">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>47580.499000000003</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>49363.531999999999</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>557.2406226999999</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <v>125.4457233</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="6">
         <v>431.7948993</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J35" s="6">
         <v>507.60401580000001</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K35" s="6">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>51948.841999999997</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>51801.682999999997</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <v>730.48246879999999</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <v>145.9187416</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="5">
         <v>584.56372720000002</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J36" s="5">
         <v>636.99511129999996</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K36" s="5">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>46288.481</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>44953.076999999997</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>1.335405</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>443.41898369999996</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H37" s="6">
         <v>75.364108080000008</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I37" s="6">
         <v>368.0548756</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J37" s="6">
         <v>566.15684659999999</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K37" s="6">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>33923.040999999997</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>40185.364999999998</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>543.24934059999998</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H38" s="7">
         <v>69.364702199999996</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I38" s="7">
         <v>473.88463839999997</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J38" s="7">
         <v>601.56697069999996</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K38" s="7">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16">
+    <row r="39" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
         <v>2021</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>47866.48</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>47102.457999999999</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>709.63483829999996</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>257.82414310000001</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I39" s="8">
         <v>451.8106952</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <v>1009.928812</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K39" s="8">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="14">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D40" s="5">
         <v>45676.661999999997</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <v>45698.67</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F40" s="5">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G40" s="5">
         <v>494.50499080000003</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H40" s="5">
         <v>122.01124229999999</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I40" s="5">
         <v>372.49374849999998</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J40" s="5">
         <v>586.4894286</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K40" s="5">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>41858.777999999998</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>44658.125999999997</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>434.50871130000002</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <v>89.701747210000008</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I41" s="6">
         <v>344.80696409999996</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J41" s="6">
         <v>431.36228289999997</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K41" s="6">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="14">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>41754.362999999998</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>44078.455999999998</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>-2.324093</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G42" s="5">
         <v>429.69536700000003</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H42" s="5">
         <v>77.364064190000008</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I42" s="5">
         <v>352.3313028</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J42" s="5">
         <v>523.26265420000004</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K42" s="5">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="13">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>40471.381000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>44215.64</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>-3.744259</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>483.51016749999997</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H43" s="6">
         <v>102.06880959999999</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I43" s="6">
         <v>381.44135790000001</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J43" s="6">
         <v>493.58672080000002</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K43" s="6">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="14">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>40952.955999999998</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>44950.627999999997</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <v>477.80359320000002</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H44" s="5">
         <v>80.378816399999991</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I44" s="5">
         <v>397.42477680000002</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J44" s="5">
         <v>496.53029499999997</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K44" s="5">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="13">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>42619.373</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>41909.428999999996</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>474.67039769999997</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H45" s="6">
         <v>63.459127159999994</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I45" s="6">
         <v>411.21127050000001</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J45" s="6">
         <v>608.01465940000003</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K45" s="6">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="14">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>40845.599999999999</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>40458.684000000001</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <v>456.4940363</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H46" s="5">
         <v>92.098913179999997</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I46" s="5">
         <v>364.39512310000003</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J46" s="5">
         <v>453.70198959999999</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K46" s="5">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="13">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>40944.531000000003</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>39259.65</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>435.7887518</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <v>66.844172089999986</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="6">
         <v>368.94457970000002</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J47" s="6">
         <v>469.50509600000004</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K47" s="6">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>43029.98</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>45974.453999999998</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <v>-2.944474</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G48" s="5">
         <v>636.64992270000005</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H48" s="5">
         <v>77.497578070000003</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I48" s="5">
         <v>559.15234459999999</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J48" s="5">
         <v>630.18856669999991</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K48" s="5">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>36213.207000000002</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>33486.199000000001</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>435.22278720000003</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H49" s="6">
         <v>79.15757769999999</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I49" s="6">
         <v>356.06520949999998</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J49" s="6">
         <v>534.51791370000001</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K49" s="6">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>32716.018</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>33910.701999999997</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>492.46105679999999</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H50" s="7">
         <v>48.080826710000004</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I50" s="7">
         <v>444.38023010000001</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J50" s="7">
         <v>498.73122280000001</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K50" s="7">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="16">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
         <v>2020</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>43154.635000000002</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>36879.947999999997</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>605.6727909</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H51" s="8">
         <v>109.36903909999999</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I51" s="8">
         <v>496.30375180000004</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J51" s="8">
         <v>841.94544250000001</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K51" s="8">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="14">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>38313.68</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>35257.525000000001</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="5">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G52" s="5">
         <v>438.95863640000005</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H52" s="5">
         <v>47.748503800000002</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I52" s="5">
         <v>391.21013260000001</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J52" s="5">
         <v>506.89896440000001</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K52" s="5">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="13">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>41950.815000000002</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>35694.81</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>406.42027350000001</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="6">
         <v>52.19927337</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I53" s="6">
         <v>354.22100019999999</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J53" s="6">
         <v>412.91902829999998</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="6">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="14">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>38539.74</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>34142.601999999999</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <v>4.397138</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G54" s="5">
         <v>380.43586629999999</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H54" s="5">
         <v>48.21359047</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I54" s="5">
         <v>332.2222759</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J54" s="5">
         <v>428.07223010000001</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K54" s="5">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="13">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>37001.120999999999</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>30845.723000000002</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>510.27948190000001</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H55" s="6">
         <v>46.15270237</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="6">
         <v>464.12677960000002</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="6">
         <v>368.06555599999996</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K55" s="6">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="14">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>35499.49</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>29844.448</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <v>395.16910050000001</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H56" s="5">
         <v>52.381400419999999</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I56" s="5">
         <v>342.7877001</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J56" s="5">
         <v>515.39163680000001</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K56" s="5">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="13">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>33047.724999999999</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>27512.168000000001</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>406.90336660000003</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H57" s="6">
         <v>63.830817719999999</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I57" s="6">
         <v>343.07254890000002</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J57" s="6">
         <v>550.00062520000006</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K57" s="6">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>18116.042000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>21578.337</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G58" s="5">
         <v>326.88726809999997</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H58" s="5">
         <v>28.305219940000001</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I58" s="5">
         <v>298.58204820000003</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J58" s="5">
         <v>414.11920990000004</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K58" s="5">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="13">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>23222.657999999999</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>26457.052</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>-3.234394</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>406.32991619999996</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="6">
         <v>22.58804619</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="6">
         <v>383.74187000000001</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J59" s="6">
         <v>476.66517670000002</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K59" s="6">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="14">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>38310.269</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>34995.932000000001</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60" s="5">
         <v>527.82391359999997</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H60" s="5">
         <v>38.183420570000003</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I60" s="5">
         <v>489.64049299999999</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J60" s="5">
         <v>543.02371759999994</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K60" s="5">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="13">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>36433.716999999997</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>33715.379000000001</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>394.82727059999996</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H61" s="6">
         <v>41.572570460000001</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="6">
         <v>353.25470010000004</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J61" s="6">
         <v>433.69674780000003</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K61" s="6">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="15">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>33580.843000000001</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>36062</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>540.28258030000006</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H62" s="7">
         <v>55.314693489999996</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I62" s="7">
         <v>484.96788679999997</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J62" s="7">
         <v>504.22741729999996</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="7">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="16">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="16">
         <v>2019</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>38654.358999999997</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>35587.868999999999</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>543.58259450000003</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H63" s="8">
         <v>121.4484357</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I63" s="8">
         <v>422.13415889999999</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J63" s="8">
         <v>734.08934550000004</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K63" s="8">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D64" s="5">
         <v>37484.46</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E64" s="5">
         <v>36697.660000000003</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F64" s="5">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G64" s="5">
         <v>473.86982849999998</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H64" s="5">
         <v>74.790037569999996</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I64" s="5">
         <v>399.07979090000003</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J64" s="5">
         <v>477.06680619999997</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K64" s="5">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="13">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>40762.114000000001</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>41449.531999999999</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>391.27770820000001</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="6">
         <v>52.107626119999999</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="6">
         <v>339.1700821</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J65" s="6">
         <v>393.85330019999998</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K65" s="6">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="14">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>37180.582999999999</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>37332.184000000001</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G66" s="5">
         <v>498.68650060000004</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H66" s="5">
         <v>163.53974220000001</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I66" s="5">
         <v>335.14675829999999</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J66" s="5">
         <v>536.88821819999998</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K66" s="5">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="13">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>40051.154000000002</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>39648.432999999997</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>0.402721</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>427.82057650000002</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H67" s="6">
         <v>61.700976759999996</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I67" s="6">
         <v>366.11959970000004</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J67" s="6">
         <v>394.68113240000002</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K67" s="6">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>39115.732000000004</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>40406.334999999999</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="5">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G68" s="5">
         <v>427.2480716</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H68" s="5">
         <v>69.484158519999994</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I68" s="5">
         <v>357.76391310000002</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J68" s="5">
         <v>480.08610249999998</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K68" s="5">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="13">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>37924.985999999997</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>35382.743999999999</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>423.06132890000003</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H69" s="6">
         <v>69.954328790000005</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I69" s="6">
         <v>353.10700009999999</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J69" s="6">
         <v>576.3008863</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K69" s="6">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="14">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>41749.982000000004</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>40792.86</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <v>413.0890435</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H70" s="5">
         <v>79.2564797</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I70" s="5">
         <v>333.8325638</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J70" s="5">
         <v>424.37654580000003</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K70" s="5">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="13">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>39586.47</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>38076.400999999998</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>490.97347509999997</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="6">
         <v>84.355074259999995</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I71" s="6">
         <v>406.61840089999998</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="6">
         <v>426.19051860000002</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K71" s="6">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>39018.828000000001</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>37530.885999999999</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <v>1.487941</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G72" s="5">
         <v>442.90060790000001</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H72" s="5">
         <v>73.907545100000007</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I72" s="5">
         <v>368.99306280000002</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J72" s="5">
         <v>447.99316820000001</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K72" s="5">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="13">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>36437.807000000001</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>35073.896999999997</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>406.48133510000002</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H73" s="6">
         <v>60.695827799999996</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I73" s="6">
         <v>345.78550730000001</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J73" s="6">
         <v>391.78540830000003</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K73" s="6">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="15">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>32637.22</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>37262.788</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <v>445.9932058</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H74" s="7">
         <v>44.457353900000001</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I74" s="7">
         <v>401.53585190000001</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J74" s="7">
         <v>509.31251370000001</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K74" s="7">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="13">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>37597.546999999999</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>35692.966999999997</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>458.98040019999996</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H75" s="6">
         <v>93.046003830000004</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="6">
         <v>365.93439640000003</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="6">
         <v>623.05252050000001</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K75" s="6">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>38595.389000000003</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>40928.716</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <v>435.33598950000004</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H76" s="5">
         <v>87.314448180000014</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I76" s="5">
         <v>348.02154129999997</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J76" s="5">
         <v>454.46364279999995</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K76" s="5">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="13">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>41356.07</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>44290.891000000003</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>429.29517010000001</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <v>84.098175850000004</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="6">
         <v>345.19699420000001</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J77" s="6">
         <v>401.2088488</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K77" s="6">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>37700.601999999999</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>38001.682999999997</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>374.62295510000001</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H78" s="5">
         <v>59.744647569999998</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I78" s="5">
         <v>314.87830750000001</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J78" s="5">
         <v>455.0669992</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K78" s="5">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="13">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>39545.207999999999</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>42129.495999999999</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>403.9229641</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H79" s="6">
         <v>86.42946843</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I79" s="6">
         <v>317.49349560000002</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J79" s="6">
         <v>431.72454049999999</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K79" s="6">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>36742.212</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>39612.118000000002</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <v>-2.869907</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G80" s="5">
         <v>510.96441529999998</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H80" s="5">
         <v>92.059573439999994</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I80" s="5">
         <v>418.90484179999999</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J80" s="5">
         <v>434.67264309999996</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K80" s="5">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="13">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>37483.508000000002</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>38383.337</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>406.6136482</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H81" s="6">
         <v>77.601648080000004</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I81" s="6">
         <v>329.01200010000002</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J81" s="6">
         <v>566.17339060000006</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K81" s="6">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>39213.911999999997</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>40766.241000000002</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="5">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G82" s="5">
         <v>378.23739899999998</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H82" s="5">
         <v>74.942058579999994</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I82" s="5">
         <v>303.29534039999999</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J82" s="5">
         <v>414.29038909999997</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K82" s="5">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="13">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>37181.694000000003</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>37471.964999999997</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>-0.290271</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>457.73002299999996</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H83" s="6">
         <v>94.803737770000012</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I83" s="6">
         <v>362.92628529999996</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J83" s="6">
         <v>431.92046120000003</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K83" s="6">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>39484.266000000003</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>37734.614999999998</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <v>405.0149012</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <v>77.807657630000008</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I84" s="5">
         <v>327.20724359999997</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J84" s="5">
         <v>442.02748349999996</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K84" s="5">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="13">
+    <row r="85" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>35093.792999999998</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>34149.86</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>389.22862729999997</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H85" s="6">
         <v>61.288216349999999</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I85" s="6">
         <v>327.94041100000004</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J85" s="6">
         <v>443.14275679999997</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K85" s="6">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="14">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <v>30718.526999999998</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <v>35140.478000000003</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <v>-4.421951</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="5">
         <v>465.16459659999998</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="5">
         <v>89.233049929999993</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I86" s="5">
         <v>375.93154670000001</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J86" s="5">
         <v>491.60764439999997</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K86" s="5">
         <v>-20.418911999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3388,18 +3408,30 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="17" t="s">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62107D53-DD2B-4F40-83AD-66E84A33750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B569E5-6C23-41CE-8367-1BF13FAC2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Balanza comercial</t>
   </si>
@@ -116,10 +116,10 @@
     <t>Año</t>
   </si>
   <si>
-    <t xml:space="preserve">   Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t xml:space="preserve">    Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
   </si>
 </sst>
 </file>
@@ -138,23 +138,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -164,11 +151,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -270,91 +272,202 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -373,6 +486,19 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -394,9 +520,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -430,11 +557,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K86" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B4:K86" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B4:K87" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -678,32 +804,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O91"/>
+  <dimension ref="B2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,7 +846,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -735,2708 +862,2740 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:15" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+    <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="9">
         <v>2024</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10">
+        <v>52024.519</v>
+      </c>
+      <c r="E5" s="10">
+        <v>52157.805999999997</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-0.13328800000000002</v>
+      </c>
+      <c r="G5" s="10">
+        <v>610.89737739999998</v>
+      </c>
+      <c r="H5" s="10">
+        <v>61.713882250000005</v>
+      </c>
+      <c r="I5" s="10">
+        <v>549.18349509999996</v>
+      </c>
+      <c r="J5" s="10">
+        <v>724.87230079999995</v>
+      </c>
+      <c r="K5" s="10">
+        <v>-110.23110920000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="12">
         <v>562.31859410000004</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="12">
         <v>54.726741560000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I6" s="12">
         <v>507.59185259999998</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="12">
         <v>520.65286160000005</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K6" s="12">
         <v>37.657212510000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="10">
         <v>575.00933599999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="10">
         <v>89.737521120000011</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I7" s="10">
         <v>485.27181480000002</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="10">
         <v>756.40009349999991</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="10">
         <v>-160.16996040000001</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="12">
         <v>608.96338760000003</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="12">
         <v>79.915929640000002</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="12">
         <v>529.04745800000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J8" s="12">
         <v>613.05172149999999</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="12">
         <v>-3.7060652479999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="10">
         <v>621.65065849999996</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="10">
         <v>57.693381670000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I9" s="10">
         <v>563.95727680000005</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="10">
         <v>766.68068119999998</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="10">
         <v>-136.6763278</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="12">
         <v>596.233924</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="12">
         <v>522.64164349999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="12">
         <v>783.35208120000004</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="12">
         <v>-166.5477496</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="10">
         <v>601.21309730000007</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="10">
         <v>473.93698649999999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="10">
         <v>781.49538820000009</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="10">
         <v>-174.69886650000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="12">
         <v>678.64183389999994</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="12">
         <v>99.43141396</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="10">
         <v>670.10168539999995</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="10">
         <v>-38.86993597</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="12">
         <v>-263.875923</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K15" s="14">
         <v>-147.21179219999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="9">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K27" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
         <v>2022</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="9">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G31" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I31" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K31" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K32" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I33" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K33" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G35" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H35" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I35" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J35" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K35" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G37" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H37" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I37" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J37" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J39" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K39" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2021</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="9">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G41" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H41" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I41" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J41" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K41" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="11">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G43" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H43" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I43" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J43" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K43" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J44" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K44" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G45" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I45" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J45" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K45" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J46" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K46" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F47" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G47" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H47" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I47" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J47" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K47" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I49" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J49" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K49" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J51" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K51" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
         <v>2020</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H52" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I52" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J52" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K52" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="9">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F53" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G53" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H53" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I53" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J53" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K53" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="11">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G55" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H55" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I55" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J55" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K55" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="13">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F57" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G57" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H57" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I57" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J57" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K57" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K58" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G59" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H59" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I59" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J59" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K59" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="13">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G61" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H61" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I61" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J61" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K61" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="13">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="15">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="14">
         <v>36062</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J63" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K63" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="16">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2019</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H64" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I64" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J64" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K64" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="9">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F65" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G65" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H65" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I65" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J65" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K65" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="11">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G67" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H67" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I67" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J67" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K67" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="13">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="14">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I69" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J69" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K69" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H70" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J70" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K70" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="14">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G71" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H71" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I71" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J71" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K71" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="13">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G73" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H73" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I73" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J73" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K73" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="13">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J74" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="15">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="13">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="9">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F77" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G77" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H77" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I77" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J77" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K77" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="14">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="9">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G79" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H79" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I79" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J79" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K79" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I80" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J80" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K80" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G81" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H81" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I81" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J81" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K81" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="13">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H82" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K82" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="14">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G83" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H83" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I83" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J83" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K83" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="13">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="14">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G85" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H85" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I85" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J85" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K85" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="13">
+    <row r="86" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I86" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J86" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="14">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G87" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H87" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I87" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J87" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K87" s="10">
         <v>-20.418911999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B88" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>26</v>
+      <c r="D91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B92" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B569E5-6C23-41CE-8367-1BF13FAC2A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E415D9E-C451-491A-981E-8F18213B3DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
-  <si>
-    <t>Balanza comercial</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t xml:space="preserve">    Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
+  </si>
+  <si>
+    <t>Saldo FOB (MMD)</t>
+  </si>
+  <si>
+    <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
     <tableColumn id="10" xr3:uid="{77BB675A-5E57-4648-861E-BC5B3D73D6BA}" name="Mes" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{79E0A04F-296B-455D-A21E-6E46636AB772}" name="Exportaciones (MMD)" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{2F1395D1-34F9-4F75-ABAF-2E9A1DE9579A}" name="Importaciones (MMD)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E4F001CF-A784-4D9C-B022-62FD6E578F58}" name="Balanza comercial" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E4F001CF-A784-4D9C-B022-62FD6E578F58}" name="Saldo FOB (MMD)" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8430C06B-EFD6-475E-846C-D34E4AD20090}" name="Ingresos presupuestarios (MMP)" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos petroleros" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Ingresos no petroleros" dataDxfId="2"/>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O92"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -832,7 +835,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -864,34 +867,34 @@
     </row>
     <row r="4" spans="2:15" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
@@ -899,7 +902,7 @@
         <v>2024</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10">
         <v>52024.519</v>
@@ -931,7 +934,7 @@
         <v>2024</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12">
         <v>57671.148000000001</v>
@@ -963,7 +966,7 @@
         <v>2024</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10">
         <v>49625.911</v>
@@ -995,7 +998,7 @@
         <v>2024</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12">
         <v>51915.491999999998</v>
@@ -1027,7 +1030,7 @@
         <v>2024</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="10">
         <v>54788.55</v>
@@ -1059,7 +1062,7 @@
         <v>2024</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="12">
         <v>48870.656000000003</v>
@@ -1091,7 +1094,7 @@
         <v>2024</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="10">
         <v>55670.928</v>
@@ -1123,7 +1126,7 @@
         <v>2024</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="12">
         <v>51319.472999999998</v>
@@ -1155,7 +1158,7 @@
         <v>2024</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="10">
         <v>50646.334000000003</v>
@@ -1187,7 +1190,7 @@
         <v>2024</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="12">
         <v>50741.993000000002</v>
@@ -1219,7 +1222,7 @@
         <v>2024</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="14">
         <v>42137.728000000003</v>
@@ -1251,7 +1254,7 @@
         <v>2023</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="16">
         <v>49271.110999999997</v>
@@ -1283,7 +1286,7 @@
         <v>2023</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="10">
         <v>50182.773000000001</v>
@@ -1315,7 +1318,7 @@
         <v>2023</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="12">
         <v>51856.870999999999</v>
@@ -1347,7 +1350,7 @@
         <v>2023</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10">
         <v>49641.591999999997</v>
@@ -1379,7 +1382,7 @@
         <v>2023</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="12">
         <v>52458.59</v>
@@ -1411,7 +1414,7 @@
         <v>2023</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="10">
         <v>47786.853000000003</v>
@@ -1443,7 +1446,7 @@
         <v>2023</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="12">
         <v>51820.218999999997</v>
@@ -1475,7 +1478,7 @@
         <v>2023</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10">
         <v>52835.328999999998</v>
@@ -1507,7 +1510,7 @@
         <v>2023</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="12">
         <v>46086.559999999998</v>
@@ -1539,7 +1542,7 @@
         <v>2023</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="10">
         <v>53564.188999999998</v>
@@ -1571,7 +1574,7 @@
         <v>2023</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="12">
         <v>44891.478999999999</v>
@@ -1603,7 +1606,7 @@
         <v>2023</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="14">
         <v>42609.733999999997</v>
@@ -1635,7 +1638,7 @@
         <v>2022</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="16">
         <v>49319.341999999997</v>
@@ -1667,7 +1670,7 @@
         <v>2022</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="10">
         <v>49249.146999999997</v>
@@ -1699,7 +1702,7 @@
         <v>2022</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="12">
         <v>49199.06</v>
@@ -1731,7 +1734,7 @@
         <v>2022</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="10">
         <v>52323.438000000002</v>
@@ -1763,7 +1766,7 @@
         <v>2022</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="12">
         <v>50464.228999999999</v>
@@ -1795,7 +1798,7 @@
         <v>2022</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="10">
         <v>46216.525999999998</v>
@@ -1827,7 +1830,7 @@
         <v>2022</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="12">
         <v>51220.139000000003</v>
@@ -1859,7 +1862,7 @@
         <v>2022</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="10">
         <v>49964.769</v>
@@ -1891,7 +1894,7 @@
         <v>2022</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="12">
         <v>47580.499000000003</v>
@@ -1923,7 +1926,7 @@
         <v>2022</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="10">
         <v>51948.841999999997</v>
@@ -1955,7 +1958,7 @@
         <v>2022</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="12">
         <v>46288.481</v>
@@ -1987,7 +1990,7 @@
         <v>2022</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="14">
         <v>33923.040999999997</v>
@@ -2019,7 +2022,7 @@
         <v>2021</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="16">
         <v>47866.48</v>
@@ -2051,7 +2054,7 @@
         <v>2021</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="10">
         <v>45676.661999999997</v>
@@ -2083,7 +2086,7 @@
         <v>2021</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="12">
         <v>41858.777999999998</v>
@@ -2115,7 +2118,7 @@
         <v>2021</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="10">
         <v>41754.362999999998</v>
@@ -2147,7 +2150,7 @@
         <v>2021</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="12">
         <v>40471.381000000001</v>
@@ -2179,7 +2182,7 @@
         <v>2021</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="10">
         <v>40952.955999999998</v>
@@ -2211,7 +2214,7 @@
         <v>2021</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="12">
         <v>42619.373</v>
@@ -2243,7 +2246,7 @@
         <v>2021</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10">
         <v>40845.599999999999</v>
@@ -2275,7 +2278,7 @@
         <v>2021</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="12">
         <v>40944.531000000003</v>
@@ -2307,7 +2310,7 @@
         <v>2021</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="10">
         <v>43029.98</v>
@@ -2339,7 +2342,7 @@
         <v>2021</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="12">
         <v>36213.207000000002</v>
@@ -2371,7 +2374,7 @@
         <v>2021</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="14">
         <v>32716.018</v>
@@ -2403,7 +2406,7 @@
         <v>2020</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="16">
         <v>43154.635000000002</v>
@@ -2435,7 +2438,7 @@
         <v>2020</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="10">
         <v>38313.68</v>
@@ -2467,7 +2470,7 @@
         <v>2020</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="12">
         <v>41950.815000000002</v>
@@ -2499,7 +2502,7 @@
         <v>2020</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="10">
         <v>38539.74</v>
@@ -2531,7 +2534,7 @@
         <v>2020</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="12">
         <v>37001.120999999999</v>
@@ -2563,7 +2566,7 @@
         <v>2020</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="10">
         <v>35499.49</v>
@@ -2595,7 +2598,7 @@
         <v>2020</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="12">
         <v>33047.724999999999</v>
@@ -2627,7 +2630,7 @@
         <v>2020</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="10">
         <v>18116.042000000001</v>
@@ -2659,7 +2662,7 @@
         <v>2020</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="12">
         <v>23222.657999999999</v>
@@ -2691,7 +2694,7 @@
         <v>2020</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="10">
         <v>38310.269</v>
@@ -2723,7 +2726,7 @@
         <v>2020</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="12">
         <v>36433.716999999997</v>
@@ -2755,7 +2758,7 @@
         <v>2020</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="14">
         <v>33580.843000000001</v>
@@ -2787,7 +2790,7 @@
         <v>2019</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="16">
         <v>38654.358999999997</v>
@@ -2819,7 +2822,7 @@
         <v>2019</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="10">
         <v>37484.46</v>
@@ -2851,7 +2854,7 @@
         <v>2019</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="12">
         <v>40762.114000000001</v>
@@ -2883,7 +2886,7 @@
         <v>2019</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="10">
         <v>37180.582999999999</v>
@@ -2915,7 +2918,7 @@
         <v>2019</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="12">
         <v>40051.154000000002</v>
@@ -2947,7 +2950,7 @@
         <v>2019</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="10">
         <v>39115.732000000004</v>
@@ -2979,7 +2982,7 @@
         <v>2019</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="12">
         <v>37924.985999999997</v>
@@ -3011,7 +3014,7 @@
         <v>2019</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="10">
         <v>41749.982000000004</v>
@@ -3043,7 +3046,7 @@
         <v>2019</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="12">
         <v>39586.47</v>
@@ -3075,7 +3078,7 @@
         <v>2019</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="10">
         <v>39018.828000000001</v>
@@ -3107,7 +3110,7 @@
         <v>2019</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="12">
         <v>36437.807000000001</v>
@@ -3139,7 +3142,7 @@
         <v>2019</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="14">
         <v>32637.22</v>
@@ -3171,7 +3174,7 @@
         <v>2018</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="12">
         <v>37597.546999999999</v>
@@ -3203,7 +3206,7 @@
         <v>2018</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="10">
         <v>38595.389000000003</v>
@@ -3235,7 +3238,7 @@
         <v>2018</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" s="12">
         <v>41356.07</v>
@@ -3267,7 +3270,7 @@
         <v>2018</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="10">
         <v>37700.601999999999</v>
@@ -3299,7 +3302,7 @@
         <v>2018</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="12">
         <v>39545.207999999999</v>
@@ -3331,7 +3334,7 @@
         <v>2018</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="10">
         <v>36742.212</v>
@@ -3363,7 +3366,7 @@
         <v>2018</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="12">
         <v>37483.508000000002</v>
@@ -3395,7 +3398,7 @@
         <v>2018</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="10">
         <v>39213.911999999997</v>
@@ -3427,7 +3430,7 @@
         <v>2018</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" s="12">
         <v>37181.694000000003</v>
@@ -3459,7 +3462,7 @@
         <v>2018</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="10">
         <v>39484.266000000003</v>
@@ -3491,7 +3494,7 @@
         <v>2018</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" s="12">
         <v>35093.792999999998</v>
@@ -3523,7 +3526,7 @@
         <v>2018</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="10">
         <v>30718.526999999998</v>
@@ -3552,24 +3555,18 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B88" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="B89" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3580,25 +3577,38 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="F91" s="2"/>
       <c r="H91" s="18"/>
       <c r="I91" s="18"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="19" t="s">
-        <v>27</v>
+      <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B93" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E415D9E-C451-491A-981E-8F18213B3DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA1B37-381C-4FF1-A06B-781E6AD61BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Para variación porcentual anual: Cálculos propios con base en datos proporcionados por el INEGI.</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
+  </si>
+  <si>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -476,6 +476,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -502,13 +509,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -560,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B4:K87" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B4:K88" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -898,2687 +898,2707 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>51686.847000000002</v>
+      </c>
+      <c r="E5" s="12">
+        <v>49120.036999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2.5668099999999998</v>
+      </c>
+      <c r="G5" s="12">
+        <v>696.18647390000001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>67.88486211</v>
+      </c>
+      <c r="I5" s="12">
+        <v>628.30161179999993</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1206.018239</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-618.561285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>52024.519</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="10">
         <v>52157.805999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>-0.13328800000000002</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>610.89737739999998</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H6" s="10">
         <v>61.713882250000005</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="10">
         <v>549.18349509999996</v>
       </c>
-      <c r="J5" s="10">
-        <v>724.87230079999995</v>
-      </c>
-      <c r="K5" s="10">
-        <v>-110.23110920000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="J6" s="10">
+        <v>724.97057440000003</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-105.95335739999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>562.31859410000004</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H7" s="12">
         <v>54.726741560000001</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="12">
         <v>507.59185259999998</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J7" s="12">
         <v>520.65286160000005</v>
       </c>
-      <c r="K6" s="12">
-        <v>37.657212510000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+      <c r="K7" s="12">
+        <v>51.739587020000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>575.00933599999996</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>89.737521120000011</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>485.27181480000002</v>
       </c>
-      <c r="J7" s="10">
-        <v>756.40009349999991</v>
-      </c>
-      <c r="K7" s="10">
-        <v>-160.16996040000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+      <c r="J8" s="10">
+        <v>756.45623820000003</v>
+      </c>
+      <c r="K8" s="10">
+        <v>-153.8986318</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>608.96338760000003</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>79.915929640000002</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>529.04745800000001</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>613.05172149999999</v>
       </c>
-      <c r="K8" s="12">
-        <v>-3.7060652479999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+      <c r="K9" s="12">
+        <v>-7.6582912439999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>621.65065849999996</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>57.693381670000001</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>563.95727680000005</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>766.68068119999998</v>
       </c>
-      <c r="K9" s="10">
-        <v>-136.6763278</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+      <c r="K10" s="10">
+        <v>-132.60861009999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>596.233924</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="12">
         <v>522.64164349999999</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="12">
         <v>783.35208120000004</v>
       </c>
-      <c r="K10" s="12">
-        <v>-166.5477496</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+      <c r="K11" s="12">
+        <v>-181.24677130000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>601.21309730000007</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>473.93698649999999</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J12" s="10">
         <v>781.49538820000009</v>
       </c>
-      <c r="K11" s="10">
-        <v>-174.69886650000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+      <c r="K12" s="10">
+        <v>-164.32057070000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="12">
         <v>678.64183389999994</v>
       </c>
-      <c r="K12" s="12">
-        <v>99.43141396</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+      <c r="K13" s="12">
+        <v>102.29137590000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>670.10168539999995</v>
       </c>
-      <c r="K13" s="10">
-        <v>-38.86993597</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+      <c r="K14" s="10">
+        <v>-26.844917730000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K14" s="12">
-        <v>-263.875923</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+      <c r="K15" s="12">
+        <v>-245.7123407</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K15" s="14">
-        <v>-147.21179219999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+      <c r="K16" s="14">
+        <v>-179.06752739999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J17" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K17" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="9">
         <v>2023</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H18" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I18" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J18" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J19" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K19" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K21" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K23" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K25" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2022</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="9">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="9">
         <v>2022</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I30" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H31" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I31" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J31" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K31" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I33" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J33" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K33" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K35" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K37" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K39" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H41" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I41" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J41" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K41" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="9">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="9">
         <v>2021</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H42" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I42" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J42" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K42" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H43" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I43" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J43" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K43" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H44" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I44" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K44" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H45" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I45" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J45" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K45" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H46" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I46" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J46" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K46" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H47" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I47" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J47" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K47" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H48" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I48" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J49" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K49" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H50" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I50" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J50" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K50" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H53" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I53" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J53" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K53" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="9">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="9">
         <v>2020</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H54" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I54" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J54" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K54" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F55" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H55" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I55" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J55" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K55" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H56" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I56" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J56" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I57" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J57" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K57" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H58" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I58" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J58" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K58" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I59" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J59" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K59" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H60" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J60" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J61" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K61" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H62" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I62" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J62" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K62" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="14">
         <v>36062</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I65" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J65" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K65" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="9">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9">
         <v>2019</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H66" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I66" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J66" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K66" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="11">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I67" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J67" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K67" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J69" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K69" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H70" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I70" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J70" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K70" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H71" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I71" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J71" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K71" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H72" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J72" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K72" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J73" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K73" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H74" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I74" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J74" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K74" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J75" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K75" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="11">
         <v>2018</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I77" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J77" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K77" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="9">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="9">
         <v>2018</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H78" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I78" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J78" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K78" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H79" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I79" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J79" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K79" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="9">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="9">
         <v>2018</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H80" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I80" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J80" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K80" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J81" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K81" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="9">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I83" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J83" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K83" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="9">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H84" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I84" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J84" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K84" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J85" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K85" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="9">
+    <row r="86" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H86" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I86" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J86" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K86" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H87" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I87" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J87" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K87" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="9">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-20.418911999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B88" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B89" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E89"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="B90" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3589,18 +3609,30 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="F92" s="2"/>
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="19" t="s">
-        <v>26</v>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B94" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA1B37-381C-4FF1-A06B-781E6AD61BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB79030-5F60-4F1D-88A3-835596188895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -272,12 +272,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -326,6 +337,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -560,8 +575,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B4:K88" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B4:K89" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -807,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -898,2719 +913,2739 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+      <c r="B5" s="20">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21">
+        <v>44446.195</v>
+      </c>
+      <c r="E5" s="21">
+        <v>49004.167999999998</v>
+      </c>
+      <c r="F5" s="21">
+        <v>-4.5579729999999996</v>
+      </c>
+      <c r="G5" s="21">
+        <v>712.07347360000006</v>
+      </c>
+      <c r="H5" s="21">
+        <v>69.822056660000001</v>
+      </c>
+      <c r="I5" s="21">
+        <v>642.25141689999998</v>
+      </c>
+      <c r="J5" s="21">
+        <v>719.25805519999994</v>
+      </c>
+      <c r="K5" s="21">
+        <v>-19.418664840000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="12">
         <v>51686.847000000002</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="12">
         <v>49120.036999999997</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>2.5668099999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>696.18647390000001</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H6" s="12">
         <v>67.88486211</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I6" s="12">
         <v>628.30161179999993</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J6" s="12">
         <v>1206.018239</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K6" s="12">
         <v>-618.561285</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>52024.519</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>52157.805999999997</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>-0.13328800000000002</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>610.89737739999998</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>61.713882250000005</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>549.18349509999996</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="10">
         <v>724.97057440000003</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="10">
         <v>-105.95335739999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>562.31859410000004</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="12">
         <v>54.726741560000001</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="12">
         <v>507.59185259999998</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J8" s="12">
         <v>520.65286160000005</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K8" s="12">
         <v>51.739587020000002</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>575.00933599999996</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="10">
         <v>89.737521120000011</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>485.27181480000002</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J9" s="10">
         <v>756.45623820000003</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K9" s="10">
         <v>-153.8986318</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>608.96338760000003</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="12">
         <v>79.915929640000002</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I10" s="12">
         <v>529.04745800000001</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J10" s="12">
         <v>613.05172149999999</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K10" s="12">
         <v>-7.6582912439999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>621.65065849999996</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H11" s="10">
         <v>57.693381670000001</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>563.95727680000005</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J11" s="10">
         <v>766.68068119999998</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="10">
         <v>-132.60861009999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>596.233924</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <v>522.64164349999999</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <v>783.35208120000004</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <v>-181.24677130000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>601.21309730000007</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H13" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>473.93698649999999</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="10">
         <v>781.49538820000009</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>-164.32057070000002</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I14" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J14" s="12">
         <v>678.64183389999994</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K14" s="12">
         <v>102.29137590000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H15" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I15" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J15" s="10">
         <v>670.10168539999995</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K15" s="10">
         <v>-26.844917730000002</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J16" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K16" s="12">
         <v>-245.7123407</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>-179.06752739999999</v>
       </c>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J18" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K18" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H19" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I19" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J19" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K19" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J20" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K20" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J21" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K21" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J22" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K22" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J23" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I24" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J25" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H26" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I26" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J26" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K26" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J27" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I28" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J28" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K28" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="9">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H31" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J31" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K32" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I34" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J34" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K34" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I36" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J36" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K36" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H38" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I38" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J38" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K38" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J40" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K40" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+    <row r="41" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K42" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="9">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H43" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I43" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J43" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K43" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H44" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I44" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J44" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K44" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H45" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K45" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H46" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I46" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J46" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K46" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H47" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I48" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J48" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K48" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H49" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I49" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J49" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K49" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H50" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I50" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J50" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K50" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H51" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I51" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J51" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K51" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I52" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J52" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K52" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="9">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H55" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I55" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J55" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K55" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H56" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I56" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J56" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K56" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H57" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I57" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J57" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K57" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H58" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I58" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J58" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K58" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H59" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J59" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K59" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H60" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I60" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J60" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K60" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H61" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J61" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K61" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H62" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I62" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J62" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K62" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I64" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J64" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>36062</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J66" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K66" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="9">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H67" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I67" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J67" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K67" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H68" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I68" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J68" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K68" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H69" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I69" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J69" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K69" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H70" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I70" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J70" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K70" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H71" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I71" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J71" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K71" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I72" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J72" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K72" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H73" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J73" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K73" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H74" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I74" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J74" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K74" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H75" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I75" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J75" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K75" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H76" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I76" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J76" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K76" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="11">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="11">
         <v>2018</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F78" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H78" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I78" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J78" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K78" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="9">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="9">
         <v>2018</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H79" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I79" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J79" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K79" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H80" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I80" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J80" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K80" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="9">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H81" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I81" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J81" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K81" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H82" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I82" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J82" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K82" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="9">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H83" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I83" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J83" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K83" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H84" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I84" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J84" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K84" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="9">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H85" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I85" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J85" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K85" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H86" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I86" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J86" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K86" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="9">
+    <row r="87" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H87" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I87" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J87" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K87" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H88" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I88" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J88" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K88" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="9">
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H89" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I89" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J89" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K89" s="10">
         <v>-20.418911999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B91" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="E91"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3621,17 +3656,29 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="F93" s="2"/>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B95" s="19" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB79030-5F60-4F1D-88A3-835596188895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503930E-B61B-45DB-AD76-3AE2A4F36313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -122,17 +122,18 @@
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -272,17 +273,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -337,10 +327,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -491,13 +481,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -524,6 +507,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -575,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B4:K89" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B4:K90" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -822,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
@@ -848,7 +838,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -864,7 +854,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -880,7 +870,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" s="8" customFormat="1" ht="33">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -912,2752 +902,2785 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+    <row r="5" spans="2:15" s="8" customFormat="1">
+      <c r="B5" s="11">
         <v>2025</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
+        <v>49279.659</v>
+      </c>
+      <c r="E5" s="12">
+        <v>47067.292000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2.212367</v>
+      </c>
+      <c r="G5" s="12">
+        <v>629.58264269999995</v>
+      </c>
+      <c r="H5" s="12">
+        <v>74.126385850000005</v>
+      </c>
+      <c r="I5" s="12">
+        <v>555.45625690000008</v>
+      </c>
+      <c r="J5" s="12">
+        <v>706.51404410000009</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-95.310465769999993</v>
+      </c>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="2:15" s="8" customFormat="1">
+      <c r="B6" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D6" s="14">
         <v>44446.195</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="14">
         <v>49004.167999999998</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F6" s="14">
         <v>-4.5579729999999996</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G6" s="14">
         <v>712.07347360000006</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H6" s="14">
         <v>69.822056660000001</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I6" s="14">
         <v>642.25141689999998</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J6" s="14">
         <v>719.25805519999994</v>
       </c>
-      <c r="K5" s="21">
-        <v>-19.418664840000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="K6" s="14">
+        <v>-18.918745449999999</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="2:15" s="8" customFormat="1">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>51686.847000000002</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>49120.036999999997</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>2.5668099999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>696.18647390000001</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H7" s="12">
         <v>67.88486211</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="12">
         <v>628.30161179999993</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J7" s="12">
         <v>1206.018239</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K7" s="12">
         <v>-618.561285</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="2:15" s="8" customFormat="1">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>52024.519</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>52157.805999999997</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>-0.13328800000000002</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>610.89737739999998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>61.713882250000005</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>549.18349509999996</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J8" s="10">
         <v>724.97057440000003</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K8" s="10">
         <v>-105.95335739999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="2:15" s="8" customFormat="1">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>562.31859410000004</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>54.726741560000001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>507.59185259999998</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>520.65286160000005</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="12">
         <v>51.739587020000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>575.00933599999996</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>89.737521120000011</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>485.27181480000002</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>756.45623820000003</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>-153.8986318</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>608.96338760000003</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="12">
         <v>79.915929640000002</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="12">
         <v>529.04745800000001</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="12">
         <v>613.05172149999999</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K11" s="12">
         <v>-7.6582912439999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>621.65065849999996</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>57.693381670000001</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>563.95727680000005</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J12" s="10">
         <v>766.68068119999998</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>-132.60861009999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>596.233924</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <v>522.64164349999999</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="12">
         <v>783.35208120000004</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K13" s="12">
         <v>-181.24677130000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>601.21309730000007</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>473.93698649999999</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>781.49538820000009</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>-164.32057070000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>678.64183389999994</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="12">
         <v>102.29137590000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J16" s="10">
         <v>670.10168539999995</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>-26.844917730000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K17" s="12">
         <v>-245.7123407</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="13">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="14">
         <v>-179.06752739999999</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:13" hidden="1">
+      <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:13" hidden="1">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:13" hidden="1">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K21" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K23" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K25" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H28" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J28" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K28" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="13">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I33" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J33" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K33" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K35" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K37" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K39" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K41" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+    <row r="42" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B42" s="13">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H44" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I44" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K44" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H45" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I45" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J45" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K45" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H46" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I46" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J46" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K46" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H47" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I47" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J47" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K47" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H48" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I48" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J49" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K49" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H50" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I50" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J50" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K50" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H52" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I52" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J52" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K52" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J53" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="13">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J54" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H56" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I56" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J56" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I57" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J57" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K57" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H58" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I58" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J58" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K58" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I59" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J59" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K59" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="9">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H60" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J60" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J61" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K61" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="9">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H62" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I62" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J62" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K62" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="9">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H64" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I64" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J64" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K64" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="13">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="14">
         <v>36062</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J66" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J69" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K69" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H70" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I70" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J70" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K70" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H71" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I71" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J71" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K71" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H72" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J72" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K72" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J73" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K73" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="9">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H74" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I74" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J74" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K74" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J75" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K75" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="9">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H76" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I76" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J76" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K76" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I77" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J77" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K77" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="13">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="11">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H79" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I79" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J79" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K79" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="9">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="9">
         <v>2018</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H80" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I80" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J80" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K80" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J81" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K81" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="9">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I83" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J83" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K83" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="9">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H84" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I84" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J84" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K84" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J85" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K85" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="9">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H86" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I86" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J86" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K86" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H87" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I87" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J87" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K87" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="9">
+    <row r="88" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H89" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I89" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J89" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K89" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="9">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H90" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I90" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J90" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K90" s="10">
         <v>-20.418911999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="17" t="s">
+    <row r="91" spans="2:11">
+      <c r="B91" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="17" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3667,18 +3690,30 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
+    <row r="94" spans="2:11">
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="F94" s="2"/>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" s="19" t="s">
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="19" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D503930E-B61B-45DB-AD76-3AE2A4F36313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391302B1-1D0A-46DD-9490-628B59F75384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -481,6 +481,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -507,13 +514,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -565,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B4:K90" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B4:K91" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -812,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -903,2796 +903,2816 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="8" customFormat="1">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2025</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10">
+        <v>55527.33</v>
+      </c>
+      <c r="E5" s="10">
+        <v>52084.877999999997</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3.4424520000000003</v>
+      </c>
+      <c r="G5" s="10">
+        <v>807.98755859999994</v>
+      </c>
+      <c r="H5" s="10">
+        <v>84.114985000000004</v>
+      </c>
+      <c r="I5" s="10">
+        <v>723.87257360000001</v>
+      </c>
+      <c r="J5" s="10">
+        <v>842.9936606</v>
+      </c>
+      <c r="K5" s="10">
+        <v>-24.596035360000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="8" customFormat="1">
+      <c r="B6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="12">
         <v>49279.659</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="12">
         <v>47067.292000000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>2.212367</v>
       </c>
-      <c r="G5" s="12">
-        <v>629.58264269999995</v>
-      </c>
-      <c r="H5" s="12">
-        <v>74.126385850000005</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="G6" s="12">
+        <v>629.41092900000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>73.954672089999988</v>
+      </c>
+      <c r="I6" s="12">
         <v>555.45625690000008</v>
       </c>
-      <c r="J5" s="12">
-        <v>706.51404410000009</v>
-      </c>
-      <c r="K5" s="12">
-        <v>-95.310465769999993</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="2:15" s="8" customFormat="1">
-      <c r="B6" s="13">
+      <c r="J6" s="12">
+        <v>707.6957625</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-96.759475600000002</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="2:15" s="8" customFormat="1">
+      <c r="B7" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>44446.195</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>49004.167999999998</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>-4.5579729999999996</v>
       </c>
-      <c r="G6" s="14">
-        <v>712.07347360000006</v>
-      </c>
-      <c r="H6" s="14">
-        <v>69.822056660000001</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="G7" s="14">
+        <v>711.70112019999999</v>
+      </c>
+      <c r="H7" s="14">
+        <v>69.449703229999997</v>
+      </c>
+      <c r="I7" s="14">
         <v>642.25141689999998</v>
       </c>
-      <c r="J6" s="14">
-        <v>719.25805519999994</v>
-      </c>
-      <c r="K6" s="14">
-        <v>-18.918745449999999</v>
-      </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="2:15" s="8" customFormat="1">
-      <c r="B7" s="11">
+      <c r="J7" s="14">
+        <v>719.00568810000004</v>
+      </c>
+      <c r="K7" s="14">
+        <v>-17.553487400000002</v>
+      </c>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="2:15" s="8" customFormat="1">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>51686.847000000002</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>49120.036999999997</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>2.5668099999999998</v>
       </c>
-      <c r="G7" s="12">
-        <v>696.18647390000001</v>
-      </c>
-      <c r="H7" s="12">
-        <v>67.88486211</v>
-      </c>
-      <c r="I7" s="12">
-        <v>628.30161179999993</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1206.018239</v>
-      </c>
-      <c r="K7" s="12">
-        <v>-618.561285</v>
-      </c>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="2:15" s="8" customFormat="1">
-      <c r="B8" s="9">
+      <c r="G8" s="12">
+        <v>695.15421379999998</v>
+      </c>
+      <c r="H8" s="12">
+        <v>67.869866160000001</v>
+      </c>
+      <c r="I8" s="12">
+        <v>627.28434759999993</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1210.184671</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-623.24968110000009</v>
+      </c>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="2:15" s="8" customFormat="1">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>52024.519</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>52157.805999999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>-0.13328800000000002</v>
       </c>
-      <c r="G8" s="10">
-        <v>610.89737739999998</v>
-      </c>
-      <c r="H8" s="10">
-        <v>61.713882250000005</v>
-      </c>
-      <c r="I8" s="10">
-        <v>549.18349509999996</v>
-      </c>
-      <c r="J8" s="10">
-        <v>724.97057440000003</v>
-      </c>
-      <c r="K8" s="10">
-        <v>-105.95335739999999</v>
-      </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="2:15" s="8" customFormat="1">
-      <c r="B9" s="11">
+      <c r="G9" s="10">
+        <v>610.93730229999994</v>
+      </c>
+      <c r="H9" s="10">
+        <v>61.7421547</v>
+      </c>
+      <c r="I9" s="10">
+        <v>549.19514760000004</v>
+      </c>
+      <c r="J9" s="10">
+        <v>724.94335479999995</v>
+      </c>
+      <c r="K9" s="10">
+        <v>-105.05414230000001</v>
+      </c>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="2:15" s="8" customFormat="1">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>562.31859410000004</v>
       </c>
-      <c r="H9" s="12">
-        <v>54.726741560000001</v>
-      </c>
-      <c r="I9" s="12">
-        <v>507.59185259999998</v>
-      </c>
-      <c r="J9" s="12">
-        <v>520.65286160000005</v>
-      </c>
-      <c r="K9" s="12">
-        <v>51.739587020000002</v>
-      </c>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1">
-      <c r="B10" s="9">
+      <c r="H10" s="12">
+        <v>54.724293369999998</v>
+      </c>
+      <c r="I10" s="12">
+        <v>507.59657449999997</v>
+      </c>
+      <c r="J10" s="12">
+        <v>520.69349780000005</v>
+      </c>
+      <c r="K10" s="12">
+        <v>51.530772929999998</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G10" s="10">
-        <v>575.00933599999996</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G11" s="10">
+        <v>575.02823520000004</v>
+      </c>
+      <c r="H11" s="10">
         <v>89.737521120000011</v>
       </c>
-      <c r="I10" s="10">
-        <v>485.27181480000002</v>
-      </c>
-      <c r="J10" s="10">
-        <v>756.45623820000003</v>
-      </c>
-      <c r="K10" s="10">
-        <v>-153.8986318</v>
-      </c>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="11">
+      <c r="I11" s="10">
+        <v>485.29065639999999</v>
+      </c>
+      <c r="J11" s="10">
+        <v>756.47187699999995</v>
+      </c>
+      <c r="K11" s="10">
+        <v>-153.5683981</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G11" s="12">
-        <v>608.96338760000003</v>
-      </c>
-      <c r="H11" s="12">
-        <v>79.915929640000002</v>
-      </c>
-      <c r="I11" s="12">
-        <v>529.04745800000001</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="G12" s="12">
+        <v>609.00144240000009</v>
+      </c>
+      <c r="H12" s="12">
+        <v>79.943752930000002</v>
+      </c>
+      <c r="I12" s="12">
+        <v>529.05768949999992</v>
+      </c>
+      <c r="J12" s="12">
         <v>613.05172149999999</v>
       </c>
-      <c r="K11" s="12">
-        <v>-7.6582912439999999</v>
-      </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="9">
+      <c r="K12" s="12">
+        <v>-7.2622771199999994</v>
+      </c>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G12" s="10">
-        <v>621.65065849999996</v>
-      </c>
-      <c r="H12" s="10">
-        <v>57.693381670000001</v>
-      </c>
-      <c r="I12" s="10">
-        <v>563.95727680000005</v>
-      </c>
-      <c r="J12" s="10">
-        <v>766.68068119999998</v>
-      </c>
-      <c r="K12" s="10">
-        <v>-132.60861009999999</v>
-      </c>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="11">
+      <c r="G13" s="10">
+        <v>621.68532429999993</v>
+      </c>
+      <c r="H13" s="10">
+        <v>57.698230850000002</v>
+      </c>
+      <c r="I13" s="10">
+        <v>563.98709340000005</v>
+      </c>
+      <c r="J13" s="10">
+        <v>771.34221790000004</v>
+      </c>
+      <c r="K13" s="10">
+        <v>-132.84034400000002</v>
+      </c>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G13" s="12">
-        <v>596.233924</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G14" s="12">
+        <v>596.24004220000006</v>
+      </c>
+      <c r="H14" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I13" s="12">
-        <v>522.64164349999999</v>
-      </c>
-      <c r="J13" s="12">
-        <v>783.35208120000004</v>
-      </c>
-      <c r="K13" s="12">
-        <v>-181.24677130000001</v>
-      </c>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="9">
+      <c r="I14" s="12">
+        <v>522.64776169999993</v>
+      </c>
+      <c r="J14" s="12">
+        <v>783.36213569999995</v>
+      </c>
+      <c r="K14" s="12">
+        <v>-180.910628</v>
+      </c>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G14" s="10">
-        <v>601.21309730000007</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G15" s="10">
+        <v>601.23173459999998</v>
+      </c>
+      <c r="H15" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I14" s="10">
-        <v>473.93698649999999</v>
-      </c>
-      <c r="J14" s="10">
-        <v>781.49538820000009</v>
-      </c>
-      <c r="K14" s="10">
-        <v>-164.32057070000002</v>
-      </c>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="11">
+      <c r="I15" s="10">
+        <v>473.9627443</v>
+      </c>
+      <c r="J15" s="10">
+        <v>781.13423380000006</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-164.8422406</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J15" s="12">
-        <v>678.64183389999994</v>
-      </c>
-      <c r="K15" s="12">
-        <v>102.29137590000001</v>
-      </c>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="9">
+      <c r="J16" s="12">
+        <v>677.70005530000003</v>
+      </c>
+      <c r="K16" s="12">
+        <v>101.72012669999999</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J16" s="10">
-        <v>670.10168539999995</v>
-      </c>
-      <c r="K16" s="10">
-        <v>-26.844917730000002</v>
-      </c>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="11">
+      <c r="J17" s="10">
+        <v>669.75355400000001</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-26.674376280000001</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H18" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J18" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K18" s="12">
         <v>-245.7123407</v>
       </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="13">
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="13">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="14">
         <v>-179.06752739999999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1">
-      <c r="B19" s="15">
+    <row r="20" spans="2:13" hidden="1">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1">
-      <c r="B20" s="9">
+    <row r="21" spans="2:13" hidden="1">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J21" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K21" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1">
-      <c r="B21" s="11">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J22" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K22" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J23" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="11">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I24" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J25" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="11">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H26" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I26" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J26" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K26" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J27" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="11">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I28" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J28" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K28" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H29" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J29" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K29" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="11">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F30" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H30" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I30" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J30" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K30" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="13">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="15">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="11">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I34" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J34" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K34" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I36" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J36" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K36" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="11">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H38" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I38" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J38" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K38" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="11">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J40" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K40" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H41" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J41" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K41" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="11">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F42" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H42" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I42" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J42" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K42" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B42" s="13">
+    <row r="43" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="15">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E44" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F44" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H44" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I44" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J44" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K44" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H45" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K45" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="11">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H46" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I46" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J46" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K46" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H47" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I48" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J48" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K48" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H49" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I49" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J49" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K49" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="11">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H50" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I50" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J50" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K50" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H51" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I51" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J51" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K51" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="11">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I52" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J52" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K52" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H53" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I53" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J53" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K53" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="11">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F54" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H54" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I54" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J54" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K54" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="13">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="15">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E56" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H56" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I56" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J56" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K56" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H57" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I57" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J57" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K57" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="11">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H58" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I58" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J58" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K58" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H59" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J59" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K59" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H60" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I60" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J60" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K60" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H61" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J61" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K61" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="11">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H62" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I62" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J62" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K62" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="11">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I64" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J64" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H65" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I65" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J65" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K65" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="11">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E66" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F66" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H66" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I66" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J66" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K66" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="13">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="14">
         <v>36062</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="15">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K68" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H69" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I69" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J69" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K69" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="11">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H70" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I70" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J70" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K70" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H71" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I71" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J71" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K71" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I72" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J72" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K72" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H73" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J73" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K73" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="11">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H74" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I74" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J74" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K74" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H75" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I75" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J75" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K75" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="11">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H76" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I76" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J76" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K76" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H77" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I77" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J77" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K77" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="11">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E78" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F78" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H78" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I78" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J78" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K78" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="13">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="11">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H80" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I80" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J80" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K80" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H81" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I81" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J81" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K81" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="11">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H82" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I82" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J82" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K82" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H83" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I83" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J83" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K83" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="11">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H84" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I84" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J84" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K84" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="9">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H85" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I85" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J85" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K85" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="11">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H86" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I86" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J86" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K86" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H87" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I87" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J87" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K87" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="11">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H88" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I88" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J88" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K88" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H89" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I89" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J89" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K89" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="11">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H90" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I90" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J90" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K90" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H91" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I91" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J91" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K91" s="10">
         <v>-20.418911999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="E93"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3703,17 +3723,29 @@
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="F95" s="2"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="19" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391302B1-1D0A-46DD-9490-628B59F75384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981252E-7CDB-49FC-B60A-269EAA816756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_8 y 9" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Ingresos petroleros</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril2025.</t>
   </si>
 </sst>
 </file>
@@ -327,10 +327,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -481,13 +481,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -514,6 +507,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -565,11 +565,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B4:K91" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B4:K92" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -812,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O97"/>
+  <dimension ref="B2:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -838,7 +839,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1">
+    <row r="2" spans="2:27" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -854,7 +855,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:27">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -870,7 +871,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="8" customFormat="1" ht="33">
+    <row r="4" spans="2:27" s="8" customFormat="1" ht="33">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -902,2829 +903,2872 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="8" customFormat="1">
-      <c r="B5" s="9">
+    <row r="5" spans="2:27" s="8" customFormat="1">
+      <c r="B5" s="11">
         <v>2025</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>54295.707000000002</v>
+      </c>
+      <c r="E5" s="12">
+        <v>54383.828999999998</v>
+      </c>
+      <c r="F5" s="12">
+        <v>-8.8122000000000006E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>746.75117799999998</v>
+      </c>
+      <c r="H5" s="21">
+        <v>87.763829150000007</v>
+      </c>
+      <c r="I5" s="21">
+        <v>658.98734880000006</v>
+      </c>
+      <c r="J5" s="21">
+        <v>731.12544800000001</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.29337273740000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" s="8" customFormat="1">
+      <c r="B6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>55527.33</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="10">
         <v>52084.877999999997</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>3.4424520000000003</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>807.98755859999994</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H6" s="10">
         <v>84.114985000000004</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I6" s="10">
         <v>723.87257360000001</v>
       </c>
-      <c r="J5" s="10">
-        <v>842.9936606</v>
-      </c>
-      <c r="K5" s="10">
-        <v>-24.596035360000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="8" customFormat="1">
-      <c r="B6" s="11">
+      <c r="J6" s="10">
+        <v>843.11038580000002</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-23.27685825</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" s="8" customFormat="1">
+      <c r="B7" s="11">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>49279.659</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E7" s="12">
         <v>47067.292000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>2.212367</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>629.41092900000001</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H7" s="12">
         <v>73.954672089999988</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="12">
         <v>555.45625690000008</v>
       </c>
-      <c r="J6" s="12">
-        <v>707.6957625</v>
-      </c>
-      <c r="K6" s="12">
-        <v>-96.759475600000002</v>
-      </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="2:15" s="8" customFormat="1">
-      <c r="B7" s="13">
+      <c r="J7" s="12">
+        <v>707.70176249999997</v>
+      </c>
+      <c r="K7" s="12">
+        <v>-95.116183019999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" s="8" customFormat="1">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <v>44446.195</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="14">
         <v>49004.167999999998</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <v>-4.5579729999999996</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>711.70112019999999</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>69.449703229999997</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>642.25141689999998</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>719.00568810000004</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>-17.553487400000002</v>
       </c>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="2:15" s="8" customFormat="1">
-      <c r="B8" s="11">
+    </row>
+    <row r="9" spans="2:27" s="8" customFormat="1">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>51686.847000000002</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>49120.036999999997</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>2.5668099999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>695.15421379999998</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>67.869866160000001</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>627.28434759999993</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>1210.184671</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="12">
         <v>-623.24968110000009</v>
       </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="2:15" s="8" customFormat="1">
-      <c r="B9" s="9">
+    </row>
+    <row r="10" spans="2:27" s="8" customFormat="1">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>52024.519</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>52157.805999999997</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>-0.13328800000000002</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>610.93730229999994</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>61.7421547</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>549.19514760000004</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>724.94335479999995</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>-105.05414230000001</v>
       </c>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="2:15" s="8" customFormat="1">
-      <c r="B10" s="11">
+    </row>
+    <row r="11" spans="2:27" s="8" customFormat="1">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>57671.148000000001</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>57300.385000000002</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>0.37076199999999998</v>
       </c>
-      <c r="G10" s="12">
-        <v>562.31859410000004</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G11" s="12">
+        <v>562.32086789999994</v>
+      </c>
+      <c r="H11" s="12">
         <v>54.724293369999998</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="12">
         <v>507.59657449999997</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="12">
         <v>520.69349780000005</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K11" s="12">
         <v>51.530772929999998</v>
       </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="9">
+    </row>
+    <row r="12" spans="2:27" ht="18" customHeight="1">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>49625.911</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>50204.85</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>-0.57893899999999998</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>575.02823520000004</v>
       </c>
-      <c r="H11" s="10">
-        <v>89.737521120000011</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="H12" s="10">
+        <v>89.737578839999998</v>
+      </c>
+      <c r="I12" s="10">
         <v>485.29065639999999</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J12" s="10">
         <v>756.47187699999995</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>-153.5683981</v>
       </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="11">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="2:27" ht="18" customHeight="1">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>51915.491999999998</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>56783.508000000002</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>-4.8680159999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>609.00144240000009</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>79.943752930000002</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <v>529.05768949999992</v>
       </c>
-      <c r="J12" s="12">
-        <v>613.05172149999999</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="J13" s="12">
+        <v>613.05052109999997</v>
+      </c>
+      <c r="K13" s="12">
         <v>-7.2622771199999994</v>
       </c>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="9">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>54788.55</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>54860.54</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>-7.1989999999999998E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>621.68532429999993</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>57.698230850000002</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>563.98709340000005</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>771.34221790000004</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>-132.84034400000002</v>
       </c>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="11">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>48870.656000000003</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>49907.542000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>-1.036886</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>596.24004220000006</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>73.592280530000011</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>522.64776169999993</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>783.36213569999995</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="12">
         <v>-180.910628</v>
       </c>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="9">
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>55670.928</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>53679.716999999997</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>1.9912100000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>601.23173459999998</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <v>127.2689903</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>473.9627443</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J16" s="10">
         <v>781.13423380000006</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>-164.8422406</v>
       </c>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="11">
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="11">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>51319.472999999998</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>55065.692999999999</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>-3.7462199999999997</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>753.97330149999993</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="12">
         <v>91.977493539999998</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="12">
         <v>661.99580800000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="12">
         <v>677.70005530000003</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K17" s="12">
         <v>101.72012669999999</v>
       </c>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="9">
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>50646.334000000003</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>48654.080000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>1.992254</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>632.91837659999999</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H18" s="10">
         <v>92.825991580000007</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I18" s="10">
         <v>540.09238500000004</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J18" s="10">
         <v>669.75355400000001</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>-26.674376280000001</v>
       </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="11">
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>50741.993000000002</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>51305.805</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>-0.56381199999999998</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>575.42935719999991</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="12">
         <v>477.93987479999998</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J19" s="12">
         <v>844.58018900000002</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K19" s="12">
         <v>-245.7123407</v>
       </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="13">
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="13">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <v>42137.728000000003</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>46271.845999999998</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F20" s="14">
         <v>-4.134118</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <v>659.00872040000002</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I20" s="14">
         <v>594.95777870000006</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>810.97817429999998</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K20" s="14">
         <v>-179.06752739999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1">
-      <c r="B20" s="15">
+    <row r="21" spans="2:13" hidden="1">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <v>49271.110999999997</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>45007.241999999998</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>4.2638689999999997</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>82.904605689999997</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>-291.29677990000005</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1">
-      <c r="B21" s="9">
+    <row r="22" spans="2:13" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>50182.773000000001</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>49621.455000000002</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>0.56131799999999998</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>566.21468670000002</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>92.737154150000009</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="10">
         <v>473.4775325</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>656.28544590000001</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>-87.662297609999996</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="11">
+    <row r="23" spans="2:13" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>51856.870999999999</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>52226.163</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>-0.36929199999999995</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>585.04371649999996</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="12">
         <v>116.26270889999999</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="12">
         <v>468.78100760000001</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="12">
         <v>619.35053419999997</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K23" s="12">
         <v>-29.437015110000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:13" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>49641.591999999997</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>51139.512999999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>-1.4979210000000001</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>547.44243669999992</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>79.329067260000002</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>468.11336949999998</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>687.7519393</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>-132.88201470000001</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1">
-      <c r="B24" s="11">
+    <row r="25" spans="2:13" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>52458.59</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>53737.01</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>-1.2784200000000001</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>544.80571239999995</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>80.800463280000002</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="12">
         <v>463.98606169999999</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>580.01827819999994</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K25" s="12">
         <v>-39.105137939999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:13" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>47786.853000000003</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>48431.637999999999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>-0.64478499999999994</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>638.50286259999996</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>145.0278701</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>493.47499249999998</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>707.7514357</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>-78.264336509999993</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1">
-      <c r="B26" s="11">
+    <row r="27" spans="2:13" hidden="1">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>51820.218999999997</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>51762.017999999996</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>5.8201000000000003E-2</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>540.93270129999996</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>80.119920429999993</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>460.81278079999998</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>806.45105030000002</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="12">
         <v>-257.62358760000001</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:13" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>52835.328999999998</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>52934.5</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>-9.9171000000000009E-2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>555.57111129999998</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H28" s="10">
         <v>82.92634846</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>472.64476280000002</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J28" s="10">
         <v>653.17400809999992</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K28" s="10">
         <v>-104.34415510000001</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1">
-      <c r="B28" s="11">
+    <row r="29" spans="2:13" hidden="1">
+      <c r="B29" s="11">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>46086.559999999998</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>47732.749000000003</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>-1.6461890000000001</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>624.98493189999999</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="12">
         <v>62.250813090000001</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="12">
         <v>562.73411880000003</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="12">
         <v>560.13222569999994</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="12">
         <v>65.906905110000011</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:13" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>53564.188999999998</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>52388.860999999997</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>1.1753279999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>633.88471259999994</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="10">
         <v>96.979409270000005</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I30" s="10">
         <v>536.90530339999998</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>657.83727329999999</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>7.1024282839999993</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1">
-      <c r="B30" s="11">
+    <row r="31" spans="2:13" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>44891.478999999999</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>46778.476000000002</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>-1.886997</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>486.42462599999999</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H31" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I31" s="12">
         <v>409.97190820000003</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J31" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K31" s="12">
         <v>-74.284774569999996</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:13" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>42609.733999999997</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>46715.743999999999</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>-4.1060110000000005</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>623.06477700000005</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>539.86490780000008</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K32" s="14">
         <v>-31.44971232</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="15">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <v>49319.341999999997</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>48339.023999999998</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="16">
         <v>0.98031800000000002</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="16">
         <v>-429.45266149999998</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>49249.146999999997</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>49407.417000000001</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>-0.15827000000000002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>554.64395230000002</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>146.966982</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <v>407.67697040000002</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <v>673.24339520000001</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <v>-120.41750089999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="11">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>49199.06</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>51287.15</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>-2.0880900000000002</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>505.08029119999998</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>130.97315</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="12">
         <v>374.10714110000004</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="12">
         <v>559.9618984</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K35" s="12">
         <v>-52.661784699999998</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>52323.438000000002</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>53233.430999999997</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>-0.90999300000000005</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>505.89206039999999</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>114.3161025</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <v>391.57595789999999</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <v>605.29125480000005</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <v>-106.3323824</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>50464.228999999999</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>56168.196000000004</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>-5.7039669999999996</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>519.0054983</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>131.2182956</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="12">
         <v>387.78720280000005</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="12">
         <v>541.53896669999995</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K37" s="12">
         <v>-26.013739860000001</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>46216.525999999998</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>52463.962</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>-6.2474359999999995</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>557.42874410000002</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <v>166.75375820000002</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <v>390.67498599999999</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <v>600.62089690000005</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <v>-40.157839670000001</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="11">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <v>51220.139000000003</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>55191.302000000003</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>-3.9711640000000004</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>559.73611370000003</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>98.318560459999986</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>461.41755320000004</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="12">
         <v>706.11272819999999</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K39" s="12">
         <v>-143.45506119999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>49964.769</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>52220.451999999997</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>-2.2556829999999999</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>471.06455729999999</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>79.78186479</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>391.2826925</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>497.06811629999999</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>-35.348529640000002</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="11">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="11">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <v>47580.499000000003</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="12">
         <v>49363.531999999999</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="12">
         <v>-1.7830329999999999</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>557.2406226999999</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="12">
         <v>125.4457233</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="12">
         <v>431.7948993</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="12">
         <v>507.60401580000001</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K41" s="12">
         <v>61.436890990000002</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>51948.841999999997</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>51801.682999999997</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>0.14715899999999998</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>730.48246879999999</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H42" s="10">
         <v>145.9187416</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I42" s="10">
         <v>584.56372720000002</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J42" s="10">
         <v>636.99511129999996</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K42" s="10">
         <v>104.18798840000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="11">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>46288.481</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E43" s="12">
         <v>44953.076999999997</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F43" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H43" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I43" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J43" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K43" s="12">
         <v>-107.5301003</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>33923.040999999997</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>40185.364999999998</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H44" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I44" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J44" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K44" s="14">
         <v>-55.147272040000004</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="15">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <v>47866.48</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>47102.457999999999</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H45" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I45" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J45" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="16">
         <v>-302.75952919999997</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>45676.661999999997</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>45698.67</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>-2.2008E-2</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>494.50499080000003</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H46" s="10">
         <v>122.01124229999999</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I46" s="10">
         <v>372.49374849999998</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J46" s="10">
         <v>586.4894286</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K46" s="10">
         <v>-98.701497130000007</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="11">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>41858.777999999998</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>44658.125999999997</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>-2.7993480000000002</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>434.50871130000002</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H47" s="12">
         <v>89.701747210000008</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I47" s="12">
         <v>344.80696409999996</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J47" s="12">
         <v>431.36228289999997</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K47" s="12">
         <v>10.9780493</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>41754.362999999998</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>44078.455999999998</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>-2.324093</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>429.69536700000003</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H48" s="10">
         <v>77.364064190000008</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I48" s="10">
         <v>352.3313028</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="10">
         <v>523.26265420000004</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <v>-99.578348899999995</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="11">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>40471.381000000001</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>44215.64</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>-3.744259</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>483.51016749999997</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="12">
         <v>102.06880959999999</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="12">
         <v>381.44135790000001</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J49" s="12">
         <v>493.58672080000002</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K49" s="12">
         <v>-19.7584546</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>40952.955999999998</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>44950.627999999997</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>-3.9976720000000001</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>477.80359320000002</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H50" s="10">
         <v>80.378816399999991</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I50" s="10">
         <v>397.42477680000002</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J50" s="10">
         <v>496.53029499999997</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K50" s="10">
         <v>-11.479581379999999</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="11">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>42619.373</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>41909.428999999996</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>0.70994500000000005</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>474.67039769999997</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>63.459127159999994</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>411.21127050000001</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="12">
         <v>608.01465940000003</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>-118.4646783</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>40845.599999999999</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>40458.684000000001</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>0.38691599999999998</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>456.4940363</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H52" s="10">
         <v>92.098913179999997</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I52" s="10">
         <v>364.39512310000003</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J52" s="10">
         <v>453.70198959999999</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K52" s="10">
         <v>-3.0755186110000001</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="11">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="11">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <v>40944.531000000003</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="12">
         <v>39259.65</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="12">
         <v>1.6848810000000001</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>435.7887518</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="12">
         <v>66.844172089999986</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="12">
         <v>368.94457970000002</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J53" s="12">
         <v>469.50509600000004</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="12">
         <v>-26.619936020000001</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>43029.98</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>45974.453999999998</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>-2.944474</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>636.64992270000005</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H54" s="10">
         <v>77.497578070000003</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I54" s="10">
         <v>559.15234459999999</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J54" s="10">
         <v>630.18856669999991</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K54" s="10">
         <v>15.93710081</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="11">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <v>36213.207000000002</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>33486.199000000001</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F55" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H55" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I55" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J55" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K55" s="12">
         <v>-91.017396080000012</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <v>32716.018</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>33910.701999999997</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H56" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I56" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J56" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K56" s="14">
         <v>-7.9565803100000005</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="15">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <v>43154.635000000002</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>36879.947999999997</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H57" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J57" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="16">
         <v>-277.08696509999999</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>38313.68</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>35257.525000000001</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>3.0561550000000004</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>438.95863640000005</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H58" s="10">
         <v>47.748503800000002</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I58" s="10">
         <v>391.21013260000001</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J58" s="10">
         <v>506.89896440000001</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K58" s="10">
         <v>-71.949392129999993</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="11">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>41950.815000000002</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="12">
         <v>35694.81</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="12">
         <v>6.2560039999999999</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>406.42027350000001</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>52.19927337</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I59" s="12">
         <v>354.22100019999999</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J59" s="12">
         <v>412.91902829999998</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K59" s="12">
         <v>-18.936514970000001</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>38539.74</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>34142.601999999999</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>4.397138</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>380.43586629999999</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H60" s="10">
         <v>48.21359047</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>332.2222759</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J60" s="10">
         <v>428.07223010000001</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <v>-33.416701580000002</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="11">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>37001.120999999999</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>30845.723000000002</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>6.1553969999999998</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>510.27948190000001</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="12">
         <v>46.15270237</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="12">
         <v>464.12677960000002</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J61" s="12">
         <v>368.06555599999996</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K61" s="12">
         <v>139.61153090000002</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>35499.49</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>29844.448</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>5.6550420000000008</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>395.16910050000001</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H62" s="10">
         <v>52.381400419999999</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I62" s="10">
         <v>342.7877001</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J62" s="10">
         <v>515.39163680000001</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K62" s="10">
         <v>-121.3940712</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="11">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>33047.724999999999</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>27512.168000000001</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>5.5355569999999998</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>406.90336660000003</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>63.830817719999999</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>343.07254890000002</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="12">
         <v>550.00062520000006</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>-145.04765129999998</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>18116.042000000001</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>21578.337</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>-3.4622950000000001</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>326.88726809999997</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H64" s="10">
         <v>28.305219940000001</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I64" s="10">
         <v>298.58204820000003</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J64" s="10">
         <v>414.11920990000004</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K64" s="10">
         <v>-74.267093519999989</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="11">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="11">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <v>23222.657999999999</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="12">
         <v>26457.052</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <v>-3.234394</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>406.32991619999996</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="12">
         <v>22.58804619</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="12">
         <v>383.74187000000001</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="12">
         <v>476.66517670000002</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="12">
         <v>-100.86927370000001</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>38310.269</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>34995.932000000001</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>3.3143370000000001</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>527.82391359999997</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H66" s="10">
         <v>38.183420570000003</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I66" s="10">
         <v>489.64049299999999</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J66" s="10">
         <v>543.02371759999994</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K66" s="10">
         <v>16.26658407</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="11">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <v>36433.716999999997</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E67" s="12">
         <v>33715.379000000001</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F67" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I67" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J67" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K67" s="12">
         <v>-30.15957229</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <v>33580.843000000001</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <v>36062</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F68" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K68" s="14">
         <v>40.826203909999997</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="15">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <v>38654.358999999997</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>35587.868999999999</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H69" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I69" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J69" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="16">
         <v>-226.43600739999999</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>37484.46</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>36697.660000000003</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>0.78679999999999994</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>473.86982849999998</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H70" s="10">
         <v>74.790037569999996</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I70" s="10">
         <v>399.07979090000003</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J70" s="10">
         <v>477.06680619999997</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K70" s="10">
         <v>-13.121122880000001</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="11">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>40762.114000000001</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="12">
         <v>41449.531999999999</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>-0.68741700000000006</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>391.27770820000001</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H71" s="12">
         <v>52.107626119999999</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I71" s="12">
         <v>339.1700821</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J71" s="12">
         <v>393.85330019999998</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K71" s="12">
         <v>6.1751103700000005</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>37180.582999999999</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>37332.184000000001</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>-0.15160099999999999</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>498.68650060000004</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H72" s="10">
         <v>163.53974220000001</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>335.14675829999999</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J72" s="10">
         <v>536.88821819999998</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K72" s="10">
         <v>-42.120543259999998</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="11">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>40051.154000000002</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>39648.432999999997</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>0.402721</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>427.82057650000002</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <v>61.700976759999996</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <v>366.11959970000004</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J73" s="12">
         <v>394.68113240000002</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K73" s="12">
         <v>34.967939649999998</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>39115.732000000004</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>40406.334999999999</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>-1.2906030000000002</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>427.2480716</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H74" s="10">
         <v>69.484158519999994</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I74" s="10">
         <v>357.76391310000002</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J74" s="10">
         <v>480.08610249999998</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K74" s="10">
         <v>-33.152173529999999</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="11">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <v>37924.985999999997</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="12">
         <v>35382.743999999999</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="12">
         <v>2.5422420000000003</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>423.06132890000003</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="12">
         <v>69.954328790000005</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="12">
         <v>353.10700009999999</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J75" s="12">
         <v>576.3008863</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K75" s="12">
         <v>-152.27265929999999</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>41749.982000000004</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>40792.86</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>0.95712199999999992</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>413.0890435</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H76" s="10">
         <v>79.2564797</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I76" s="10">
         <v>333.8325638</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J76" s="10">
         <v>424.37654580000003</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K76" s="10">
         <v>-5.692812215</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="11">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="11">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <v>39586.47</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="12">
         <v>38076.400999999998</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="12">
         <v>1.5100689999999999</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>490.97347509999997</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="12">
         <v>84.355074259999995</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I77" s="12">
         <v>406.61840089999998</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J77" s="12">
         <v>426.19051860000002</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K77" s="12">
         <v>62.526773919999997</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>39018.828000000001</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>37530.885999999999</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>1.487941</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>442.90060790000001</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H78" s="10">
         <v>73.907545100000007</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I78" s="10">
         <v>368.99306280000002</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J78" s="10">
         <v>447.99316820000001</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K78" s="10">
         <v>3.1435708460000003</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="11">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <v>36437.807000000001</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E79" s="12">
         <v>35073.896999999997</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F79" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H79" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I79" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J79" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K79" s="12">
         <v>15.10888634</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>32637.22</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>37262.788</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="14">
         <v>-42.735297079999995</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="11">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <v>37597.546999999999</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>35692.966999999997</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>1.9045799999999999</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>458.98040019999996</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="12">
         <v>93.046003830000004</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="12">
         <v>365.93439640000003</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J81" s="12">
         <v>623.05252050000001</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K81" s="12">
         <v>-178.90771109999997</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>38595.389000000003</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>40928.716</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>-2.3333270000000002</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>435.33598950000004</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>87.314448180000014</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>348.02154129999997</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>454.46364279999995</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>-40.905675330000001</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>41356.07</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>44290.891000000003</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>-2.9348209999999999</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>429.29517010000001</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="12">
         <v>84.098175850000004</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I83" s="12">
         <v>345.19699420000001</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J83" s="12">
         <v>401.2088488</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K83" s="12">
         <v>35.850367480000003</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>37700.601999999999</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>38001.682999999997</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>-0.30107999999999996</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>374.62295510000001</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H84" s="10">
         <v>59.744647569999998</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I84" s="10">
         <v>314.87830750000001</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J84" s="10">
         <v>455.0669992</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K84" s="10">
         <v>-80.179064410000009</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="11">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>39545.207999999999</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>42129.495999999999</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>-2.5842879999999999</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>403.9229641</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="12">
         <v>86.42946843</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="12">
         <v>317.49349560000002</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J85" s="12">
         <v>431.72454049999999</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K85" s="12">
         <v>-31.452990399999997</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>36742.212</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>39612.118000000002</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>-2.869907</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>510.96441529999998</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H86" s="10">
         <v>92.059573439999994</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I86" s="10">
         <v>418.90484179999999</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J86" s="10">
         <v>434.67264309999996</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K86" s="10">
         <v>7.344534736</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="11">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>37483.508000000002</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>38383.337</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>-0.89982799999999996</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>406.6136482</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H87" s="12">
         <v>77.601648080000004</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I87" s="12">
         <v>329.01200010000002</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J87" s="12">
         <v>566.17339060000006</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K87" s="12">
         <v>-169.83211939999998</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>39213.911999999997</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>40766.241000000002</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>-1.5523289999999998</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>378.23739899999998</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>74.942058579999994</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>303.29534039999999</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>414.29038909999997</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-42.702346929999997</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="11">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>37181.694000000003</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>37471.964999999997</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>-0.290271</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>457.73002299999996</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H89" s="12">
         <v>94.803737770000012</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I89" s="12">
         <v>362.92628529999996</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J89" s="12">
         <v>431.92046120000003</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K89" s="12">
         <v>97.740447079999996</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:11" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>39484.266000000003</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>37734.614999999998</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>1.7496510000000001</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>405.0149012</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H90" s="10">
         <v>77.807657630000008</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I90" s="10">
         <v>327.20724359999997</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J90" s="10">
         <v>442.02748349999996</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K90" s="10">
         <v>-24.13319199</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="11">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <v>35093.792999999998</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>34149.86</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>0.94393300000000002</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>389.22862729999997</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H91" s="12">
         <v>61.288216349999999</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I91" s="12">
         <v>327.94041100000004</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J91" s="12">
         <v>443.14275679999997</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K91" s="12">
         <v>-47.38522493</v>
       </c>
     </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <v>30718.526999999998</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E92" s="10">
         <v>35140.478000000003</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H92" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I92" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J92" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K92" s="10">
         <v>-20.418911999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="E94"/>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3735,17 +3779,29 @@
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="F96" s="2"/>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="19" t="s">
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="19" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Ind_Int_Mex.xlsx
+++ b/Ind_Int_Mex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981252E-7CDB-49FC-B60A-269EAA816756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37339869-749C-4383-9855-5A44B645D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
-  <si>
-    <t>Ingresos petroleros</t>
-  </si>
-  <si>
-    <t>Ingresos no petroleros</t>
-  </si>
-  <si>
-    <t>Balance público</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>Fuente: INEGI. Banco de Información Económica (BIE). Resumen de la balanza comercial de mercancías en México. En: www.inegi.org.mx.</t>
   </si>
@@ -122,16 +113,24 @@
     <t>Nota: Saldo FOB: (Free on Board). Es el valor de venta de las mercancías en su lugar de origen colocadas en la frontera o puerto nacional, incluye el valor de transacción de los bienes y el valor de los servicios suministrados para entregarlas en la frontera del país exportador.</t>
   </si>
   <si>
-    <t>Actualización: Abril2025.</t>
+    <t>Ingresos petroleros (MMP)</t>
+  </si>
+  <si>
+    <t>Ingresos no petroleros (MMP)</t>
+  </si>
+  <si>
+    <t>Balance público (MMP)</t>
+  </si>
+  <si>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -278,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,7 +326,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -481,6 +479,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -507,13 +512,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -565,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B4:K92" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}" name="Tabla1" displayName="Tabla1" ref="B4:K94" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B4:K94" xr:uid="{3E88C0E3-6773-43BB-B3B8-340CBB56A91C}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -581,10 +579,10 @@
     <tableColumn id="3" xr3:uid="{2F1395D1-34F9-4F75-ABAF-2E9A1DE9579A}" name="Importaciones (MMD)" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{E4F001CF-A784-4D9C-B022-62FD6E578F58}" name="Saldo FOB (MMD)" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8430C06B-EFD6-475E-846C-D34E4AD20090}" name="Ingresos presupuestarios (MMP)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos petroleros" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Ingresos no petroleros" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78ECAFC5-5C86-442F-8ABB-02AFBB625A91}" name="Ingresos petroleros (MMP)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{97865E99-14E5-446E-98D2-DEFF6B2388EB}" name="Ingresos no petroleros (MMP)" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{2740B0E6-4F74-4A5C-B486-3F77EAD67DB4}" name="Gasto público neto pagado (MMP)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{73C0E9DD-33C1-496F-A5B9-700C4976B696}" name="Balance público" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{73C0E9DD-33C1-496F-A5B9-700C4976B696}" name="Balance público (MMP)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA98"/>
+  <dimension ref="B2:AA100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -836,12 +834,14 @@
     <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="16" max="18" width="11" style="3"/>
+    <col min="19" max="19" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -873,34 +873,34 @@
     </row>
     <row r="4" spans="2:27" s="8" customFormat="1" ht="33">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:27" s="8" customFormat="1">
@@ -908,31 +908,31 @@
         <v>2025</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12">
-        <v>54295.707000000002</v>
+        <v>54.001826999999999</v>
       </c>
       <c r="E5" s="12">
-        <v>54383.828999999998</v>
+        <v>53.487397999999999</v>
       </c>
       <c r="F5" s="12">
-        <v>-8.8122000000000006E-2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>746.75117799999998</v>
-      </c>
-      <c r="H5" s="21">
-        <v>87.763829150000007</v>
-      </c>
-      <c r="I5" s="21">
-        <v>658.98734880000006</v>
-      </c>
-      <c r="J5" s="21">
-        <v>731.12544800000001</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0.29337273740000003</v>
+        <v>0.51442900000000003</v>
+      </c>
+      <c r="G5" s="20">
+        <v>633.1687558000001</v>
+      </c>
+      <c r="H5" s="20">
+        <v>67.684922180000001</v>
+      </c>
+      <c r="I5" s="20">
+        <v>565.48383360000003</v>
+      </c>
+      <c r="J5" s="20">
+        <v>847.61785199999997</v>
+      </c>
+      <c r="K5" s="20">
+        <v>-194.2799062</v>
       </c>
     </row>
     <row r="6" spans="2:27" s="8" customFormat="1">
@@ -940,31 +940,31 @@
         <v>2025</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
-        <v>55527.33</v>
+        <v>55.476734999999998</v>
       </c>
       <c r="E6" s="10">
-        <v>52084.877999999997</v>
+        <v>54.244911000000002</v>
       </c>
       <c r="F6" s="10">
-        <v>3.4424520000000003</v>
+        <v>1.231824</v>
       </c>
       <c r="G6" s="10">
-        <v>807.98755859999994</v>
+        <v>575.72252609999998</v>
       </c>
       <c r="H6" s="10">
-        <v>84.114985000000004</v>
+        <v>59.933650880000002</v>
       </c>
       <c r="I6" s="10">
-        <v>723.87257360000001</v>
+        <v>515.78887520000001</v>
       </c>
       <c r="J6" s="10">
-        <v>843.11038580000002</v>
+        <v>721.64340149999998</v>
       </c>
       <c r="K6" s="10">
-        <v>-23.27685825</v>
+        <v>-116.18732540000001</v>
       </c>
     </row>
     <row r="7" spans="2:27" s="8" customFormat="1">
@@ -972,127 +972,127 @@
         <v>2025</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>49279.659</v>
+        <v>54.347764000000005</v>
       </c>
       <c r="E7" s="12">
-        <v>47067.292000000001</v>
+        <v>54.392226000000001</v>
       </c>
       <c r="F7" s="12">
-        <v>2.212367</v>
-      </c>
-      <c r="G7" s="12">
-        <v>629.41092900000001</v>
-      </c>
-      <c r="H7" s="12">
-        <v>73.954672089999988</v>
-      </c>
-      <c r="I7" s="12">
-        <v>555.45625690000008</v>
-      </c>
-      <c r="J7" s="12">
-        <v>707.70176249999997</v>
-      </c>
-      <c r="K7" s="12">
-        <v>-95.116183019999994</v>
+        <v>-4.4462000000000002E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <v>746.7511968</v>
+      </c>
+      <c r="H7" s="20">
+        <v>87.763848039999999</v>
+      </c>
+      <c r="I7" s="20">
+        <v>658.98734880000006</v>
+      </c>
+      <c r="J7" s="20">
+        <v>731.17439690000003</v>
+      </c>
+      <c r="K7" s="20">
+        <v>9.1309300989999986</v>
       </c>
     </row>
     <row r="8" spans="2:27" s="8" customFormat="1">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="14">
-        <v>44446.195</v>
-      </c>
-      <c r="E8" s="14">
-        <v>49004.167999999998</v>
-      </c>
-      <c r="F8" s="14">
-        <v>-4.5579729999999996</v>
-      </c>
-      <c r="G8" s="14">
-        <v>711.70112019999999</v>
-      </c>
-      <c r="H8" s="14">
-        <v>69.449703229999997</v>
-      </c>
-      <c r="I8" s="14">
-        <v>642.25141689999998</v>
-      </c>
-      <c r="J8" s="14">
-        <v>719.00568810000004</v>
-      </c>
-      <c r="K8" s="14">
-        <v>-17.553487400000002</v>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>55.404972000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>52.115200999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3.289771</v>
+      </c>
+      <c r="G8" s="10">
+        <v>807.99885649999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>84.114734560000002</v>
+      </c>
+      <c r="I8" s="10">
+        <v>723.88412190000008</v>
+      </c>
+      <c r="J8" s="10">
+        <v>843.1230971</v>
+      </c>
+      <c r="K8" s="10">
+        <v>-14.748366180000001</v>
       </c>
     </row>
     <row r="9" spans="2:27" s="8" customFormat="1">
       <c r="B9" s="11">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12">
-        <v>51686.847000000002</v>
+        <v>49.098535000000005</v>
       </c>
       <c r="E9" s="12">
-        <v>49120.036999999997</v>
+        <v>47.444307000000002</v>
       </c>
       <c r="F9" s="12">
-        <v>2.5668099999999998</v>
+        <v>1.654228</v>
       </c>
       <c r="G9" s="12">
-        <v>695.15421379999998</v>
+        <v>629.41856299999995</v>
       </c>
       <c r="H9" s="12">
-        <v>67.869866160000001</v>
+        <v>73.954673499999998</v>
       </c>
       <c r="I9" s="12">
-        <v>627.28434759999993</v>
+        <v>555.46388950000005</v>
       </c>
       <c r="J9" s="12">
-        <v>1210.184671</v>
+        <v>707.70531389999996</v>
       </c>
       <c r="K9" s="12">
-        <v>-623.24968110000009</v>
+        <v>-90.802906650000011</v>
       </c>
     </row>
     <row r="10" spans="2:27" s="8" customFormat="1">
-      <c r="B10" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10">
-        <v>52024.519</v>
-      </c>
-      <c r="E10" s="10">
-        <v>52157.805999999997</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-0.13328800000000002</v>
-      </c>
-      <c r="G10" s="10">
-        <v>610.93730229999994</v>
-      </c>
-      <c r="H10" s="10">
-        <v>61.7421547</v>
-      </c>
-      <c r="I10" s="10">
-        <v>549.19514760000004</v>
-      </c>
-      <c r="J10" s="10">
-        <v>724.94335479999995</v>
-      </c>
-      <c r="K10" s="10">
-        <v>-105.05414230000001</v>
+      <c r="B10" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14">
+        <v>44.398266999999997</v>
+      </c>
+      <c r="E10" s="14">
+        <v>49.611476000000003</v>
+      </c>
+      <c r="F10" s="14">
+        <v>-5.2132079999999998</v>
+      </c>
+      <c r="G10" s="14">
+        <v>711.72002520000001</v>
+      </c>
+      <c r="H10" s="14">
+        <v>69.44971305</v>
+      </c>
+      <c r="I10" s="14">
+        <v>642.27031220000003</v>
+      </c>
+      <c r="J10" s="14">
+        <v>719.02419559999998</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-13.010857770000001</v>
       </c>
     </row>
     <row r="11" spans="2:27" s="8" customFormat="1">
@@ -1100,144 +1100,130 @@
         <v>2024</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="12">
-        <v>57671.148000000001</v>
+        <v>51.754358999999994</v>
       </c>
       <c r="E11" s="12">
-        <v>57300.385000000002</v>
+        <v>49.905838000000003</v>
       </c>
       <c r="F11" s="12">
-        <v>0.37076199999999998</v>
+        <v>1.8485209999999999</v>
       </c>
       <c r="G11" s="12">
-        <v>562.32086789999994</v>
+        <v>695.15421379999998</v>
       </c>
       <c r="H11" s="12">
-        <v>54.724293369999998</v>
+        <v>67.869866160000001</v>
       </c>
       <c r="I11" s="12">
-        <v>507.59657449999997</v>
+        <v>627.28434759999993</v>
       </c>
       <c r="J11" s="12">
-        <v>520.69349780000005</v>
+        <v>1210.184671</v>
       </c>
       <c r="K11" s="12">
-        <v>51.530772929999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" ht="18" customHeight="1">
+        <v>-623.24968110000009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" s="8" customFormat="1">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10">
-        <v>49625.911</v>
+        <v>52.264794000000002</v>
       </c>
       <c r="E12" s="10">
-        <v>50204.85</v>
+        <v>52.971031000000004</v>
       </c>
       <c r="F12" s="10">
-        <v>-0.57893899999999998</v>
+        <v>-0.706237</v>
       </c>
       <c r="G12" s="10">
-        <v>575.02823520000004</v>
+        <v>610.93730229999994</v>
       </c>
       <c r="H12" s="10">
-        <v>89.737578839999998</v>
+        <v>61.7421547</v>
       </c>
       <c r="I12" s="10">
-        <v>485.29065639999999</v>
+        <v>549.19514760000004</v>
       </c>
       <c r="J12" s="10">
-        <v>756.47187699999995</v>
+        <v>724.94335479999995</v>
       </c>
       <c r="K12" s="10">
-        <v>-153.5683981</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="2:27" ht="18" customHeight="1">
+        <v>-105.05414230000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" s="8" customFormat="1">
       <c r="B13" s="11">
         <v>2024</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="12">
-        <v>51915.491999999998</v>
+        <v>57.897709999999996</v>
       </c>
       <c r="E13" s="12">
-        <v>56783.508000000002</v>
+        <v>58.109034000000001</v>
       </c>
       <c r="F13" s="12">
-        <v>-4.8680159999999999</v>
+        <v>-0.21132400000000001</v>
       </c>
       <c r="G13" s="12">
-        <v>609.00144240000009</v>
+        <v>562.32086789999994</v>
       </c>
       <c r="H13" s="12">
-        <v>79.943752930000002</v>
+        <v>54.724293369999998</v>
       </c>
       <c r="I13" s="12">
-        <v>529.05768949999992</v>
+        <v>507.59657449999997</v>
       </c>
       <c r="J13" s="12">
-        <v>613.05052109999997</v>
+        <v>520.69349780000005</v>
       </c>
       <c r="K13" s="12">
-        <v>-7.2622771199999994</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="2:27">
+        <v>51.530772929999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="18" customHeight="1">
       <c r="B14" s="9">
         <v>2024</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10">
-        <v>54788.55</v>
+        <v>49.629743000000005</v>
       </c>
       <c r="E14" s="10">
-        <v>54860.54</v>
+        <v>51.120788999999995</v>
       </c>
       <c r="F14" s="10">
-        <v>-7.1989999999999998E-2</v>
+        <v>-1.4910460000000001</v>
       </c>
       <c r="G14" s="10">
-        <v>621.68532429999993</v>
+        <v>575.02823520000004</v>
       </c>
       <c r="H14" s="10">
-        <v>57.698230850000002</v>
+        <v>89.737578839999998</v>
       </c>
       <c r="I14" s="10">
-        <v>563.98709340000005</v>
+        <v>485.29065639999999</v>
       </c>
       <c r="J14" s="10">
-        <v>771.34221790000004</v>
+        <v>756.47187699999995</v>
       </c>
       <c r="K14" s="10">
-        <v>-132.84034400000002</v>
-      </c>
+        <v>-153.5683981</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -1247,37 +1233,39 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" ht="18" customHeight="1">
       <c r="B15" s="11">
         <v>2024</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="12">
-        <v>48870.656000000003</v>
+        <v>51.902527999999997</v>
       </c>
       <c r="E15" s="12">
-        <v>49907.542000000001</v>
+        <v>57.747196000000002</v>
       </c>
       <c r="F15" s="12">
-        <v>-1.036886</v>
+        <v>-5.8446679999999995</v>
       </c>
       <c r="G15" s="12">
-        <v>596.24004220000006</v>
+        <v>609.00144240000009</v>
       </c>
       <c r="H15" s="12">
-        <v>73.592280530000011</v>
+        <v>79.943752930000002</v>
       </c>
       <c r="I15" s="12">
-        <v>522.64776169999993</v>
+        <v>529.05768949999992</v>
       </c>
       <c r="J15" s="12">
-        <v>783.36213569999995</v>
+        <v>613.05052109999997</v>
       </c>
       <c r="K15" s="12">
-        <v>-180.910628</v>
-      </c>
+        <v>-7.2622771199999994</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -1292,2517 +1280,2881 @@
         <v>2024</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D16" s="10">
-        <v>55670.928</v>
+        <v>54.550711</v>
       </c>
       <c r="E16" s="10">
-        <v>53679.716999999997</v>
+        <v>55.771222000000002</v>
       </c>
       <c r="F16" s="10">
-        <v>1.9912100000000001</v>
+        <v>-1.220512</v>
       </c>
       <c r="G16" s="10">
-        <v>601.23173459999998</v>
+        <v>621.68532429999993</v>
       </c>
       <c r="H16" s="10">
-        <v>127.2689903</v>
+        <v>57.698230850000002</v>
       </c>
       <c r="I16" s="10">
-        <v>473.9627443</v>
+        <v>563.98709340000005</v>
       </c>
       <c r="J16" s="10">
-        <v>781.13423380000006</v>
+        <v>771.34221790000004</v>
       </c>
       <c r="K16" s="10">
-        <v>-164.8422406</v>
-      </c>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="2:13">
+        <v>-132.84034400000002</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="11">
         <v>2024</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" s="12">
-        <v>51319.472999999998</v>
+        <v>48.824267999999996</v>
       </c>
       <c r="E17" s="12">
-        <v>55065.692999999999</v>
+        <v>51.230590999999997</v>
       </c>
       <c r="F17" s="12">
-        <v>-3.7462199999999997</v>
+        <v>-2.406323</v>
       </c>
       <c r="G17" s="12">
-        <v>753.97330149999993</v>
+        <v>596.24004220000006</v>
       </c>
       <c r="H17" s="12">
-        <v>91.977493539999998</v>
+        <v>73.592280530000011</v>
       </c>
       <c r="I17" s="12">
-        <v>661.99580800000001</v>
+        <v>522.64776169999993</v>
       </c>
       <c r="J17" s="12">
-        <v>677.70005530000003</v>
+        <v>783.36213569999995</v>
       </c>
       <c r="K17" s="12">
-        <v>101.72012669999999</v>
-      </c>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="2:13">
+        <v>-180.910628</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18" s="9">
         <v>2024</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10">
-        <v>50646.334000000003</v>
+        <v>55.754041000000001</v>
       </c>
       <c r="E18" s="10">
-        <v>48654.080000000002</v>
+        <v>54.863064999999999</v>
       </c>
       <c r="F18" s="10">
-        <v>1.992254</v>
+        <v>0.89097599999999999</v>
       </c>
       <c r="G18" s="10">
-        <v>632.91837659999999</v>
+        <v>601.23173459999998</v>
       </c>
       <c r="H18" s="10">
-        <v>92.825991580000007</v>
+        <v>127.2689903</v>
       </c>
       <c r="I18" s="10">
-        <v>540.09238500000004</v>
+        <v>473.9627443</v>
       </c>
       <c r="J18" s="10">
-        <v>669.75355400000001</v>
+        <v>781.13423380000006</v>
       </c>
       <c r="K18" s="10">
-        <v>-26.674376280000001</v>
-      </c>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="2:13">
+        <v>-164.8422406</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19" s="11">
         <v>2024</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" s="12">
-        <v>50741.993000000002</v>
+        <v>51.522648999999994</v>
       </c>
       <c r="E19" s="12">
-        <v>51305.805</v>
+        <v>55.943360999999996</v>
       </c>
       <c r="F19" s="12">
-        <v>-0.56381199999999998</v>
+        <v>-4.4207120000000009</v>
       </c>
       <c r="G19" s="12">
-        <v>575.42935719999991</v>
+        <v>753.97330149999993</v>
       </c>
       <c r="H19" s="12">
+        <v>91.977493539999998</v>
+      </c>
+      <c r="I19" s="12">
+        <v>661.99580800000001</v>
+      </c>
+      <c r="J19" s="12">
+        <v>677.70005530000003</v>
+      </c>
+      <c r="K19" s="12">
+        <v>101.72012669999999</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>50.645665000000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>49.111324999999994</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.534341</v>
+      </c>
+      <c r="G20" s="10">
+        <v>632.91837659999999</v>
+      </c>
+      <c r="H20" s="10">
+        <v>92.825991580000007</v>
+      </c>
+      <c r="I20" s="10">
+        <v>540.09238500000004</v>
+      </c>
+      <c r="J20" s="10">
+        <v>669.75355400000001</v>
+      </c>
+      <c r="K20" s="10">
+        <v>-26.674376280000001</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="B21" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12">
+        <v>50.794819000000004</v>
+      </c>
+      <c r="E21" s="12">
+        <v>52.224739</v>
+      </c>
+      <c r="F21" s="12">
+        <v>-1.4299190000000002</v>
+      </c>
+      <c r="G21" s="12">
+        <v>575.85837670000001</v>
+      </c>
+      <c r="H21" s="12">
         <v>97.489482409999994</v>
       </c>
-      <c r="I19" s="12">
-        <v>477.93987479999998</v>
-      </c>
-      <c r="J19" s="12">
-        <v>844.58018900000002</v>
-      </c>
-      <c r="K19" s="12">
-        <v>-245.7123407</v>
-      </c>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="13">
+      <c r="I21" s="12">
+        <v>478.36889429999997</v>
+      </c>
+      <c r="J21" s="12">
+        <v>845.00029740000002</v>
+      </c>
+      <c r="K21" s="12">
+        <v>-246.71973689999999</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="13">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14">
-        <v>42137.728000000003</v>
-      </c>
-      <c r="E20" s="14">
-        <v>46271.845999999998</v>
-      </c>
-      <c r="F20" s="14">
-        <v>-4.134118</v>
-      </c>
-      <c r="G20" s="14">
-        <v>659.00872040000002</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="14">
+        <v>42.135801000000001</v>
+      </c>
+      <c r="E22" s="14">
+        <v>47.219836999999998</v>
+      </c>
+      <c r="F22" s="14">
+        <v>-5.0840360000000002</v>
+      </c>
+      <c r="G22" s="14">
+        <v>658.57970090000003</v>
+      </c>
+      <c r="H22" s="14">
         <v>64.044574209999993</v>
       </c>
-      <c r="I20" s="14">
-        <v>594.95777870000006</v>
-      </c>
-      <c r="J20" s="14">
-        <v>810.97817429999998</v>
-      </c>
-      <c r="K20" s="14">
-        <v>-179.06752739999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" hidden="1">
-      <c r="B21" s="15">
+      <c r="I22" s="14">
+        <v>594.53512669999998</v>
+      </c>
+      <c r="J22" s="14">
+        <v>810.54915749999998</v>
+      </c>
+      <c r="K22" s="14">
+        <v>-179.57506849999999</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="2:27" hidden="1">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="16">
-        <v>49271.110999999997</v>
-      </c>
-      <c r="E21" s="16">
-        <v>45007.241999999998</v>
-      </c>
-      <c r="F21" s="16">
-        <v>4.2638689999999997</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="16">
+        <v>49.277811</v>
+      </c>
+      <c r="E23" s="16">
+        <v>46.378862999999996</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2.8989479999999999</v>
+      </c>
+      <c r="G23" s="16">
         <v>692.4524914000001</v>
       </c>
-      <c r="H21" s="16">
-        <v>82.904605689999997</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="H23" s="16">
+        <v>82.878202380000005</v>
+      </c>
+      <c r="I23" s="16">
         <v>609.57428900000002</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J23" s="16">
         <v>983.61721550000004</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K23" s="16">
         <v>-291.29677990000005</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" hidden="1">
-      <c r="B22" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10">
-        <v>50182.773000000001</v>
-      </c>
-      <c r="E22" s="10">
-        <v>49621.455000000002</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.56131799999999998</v>
-      </c>
-      <c r="G22" s="10">
-        <v>566.21468670000002</v>
-      </c>
-      <c r="H22" s="10">
-        <v>92.737154150000009</v>
-      </c>
-      <c r="I22" s="10">
-        <v>473.4775325</v>
-      </c>
-      <c r="J22" s="10">
-        <v>656.28544590000001</v>
-      </c>
-      <c r="K22" s="10">
-        <v>-87.662297609999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" hidden="1">
-      <c r="B23" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="12">
-        <v>51856.870999999999</v>
-      </c>
-      <c r="E23" s="12">
-        <v>52226.163</v>
-      </c>
-      <c r="F23" s="12">
-        <v>-0.36929199999999995</v>
-      </c>
-      <c r="G23" s="12">
-        <v>585.04371649999996</v>
-      </c>
-      <c r="H23" s="12">
-        <v>116.26270889999999</v>
-      </c>
-      <c r="I23" s="12">
-        <v>468.78100760000001</v>
-      </c>
-      <c r="J23" s="12">
-        <v>619.35053419999997</v>
-      </c>
-      <c r="K23" s="12">
-        <v>-29.437015110000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" hidden="1">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="2:27" hidden="1">
       <c r="B24" s="9">
         <v>2023</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" s="10">
-        <v>49641.591999999997</v>
+        <v>50.171872</v>
       </c>
       <c r="E24" s="10">
-        <v>51139.512999999999</v>
+        <v>50.942410000000002</v>
       </c>
       <c r="F24" s="10">
-        <v>-1.4979210000000001</v>
+        <v>-0.77053800000000006</v>
       </c>
       <c r="G24" s="10">
-        <v>547.44243669999992</v>
+        <v>566.2252608</v>
       </c>
       <c r="H24" s="10">
-        <v>79.329067260000002</v>
+        <v>92.736783439999996</v>
       </c>
       <c r="I24" s="10">
-        <v>468.11336949999998</v>
+        <v>473.4884773</v>
       </c>
       <c r="J24" s="10">
-        <v>687.7519393</v>
+        <v>656.28544590000001</v>
       </c>
       <c r="K24" s="10">
-        <v>-132.88201470000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" hidden="1">
+        <v>-87.662297609999996</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="2:27" hidden="1">
       <c r="B25" s="11">
         <v>2023</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D25" s="12">
-        <v>52458.59</v>
+        <v>51.856870999999998</v>
       </c>
       <c r="E25" s="12">
-        <v>53737.01</v>
+        <v>53.663089999999997</v>
       </c>
       <c r="F25" s="12">
-        <v>-1.2784200000000001</v>
+        <v>-1.806219</v>
       </c>
       <c r="G25" s="12">
-        <v>544.80571239999995</v>
+        <v>585.05857140000001</v>
       </c>
       <c r="H25" s="12">
-        <v>80.800463280000002</v>
+        <v>116.2627091</v>
       </c>
       <c r="I25" s="12">
-        <v>463.98606169999999</v>
+        <v>468.79586229999995</v>
       </c>
       <c r="J25" s="12">
-        <v>580.01827819999994</v>
+        <v>619.35053419999997</v>
       </c>
       <c r="K25" s="12">
-        <v>-39.105137939999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" hidden="1">
+        <v>-29.437015110000001</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="2:27" hidden="1">
       <c r="B26" s="9">
         <v>2023</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10">
-        <v>47786.853000000003</v>
+        <v>49.642254999999999</v>
       </c>
       <c r="E26" s="10">
-        <v>48431.637999999999</v>
+        <v>52.303578999999999</v>
       </c>
       <c r="F26" s="10">
-        <v>-0.64478499999999994</v>
+        <v>-2.661324</v>
       </c>
       <c r="G26" s="10">
-        <v>638.50286259999996</v>
+        <v>547.45189859999994</v>
       </c>
       <c r="H26" s="10">
-        <v>145.0278701</v>
+        <v>79.329067260000002</v>
       </c>
       <c r="I26" s="10">
-        <v>493.47499249999998</v>
+        <v>468.12283130000003</v>
       </c>
       <c r="J26" s="10">
-        <v>707.7514357</v>
+        <v>687.7519393</v>
       </c>
       <c r="K26" s="10">
-        <v>-78.264336509999993</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" hidden="1">
+        <v>-132.88201470000001</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="2:27" hidden="1">
       <c r="B27" s="11">
         <v>2023</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12">
-        <v>51820.218999999997</v>
+        <v>52.458589999999994</v>
       </c>
       <c r="E27" s="12">
-        <v>51762.017999999996</v>
+        <v>54.575454000000001</v>
       </c>
       <c r="F27" s="12">
-        <v>5.8201000000000003E-2</v>
+        <v>-2.1168629999999999</v>
       </c>
       <c r="G27" s="12">
-        <v>540.93270129999996</v>
+        <v>544.80569750000006</v>
       </c>
       <c r="H27" s="12">
-        <v>80.119920429999993</v>
+        <v>80.800463280000002</v>
       </c>
       <c r="I27" s="12">
-        <v>460.81278079999998</v>
+        <v>464.00523420000002</v>
       </c>
       <c r="J27" s="12">
-        <v>806.45105030000002</v>
+        <v>580.01827819999994</v>
       </c>
       <c r="K27" s="12">
-        <v>-257.62358760000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" hidden="1">
+        <v>-39.105137939999999</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="2:27" hidden="1">
       <c r="B28" s="9">
         <v>2023</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" s="10">
-        <v>52835.328999999998</v>
+        <v>47.786853000000001</v>
       </c>
       <c r="E28" s="10">
-        <v>52934.5</v>
+        <v>48.627635999999995</v>
       </c>
       <c r="F28" s="10">
-        <v>-9.9171000000000009E-2</v>
+        <v>-0.84078300000000006</v>
       </c>
       <c r="G28" s="10">
-        <v>555.57111129999998</v>
+        <v>638.50330059999999</v>
       </c>
       <c r="H28" s="10">
-        <v>82.92634846</v>
+        <v>145.0278701</v>
       </c>
       <c r="I28" s="10">
-        <v>472.64476280000002</v>
+        <v>493.47543039999999</v>
       </c>
       <c r="J28" s="10">
-        <v>653.17400809999992</v>
+        <v>707.7514357</v>
       </c>
       <c r="K28" s="10">
-        <v>-104.34415510000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" hidden="1">
+        <v>-78.264336509999993</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="2:27" hidden="1">
       <c r="B29" s="11">
         <v>2023</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29" s="12">
-        <v>46086.559999999998</v>
+        <v>51.820218999999994</v>
       </c>
       <c r="E29" s="12">
-        <v>47732.749000000003</v>
+        <v>52.006715</v>
       </c>
       <c r="F29" s="12">
-        <v>-1.6461890000000001</v>
+        <v>-0.18649600000000002</v>
       </c>
       <c r="G29" s="12">
-        <v>624.98493189999999</v>
+        <v>540.93269599999996</v>
       </c>
       <c r="H29" s="12">
-        <v>62.250813090000001</v>
+        <v>80.119920429999993</v>
       </c>
       <c r="I29" s="12">
-        <v>562.73411880000003</v>
+        <v>460.81277560000001</v>
       </c>
       <c r="J29" s="12">
-        <v>560.13222569999994</v>
+        <v>806.45105030000002</v>
       </c>
       <c r="K29" s="12">
-        <v>65.906905110000011</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" hidden="1">
+        <v>-257.62358760000001</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="2:27" hidden="1">
       <c r="B30" s="9">
         <v>2023</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D30" s="10">
-        <v>53564.188999999998</v>
+        <v>52.835328999999994</v>
       </c>
       <c r="E30" s="10">
-        <v>52388.860999999997</v>
+        <v>53.029652999999996</v>
       </c>
       <c r="F30" s="10">
-        <v>1.1753279999999999</v>
+        <v>-0.194323</v>
       </c>
       <c r="G30" s="10">
-        <v>633.88471259999994</v>
+        <v>555.57110260000002</v>
       </c>
       <c r="H30" s="10">
-        <v>96.979409270000005</v>
+        <v>82.92634846</v>
       </c>
       <c r="I30" s="10">
-        <v>536.90530339999998</v>
+        <v>472.6447541</v>
       </c>
       <c r="J30" s="10">
-        <v>657.83727329999999</v>
+        <v>653.17400809999992</v>
       </c>
       <c r="K30" s="10">
-        <v>7.1024282839999993</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" hidden="1">
+        <v>-104.34415510000001</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="2:27" hidden="1">
       <c r="B31" s="11">
         <v>2023</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D31" s="12">
-        <v>44891.478999999999</v>
+        <v>46.086559999999999</v>
       </c>
       <c r="E31" s="12">
-        <v>46778.476000000002</v>
+        <v>47.732749000000005</v>
       </c>
       <c r="F31" s="12">
-        <v>-1.886997</v>
+        <v>-1.6461890000000001</v>
       </c>
       <c r="G31" s="12">
-        <v>486.42462599999999</v>
+        <v>624.98475910000002</v>
       </c>
       <c r="H31" s="12">
+        <v>62.250813090000001</v>
+      </c>
+      <c r="I31" s="12">
+        <v>562.73394599999995</v>
+      </c>
+      <c r="J31" s="12">
+        <v>560.13222569999994</v>
+      </c>
+      <c r="K31" s="12">
+        <v>65.906905110000011</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="2:27" hidden="1">
+      <c r="B32" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10">
+        <v>53.564188999999999</v>
+      </c>
+      <c r="E32" s="10">
+        <v>52.403726999999996</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.1604619999999999</v>
+      </c>
+      <c r="G32" s="10">
+        <v>633.88469739999994</v>
+      </c>
+      <c r="H32" s="10">
+        <v>96.979409270000005</v>
+      </c>
+      <c r="I32" s="10">
+        <v>536.90528810000001</v>
+      </c>
+      <c r="J32" s="10">
+        <v>657.83727329999999</v>
+      </c>
+      <c r="K32" s="10">
+        <v>7.1024282839999993</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="2:19" hidden="1">
+      <c r="B33" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12">
+        <v>44.891179999999999</v>
+      </c>
+      <c r="E33" s="12">
+        <v>46.877021999999997</v>
+      </c>
+      <c r="F33" s="12">
+        <v>-1.985843</v>
+      </c>
+      <c r="G33" s="12">
+        <v>486.4245626</v>
+      </c>
+      <c r="H33" s="12">
         <v>76.452717770000007</v>
       </c>
-      <c r="I31" s="12">
-        <v>409.97190820000003</v>
-      </c>
-      <c r="J31" s="12">
+      <c r="I33" s="12">
+        <v>409.97184490000001</v>
+      </c>
+      <c r="J33" s="12">
         <v>571.3513946999999</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K33" s="12">
         <v>-74.284774569999996</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" hidden="1">
-      <c r="B32" s="13">
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="2:19" hidden="1">
+      <c r="B34" s="13">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="14">
-        <v>42609.733999999997</v>
-      </c>
-      <c r="E32" s="14">
-        <v>46715.743999999999</v>
-      </c>
-      <c r="F32" s="14">
-        <v>-4.1060110000000005</v>
-      </c>
-      <c r="G32" s="14">
-        <v>623.06477700000005</v>
-      </c>
-      <c r="H32" s="14">
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="14">
+        <v>42.609733999999996</v>
+      </c>
+      <c r="E34" s="14">
+        <v>46.739067999999996</v>
+      </c>
+      <c r="F34" s="14">
+        <v>-4.1293340000000001</v>
+      </c>
+      <c r="G34" s="14">
+        <v>623.06475710000007</v>
+      </c>
+      <c r="H34" s="14">
         <v>83.199869219999997</v>
       </c>
-      <c r="I32" s="14">
-        <v>539.86490780000008</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="I34" s="14">
+        <v>539.86488780000002</v>
+      </c>
+      <c r="J34" s="14">
         <v>638.22747579999998</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K34" s="14">
         <v>-31.44971232</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="15">
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="2:19" hidden="1">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="16">
-        <v>49319.341999999997</v>
-      </c>
-      <c r="E33" s="16">
-        <v>48339.023999999998</v>
-      </c>
-      <c r="F33" s="16">
-        <v>0.98031800000000002</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="C35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="16">
+        <v>49.319341999999999</v>
+      </c>
+      <c r="E35" s="16">
+        <v>48.376487000000004</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.942855</v>
+      </c>
+      <c r="G35" s="16">
         <v>655.58701839999992</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H35" s="16">
         <v>197.15876370000001</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I35" s="16">
         <v>458.42825479999999</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J35" s="16">
         <v>1057.9730569999999</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K35" s="16">
         <v>-429.45266149999998</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="10">
-        <v>49249.146999999997</v>
-      </c>
-      <c r="E34" s="10">
-        <v>49407.417000000001</v>
-      </c>
-      <c r="F34" s="10">
-        <v>-0.15827000000000002</v>
-      </c>
-      <c r="G34" s="10">
-        <v>554.64395230000002</v>
-      </c>
-      <c r="H34" s="10">
-        <v>146.966982</v>
-      </c>
-      <c r="I34" s="10">
-        <v>407.67697040000002</v>
-      </c>
-      <c r="J34" s="10">
-        <v>673.24339520000001</v>
-      </c>
-      <c r="K34" s="10">
-        <v>-120.41750089999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="12">
-        <v>49199.06</v>
-      </c>
-      <c r="E35" s="12">
-        <v>51287.15</v>
-      </c>
-      <c r="F35" s="12">
-        <v>-2.0880900000000002</v>
-      </c>
-      <c r="G35" s="12">
-        <v>505.08029119999998</v>
-      </c>
-      <c r="H35" s="12">
-        <v>130.97315</v>
-      </c>
-      <c r="I35" s="12">
-        <v>374.10714110000004</v>
-      </c>
-      <c r="J35" s="12">
-        <v>559.9618984</v>
-      </c>
-      <c r="K35" s="12">
-        <v>-52.661784699999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" hidden="1">
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="2:19" hidden="1">
       <c r="B36" s="9">
         <v>2022</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D36" s="10">
-        <v>52323.438000000002</v>
+        <v>49.249147000000001</v>
       </c>
       <c r="E36" s="10">
-        <v>53233.430999999997</v>
+        <v>49.407417000000002</v>
       </c>
       <c r="F36" s="10">
-        <v>-0.90999300000000005</v>
+        <v>-0.15827000000000002</v>
       </c>
       <c r="G36" s="10">
-        <v>505.89206039999999</v>
+        <v>554.64395230000002</v>
       </c>
       <c r="H36" s="10">
-        <v>114.3161025</v>
+        <v>146.966982</v>
       </c>
       <c r="I36" s="10">
-        <v>391.57595789999999</v>
+        <v>407.67697040000002</v>
       </c>
       <c r="J36" s="10">
-        <v>605.29125480000005</v>
+        <v>673.24339520000001</v>
       </c>
       <c r="K36" s="10">
-        <v>-106.3323824</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" hidden="1">
+        <v>-120.41750089999999</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="2:19" hidden="1">
       <c r="B37" s="11">
         <v>2022</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D37" s="12">
-        <v>50464.228999999999</v>
+        <v>49.199059999999996</v>
       </c>
       <c r="E37" s="12">
-        <v>56168.196000000004</v>
+        <v>51.287150000000004</v>
       </c>
       <c r="F37" s="12">
-        <v>-5.7039669999999996</v>
+        <v>-2.0880900000000002</v>
       </c>
       <c r="G37" s="12">
-        <v>519.0054983</v>
+        <v>505.08029119999998</v>
       </c>
       <c r="H37" s="12">
-        <v>131.2182956</v>
+        <v>130.97315</v>
       </c>
       <c r="I37" s="12">
-        <v>387.78720280000005</v>
+        <v>374.10714110000004</v>
       </c>
       <c r="J37" s="12">
-        <v>541.53896669999995</v>
+        <v>559.9618984</v>
       </c>
       <c r="K37" s="12">
-        <v>-26.013739860000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" hidden="1">
+        <v>-52.661784699999998</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="2:19" hidden="1">
       <c r="B38" s="9">
         <v>2022</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D38" s="10">
-        <v>46216.525999999998</v>
+        <v>52.323438000000003</v>
       </c>
       <c r="E38" s="10">
-        <v>52463.962</v>
+        <v>53.233430999999996</v>
       </c>
       <c r="F38" s="10">
-        <v>-6.2474359999999995</v>
+        <v>-0.90999300000000005</v>
       </c>
       <c r="G38" s="10">
-        <v>557.42874410000002</v>
+        <v>505.89206039999999</v>
       </c>
       <c r="H38" s="10">
-        <v>166.75375820000002</v>
+        <v>114.3161025</v>
       </c>
       <c r="I38" s="10">
-        <v>390.67498599999999</v>
+        <v>391.57595789999999</v>
       </c>
       <c r="J38" s="10">
-        <v>600.62089690000005</v>
+        <v>605.29125480000005</v>
       </c>
       <c r="K38" s="10">
-        <v>-40.157839670000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" hidden="1">
+        <v>-106.3323824</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="2:19" hidden="1">
       <c r="B39" s="11">
         <v>2022</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="12">
-        <v>51220.139000000003</v>
+        <v>50.464228999999996</v>
       </c>
       <c r="E39" s="12">
-        <v>55191.302000000003</v>
+        <v>56.168196000000002</v>
       </c>
       <c r="F39" s="12">
-        <v>-3.9711640000000004</v>
+        <v>-5.7039669999999996</v>
       </c>
       <c r="G39" s="12">
-        <v>559.73611370000003</v>
+        <v>519.0054983</v>
       </c>
       <c r="H39" s="12">
-        <v>98.318560459999986</v>
+        <v>131.2182956</v>
       </c>
       <c r="I39" s="12">
-        <v>461.41755320000004</v>
+        <v>387.78720280000005</v>
       </c>
       <c r="J39" s="12">
-        <v>706.11272819999999</v>
+        <v>541.53896669999995</v>
       </c>
       <c r="K39" s="12">
-        <v>-143.45506119999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1">
+        <v>-26.013739860000001</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="2:19" hidden="1">
       <c r="B40" s="9">
         <v>2022</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" s="10">
-        <v>49964.769</v>
+        <v>46.216525999999995</v>
       </c>
       <c r="E40" s="10">
-        <v>52220.451999999997</v>
+        <v>52.463962000000002</v>
       </c>
       <c r="F40" s="10">
-        <v>-2.2556829999999999</v>
+        <v>-6.2474359999999995</v>
       </c>
       <c r="G40" s="10">
-        <v>471.06455729999999</v>
+        <v>557.42874410000002</v>
       </c>
       <c r="H40" s="10">
-        <v>79.78186479</v>
+        <v>166.75375820000002</v>
       </c>
       <c r="I40" s="10">
-        <v>391.2826925</v>
+        <v>390.67498599999999</v>
       </c>
       <c r="J40" s="10">
-        <v>497.06811629999999</v>
+        <v>600.62089690000005</v>
       </c>
       <c r="K40" s="10">
-        <v>-35.348529640000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" hidden="1">
+        <v>-40.157839670000001</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="2:19" hidden="1">
       <c r="B41" s="11">
         <v>2022</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D41" s="12">
-        <v>47580.499000000003</v>
+        <v>51.220139000000003</v>
       </c>
       <c r="E41" s="12">
-        <v>49363.531999999999</v>
+        <v>55.191302</v>
       </c>
       <c r="F41" s="12">
-        <v>-1.7830329999999999</v>
+        <v>-3.9711640000000004</v>
       </c>
       <c r="G41" s="12">
-        <v>557.2406226999999</v>
+        <v>559.73611370000003</v>
       </c>
       <c r="H41" s="12">
-        <v>125.4457233</v>
+        <v>98.318560459999986</v>
       </c>
       <c r="I41" s="12">
-        <v>431.7948993</v>
+        <v>461.41755320000004</v>
       </c>
       <c r="J41" s="12">
-        <v>507.60401580000001</v>
+        <v>706.11272819999999</v>
       </c>
       <c r="K41" s="12">
-        <v>61.436890990000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" hidden="1">
+        <v>-143.45506119999999</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="2:19" hidden="1">
       <c r="B42" s="9">
         <v>2022</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D42" s="10">
-        <v>51948.841999999997</v>
+        <v>49.964768999999997</v>
       </c>
       <c r="E42" s="10">
-        <v>51801.682999999997</v>
+        <v>52.220451999999995</v>
       </c>
       <c r="F42" s="10">
-        <v>0.14715899999999998</v>
+        <v>-2.2556829999999999</v>
       </c>
       <c r="G42" s="10">
-        <v>730.48246879999999</v>
+        <v>471.06455729999999</v>
       </c>
       <c r="H42" s="10">
-        <v>145.9187416</v>
+        <v>79.78186479</v>
       </c>
       <c r="I42" s="10">
-        <v>584.56372720000002</v>
+        <v>391.2826925</v>
       </c>
       <c r="J42" s="10">
-        <v>636.99511129999996</v>
+        <v>497.06811629999999</v>
       </c>
       <c r="K42" s="10">
-        <v>104.18798840000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" hidden="1">
+        <v>-35.348529640000002</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="2:19" hidden="1">
       <c r="B43" s="11">
         <v>2022</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D43" s="12">
-        <v>46288.481</v>
+        <v>47.580499000000003</v>
       </c>
       <c r="E43" s="12">
-        <v>44953.076999999997</v>
+        <v>49.363531999999999</v>
       </c>
       <c r="F43" s="12">
+        <v>-1.7830329999999999</v>
+      </c>
+      <c r="G43" s="12">
+        <v>557.2406226999999</v>
+      </c>
+      <c r="H43" s="12">
+        <v>125.4457233</v>
+      </c>
+      <c r="I43" s="12">
+        <v>431.7948993</v>
+      </c>
+      <c r="J43" s="12">
+        <v>507.60401580000001</v>
+      </c>
+      <c r="K43" s="12">
+        <v>61.436890990000002</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="2:19" hidden="1">
+      <c r="B44" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="10">
+        <v>51.948841999999999</v>
+      </c>
+      <c r="E44" s="10">
+        <v>51.801682999999997</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.14715899999999998</v>
+      </c>
+      <c r="G44" s="10">
+        <v>730.48246879999999</v>
+      </c>
+      <c r="H44" s="10">
+        <v>145.9187416</v>
+      </c>
+      <c r="I44" s="10">
+        <v>584.56372720000002</v>
+      </c>
+      <c r="J44" s="10">
+        <v>636.99511129999996</v>
+      </c>
+      <c r="K44" s="10">
+        <v>104.18798840000001</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="2:19" hidden="1">
+      <c r="B45" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="12">
+        <v>46.288480999999997</v>
+      </c>
+      <c r="E45" s="12">
+        <v>44.953077</v>
+      </c>
+      <c r="F45" s="12">
         <v>1.335405</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G45" s="12">
         <v>443.41898369999996</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H45" s="12">
         <v>75.364108080000008</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I45" s="12">
         <v>368.0548756</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J45" s="12">
         <v>566.15684659999999</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K45" s="12">
         <v>-107.5301003</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="13">
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="2:19" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="13">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="14">
-        <v>33923.040999999997</v>
-      </c>
-      <c r="E44" s="14">
-        <v>40185.364999999998</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="C46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="14">
+        <v>33.923040999999998</v>
+      </c>
+      <c r="E46" s="14">
+        <v>40.185364999999997</v>
+      </c>
+      <c r="F46" s="14">
         <v>-6.2623230000000003</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G46" s="14">
         <v>543.24934059999998</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H46" s="14">
         <v>69.364702199999996</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I46" s="14">
         <v>473.88463839999997</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J46" s="14">
         <v>601.56697069999996</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K46" s="14">
         <v>-55.147272040000004</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="15">
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+    </row>
+    <row r="47" spans="2:19" hidden="1">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="16">
-        <v>47866.48</v>
-      </c>
-      <c r="E45" s="16">
-        <v>47102.457999999999</v>
-      </c>
-      <c r="F45" s="16">
+      <c r="C47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="16">
+        <v>47.866480000000003</v>
+      </c>
+      <c r="E47" s="16">
+        <v>47.102457999999999</v>
+      </c>
+      <c r="F47" s="16">
         <v>0.76374199999999992</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G47" s="16">
         <v>709.63483829999996</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H47" s="16">
         <v>257.82414310000001</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I47" s="16">
         <v>451.8106952</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J47" s="16">
         <v>1009.928812</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K47" s="16">
         <v>-302.75952919999997</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="10">
-        <v>45676.661999999997</v>
-      </c>
-      <c r="E46" s="10">
-        <v>45698.67</v>
-      </c>
-      <c r="F46" s="10">
-        <v>-2.2008E-2</v>
-      </c>
-      <c r="G46" s="10">
-        <v>494.50499080000003</v>
-      </c>
-      <c r="H46" s="10">
-        <v>122.01124229999999</v>
-      </c>
-      <c r="I46" s="10">
-        <v>372.49374849999998</v>
-      </c>
-      <c r="J46" s="10">
-        <v>586.4894286</v>
-      </c>
-      <c r="K46" s="10">
-        <v>-98.701497130000007</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="12">
-        <v>41858.777999999998</v>
-      </c>
-      <c r="E47" s="12">
-        <v>44658.125999999997</v>
-      </c>
-      <c r="F47" s="12">
-        <v>-2.7993480000000002</v>
-      </c>
-      <c r="G47" s="12">
-        <v>434.50871130000002</v>
-      </c>
-      <c r="H47" s="12">
-        <v>89.701747210000008</v>
-      </c>
-      <c r="I47" s="12">
-        <v>344.80696409999996</v>
-      </c>
-      <c r="J47" s="12">
-        <v>431.36228289999997</v>
-      </c>
-      <c r="K47" s="12">
-        <v>10.9780493</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+    </row>
+    <row r="48" spans="2:19" hidden="1">
       <c r="B48" s="9">
         <v>2021</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D48" s="10">
-        <v>41754.362999999998</v>
+        <v>45.676661999999993</v>
       </c>
       <c r="E48" s="10">
-        <v>44078.455999999998</v>
+        <v>45.69867</v>
       </c>
       <c r="F48" s="10">
-        <v>-2.324093</v>
+        <v>-2.2008E-2</v>
       </c>
       <c r="G48" s="10">
-        <v>429.69536700000003</v>
+        <v>494.50499080000003</v>
       </c>
       <c r="H48" s="10">
-        <v>77.364064190000008</v>
+        <v>122.01124229999999</v>
       </c>
       <c r="I48" s="10">
-        <v>352.3313028</v>
+        <v>372.49374849999998</v>
       </c>
       <c r="J48" s="10">
-        <v>523.26265420000004</v>
+        <v>586.4894286</v>
       </c>
       <c r="K48" s="10">
-        <v>-99.578348899999995</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" hidden="1">
+        <v>-98.701497130000007</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" hidden="1">
       <c r="B49" s="11">
         <v>2021</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D49" s="12">
-        <v>40471.381000000001</v>
+        <v>41.858778000000001</v>
       </c>
       <c r="E49" s="12">
-        <v>44215.64</v>
+        <v>44.658125999999996</v>
       </c>
       <c r="F49" s="12">
-        <v>-3.744259</v>
+        <v>-2.7993480000000002</v>
       </c>
       <c r="G49" s="12">
-        <v>483.51016749999997</v>
+        <v>434.50871130000002</v>
       </c>
       <c r="H49" s="12">
-        <v>102.06880959999999</v>
+        <v>89.701747210000008</v>
       </c>
       <c r="I49" s="12">
-        <v>381.44135790000001</v>
+        <v>344.80696409999996</v>
       </c>
       <c r="J49" s="12">
-        <v>493.58672080000002</v>
+        <v>431.36228289999997</v>
       </c>
       <c r="K49" s="12">
-        <v>-19.7584546</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
+        <v>10.9780493</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" hidden="1">
       <c r="B50" s="9">
         <v>2021</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D50" s="10">
-        <v>40952.955999999998</v>
+        <v>41.754362999999998</v>
       </c>
       <c r="E50" s="10">
-        <v>44950.627999999997</v>
+        <v>44.078455999999996</v>
       </c>
       <c r="F50" s="10">
-        <v>-3.9976720000000001</v>
+        <v>-2.324093</v>
       </c>
       <c r="G50" s="10">
-        <v>477.80359320000002</v>
+        <v>429.69536700000003</v>
       </c>
       <c r="H50" s="10">
-        <v>80.378816399999991</v>
+        <v>77.364064190000008</v>
       </c>
       <c r="I50" s="10">
-        <v>397.42477680000002</v>
+        <v>352.3313028</v>
       </c>
       <c r="J50" s="10">
-        <v>496.53029499999997</v>
+        <v>523.26265420000004</v>
       </c>
       <c r="K50" s="10">
-        <v>-11.479581379999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
+        <v>-99.578348899999995</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" hidden="1">
       <c r="B51" s="11">
         <v>2021</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="12">
-        <v>42619.373</v>
+        <v>40.471381000000001</v>
       </c>
       <c r="E51" s="12">
-        <v>41909.428999999996</v>
+        <v>44.21564</v>
       </c>
       <c r="F51" s="12">
-        <v>0.70994500000000005</v>
+        <v>-3.744259</v>
       </c>
       <c r="G51" s="12">
-        <v>474.67039769999997</v>
+        <v>483.51016749999997</v>
       </c>
       <c r="H51" s="12">
-        <v>63.459127159999994</v>
+        <v>102.06880959999999</v>
       </c>
       <c r="I51" s="12">
-        <v>411.21127050000001</v>
+        <v>381.44135790000001</v>
       </c>
       <c r="J51" s="12">
-        <v>608.01465940000003</v>
+        <v>493.58672080000002</v>
       </c>
       <c r="K51" s="12">
-        <v>-118.4646783</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
+        <v>-19.7584546</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" hidden="1">
       <c r="B52" s="9">
         <v>2021</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52" s="10">
-        <v>40845.599999999999</v>
+        <v>40.952956</v>
       </c>
       <c r="E52" s="10">
-        <v>40458.684000000001</v>
+        <v>44.950627999999995</v>
       </c>
       <c r="F52" s="10">
-        <v>0.38691599999999998</v>
+        <v>-3.9976720000000001</v>
       </c>
       <c r="G52" s="10">
-        <v>456.4940363</v>
+        <v>477.80359320000002</v>
       </c>
       <c r="H52" s="10">
-        <v>92.098913179999997</v>
+        <v>80.378816399999991</v>
       </c>
       <c r="I52" s="10">
-        <v>364.39512310000003</v>
+        <v>397.42477680000002</v>
       </c>
       <c r="J52" s="10">
-        <v>453.70198959999999</v>
+        <v>496.53029499999997</v>
       </c>
       <c r="K52" s="10">
-        <v>-3.0755186110000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" hidden="1">
+        <v>-11.479581379999999</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" hidden="1">
       <c r="B53" s="11">
         <v>2021</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D53" s="12">
-        <v>40944.531000000003</v>
+        <v>42.619373000000003</v>
       </c>
       <c r="E53" s="12">
-        <v>39259.65</v>
+        <v>41.909428999999996</v>
       </c>
       <c r="F53" s="12">
-        <v>1.6848810000000001</v>
+        <v>0.70994500000000005</v>
       </c>
       <c r="G53" s="12">
-        <v>435.7887518</v>
+        <v>474.67039769999997</v>
       </c>
       <c r="H53" s="12">
-        <v>66.844172089999986</v>
+        <v>63.459127159999994</v>
       </c>
       <c r="I53" s="12">
-        <v>368.94457970000002</v>
+        <v>411.21127050000001</v>
       </c>
       <c r="J53" s="12">
-        <v>469.50509600000004</v>
+        <v>608.01465940000003</v>
       </c>
       <c r="K53" s="12">
-        <v>-26.619936020000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
+        <v>-118.4646783</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" hidden="1">
       <c r="B54" s="9">
         <v>2021</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D54" s="10">
-        <v>43029.98</v>
+        <v>40.845599999999997</v>
       </c>
       <c r="E54" s="10">
-        <v>45974.453999999998</v>
+        <v>40.458683999999998</v>
       </c>
       <c r="F54" s="10">
-        <v>-2.944474</v>
+        <v>0.38691599999999998</v>
       </c>
       <c r="G54" s="10">
-        <v>636.64992270000005</v>
+        <v>456.4940363</v>
       </c>
       <c r="H54" s="10">
-        <v>77.497578070000003</v>
+        <v>92.098913179999997</v>
       </c>
       <c r="I54" s="10">
-        <v>559.15234459999999</v>
+        <v>364.39512310000003</v>
       </c>
       <c r="J54" s="10">
-        <v>630.18856669999991</v>
+        <v>453.70198959999999</v>
       </c>
       <c r="K54" s="10">
-        <v>15.93710081</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1">
+        <v>-3.0755186110000001</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" hidden="1">
       <c r="B55" s="11">
         <v>2021</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D55" s="12">
-        <v>36213.207000000002</v>
+        <v>40.944531000000005</v>
       </c>
       <c r="E55" s="12">
-        <v>33486.199000000001</v>
+        <v>39.259650000000001</v>
       </c>
       <c r="F55" s="12">
+        <v>1.6848810000000001</v>
+      </c>
+      <c r="G55" s="12">
+        <v>435.7887518</v>
+      </c>
+      <c r="H55" s="12">
+        <v>66.844172089999986</v>
+      </c>
+      <c r="I55" s="12">
+        <v>368.94457970000002</v>
+      </c>
+      <c r="J55" s="12">
+        <v>469.50509600000004</v>
+      </c>
+      <c r="K55" s="12">
+        <v>-26.619936020000001</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" hidden="1">
+      <c r="B56" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="10">
+        <v>43.029980000000002</v>
+      </c>
+      <c r="E56" s="10">
+        <v>45.974453999999994</v>
+      </c>
+      <c r="F56" s="10">
+        <v>-2.944474</v>
+      </c>
+      <c r="G56" s="10">
+        <v>636.64992270000005</v>
+      </c>
+      <c r="H56" s="10">
+        <v>77.497578070000003</v>
+      </c>
+      <c r="I56" s="10">
+        <v>559.15234459999999</v>
+      </c>
+      <c r="J56" s="10">
+        <v>630.18856669999991</v>
+      </c>
+      <c r="K56" s="10">
+        <v>15.93710081</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="12">
+        <v>36.213207000000004</v>
+      </c>
+      <c r="E57" s="12">
+        <v>33.486198999999999</v>
+      </c>
+      <c r="F57" s="12">
         <v>2.7270089999999998</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G57" s="12">
         <v>435.22278720000003</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H57" s="12">
         <v>79.15757769999999</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I57" s="12">
         <v>356.06520949999998</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J57" s="12">
         <v>534.51791370000001</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K57" s="12">
         <v>-91.017396080000012</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="13">
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="13">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="14">
-        <v>32716.018</v>
-      </c>
-      <c r="E56" s="14">
-        <v>33910.701999999997</v>
-      </c>
-      <c r="F56" s="14">
+      <c r="C58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="14">
+        <v>32.716017999999998</v>
+      </c>
+      <c r="E58" s="14">
+        <v>33.910702000000001</v>
+      </c>
+      <c r="F58" s="14">
         <v>-1.1946110000000001</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G58" s="14">
         <v>492.46105679999999</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H58" s="14">
         <v>48.080826710000004</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I58" s="14">
         <v>444.38023010000001</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J58" s="14">
         <v>498.73122280000001</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K58" s="14">
         <v>-7.9565803100000005</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="15">
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="16">
-        <v>43154.635000000002</v>
-      </c>
-      <c r="E57" s="16">
-        <v>36879.947999999997</v>
-      </c>
-      <c r="F57" s="16">
+      <c r="C59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="16">
+        <v>43.154634999999999</v>
+      </c>
+      <c r="E59" s="16">
+        <v>36.879947999999999</v>
+      </c>
+      <c r="F59" s="16">
         <v>6.2746870000000001</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G59" s="16">
         <v>605.6727909</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H59" s="16">
         <v>109.36903909999999</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I59" s="16">
         <v>496.30375180000004</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J59" s="16">
         <v>841.94544250000001</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K59" s="16">
         <v>-277.08696509999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="10">
-        <v>38313.68</v>
-      </c>
-      <c r="E58" s="10">
-        <v>35257.525000000001</v>
-      </c>
-      <c r="F58" s="10">
-        <v>3.0561550000000004</v>
-      </c>
-      <c r="G58" s="10">
-        <v>438.95863640000005</v>
-      </c>
-      <c r="H58" s="10">
-        <v>47.748503800000002</v>
-      </c>
-      <c r="I58" s="10">
-        <v>391.21013260000001</v>
-      </c>
-      <c r="J58" s="10">
-        <v>506.89896440000001</v>
-      </c>
-      <c r="K58" s="10">
-        <v>-71.949392129999993</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="12">
-        <v>41950.815000000002</v>
-      </c>
-      <c r="E59" s="12">
-        <v>35694.81</v>
-      </c>
-      <c r="F59" s="12">
-        <v>6.2560039999999999</v>
-      </c>
-      <c r="G59" s="12">
-        <v>406.42027350000001</v>
-      </c>
-      <c r="H59" s="12">
-        <v>52.19927337</v>
-      </c>
-      <c r="I59" s="12">
-        <v>354.22100019999999</v>
-      </c>
-      <c r="J59" s="12">
-        <v>412.91902829999998</v>
-      </c>
-      <c r="K59" s="12">
-        <v>-18.936514970000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" hidden="1">
       <c r="B60" s="9">
         <v>2020</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D60" s="10">
-        <v>38539.74</v>
+        <v>38.313679999999998</v>
       </c>
       <c r="E60" s="10">
-        <v>34142.601999999999</v>
+        <v>35.257525000000001</v>
       </c>
       <c r="F60" s="10">
-        <v>4.397138</v>
+        <v>3.0561550000000004</v>
       </c>
       <c r="G60" s="10">
-        <v>380.43586629999999</v>
+        <v>438.95863640000005</v>
       </c>
       <c r="H60" s="10">
-        <v>48.21359047</v>
+        <v>47.748503800000002</v>
       </c>
       <c r="I60" s="10">
-        <v>332.2222759</v>
+        <v>391.21013260000001</v>
       </c>
       <c r="J60" s="10">
-        <v>428.07223010000001</v>
+        <v>506.89896440000001</v>
       </c>
       <c r="K60" s="10">
-        <v>-33.416701580000002</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" hidden="1">
+        <v>-71.949392129999993</v>
+      </c>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" hidden="1">
       <c r="B61" s="11">
         <v>2020</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D61" s="12">
-        <v>37001.120999999999</v>
+        <v>41.950815000000006</v>
       </c>
       <c r="E61" s="12">
-        <v>30845.723000000002</v>
+        <v>35.694809999999997</v>
       </c>
       <c r="F61" s="12">
-        <v>6.1553969999999998</v>
+        <v>6.2560039999999999</v>
       </c>
       <c r="G61" s="12">
-        <v>510.27948190000001</v>
+        <v>406.42027350000001</v>
       </c>
       <c r="H61" s="12">
-        <v>46.15270237</v>
+        <v>52.19927337</v>
       </c>
       <c r="I61" s="12">
-        <v>464.12677960000002</v>
+        <v>354.22100019999999</v>
       </c>
       <c r="J61" s="12">
-        <v>368.06555599999996</v>
+        <v>412.91902829999998</v>
       </c>
       <c r="K61" s="12">
-        <v>139.61153090000002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
+        <v>-18.936514970000001</v>
+      </c>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="2:14" hidden="1">
       <c r="B62" s="9">
         <v>2020</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D62" s="10">
-        <v>35499.49</v>
+        <v>38.539739999999995</v>
       </c>
       <c r="E62" s="10">
-        <v>29844.448</v>
+        <v>34.142601999999997</v>
       </c>
       <c r="F62" s="10">
-        <v>5.6550420000000008</v>
+        <v>4.397138</v>
       </c>
       <c r="G62" s="10">
-        <v>395.16910050000001</v>
+        <v>380.43586629999999</v>
       </c>
       <c r="H62" s="10">
-        <v>52.381400419999999</v>
+        <v>48.21359047</v>
       </c>
       <c r="I62" s="10">
-        <v>342.7877001</v>
+        <v>332.2222759</v>
       </c>
       <c r="J62" s="10">
-        <v>515.39163680000001</v>
+        <v>428.07223010000001</v>
       </c>
       <c r="K62" s="10">
-        <v>-121.3940712</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" hidden="1">
+        <v>-33.416701580000002</v>
+      </c>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="2:14" hidden="1">
       <c r="B63" s="11">
         <v>2020</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="12">
-        <v>33047.724999999999</v>
+        <v>37.001120999999998</v>
       </c>
       <c r="E63" s="12">
-        <v>27512.168000000001</v>
+        <v>30.845723000000003</v>
       </c>
       <c r="F63" s="12">
-        <v>5.5355569999999998</v>
+        <v>6.1553969999999998</v>
       </c>
       <c r="G63" s="12">
-        <v>406.90336660000003</v>
+        <v>510.27948190000001</v>
       </c>
       <c r="H63" s="12">
-        <v>63.830817719999999</v>
+        <v>46.15270237</v>
       </c>
       <c r="I63" s="12">
-        <v>343.07254890000002</v>
+        <v>464.12677960000002</v>
       </c>
       <c r="J63" s="12">
-        <v>550.00062520000006</v>
+        <v>368.06555599999996</v>
       </c>
       <c r="K63" s="12">
-        <v>-145.04765129999998</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
+        <v>139.61153090000002</v>
+      </c>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="2:14" hidden="1">
       <c r="B64" s="9">
         <v>2020</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D64" s="10">
-        <v>18116.042000000001</v>
+        <v>35.499489999999994</v>
       </c>
       <c r="E64" s="10">
-        <v>21578.337</v>
+        <v>29.844448</v>
       </c>
       <c r="F64" s="10">
-        <v>-3.4622950000000001</v>
+        <v>5.6550420000000008</v>
       </c>
       <c r="G64" s="10">
-        <v>326.88726809999997</v>
+        <v>395.16910050000001</v>
       </c>
       <c r="H64" s="10">
-        <v>28.305219940000001</v>
+        <v>52.381400419999999</v>
       </c>
       <c r="I64" s="10">
-        <v>298.58204820000003</v>
+        <v>342.7877001</v>
       </c>
       <c r="J64" s="10">
-        <v>414.11920990000004</v>
+        <v>515.39163680000001</v>
       </c>
       <c r="K64" s="10">
-        <v>-74.267093519999989</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
+        <v>-121.3940712</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="2:14" hidden="1">
       <c r="B65" s="11">
         <v>2020</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D65" s="12">
-        <v>23222.657999999999</v>
+        <v>33.047725</v>
       </c>
       <c r="E65" s="12">
-        <v>26457.052</v>
+        <v>27.512168000000003</v>
       </c>
       <c r="F65" s="12">
-        <v>-3.234394</v>
+        <v>5.5355569999999998</v>
       </c>
       <c r="G65" s="12">
-        <v>406.32991619999996</v>
+        <v>406.90336660000003</v>
       </c>
       <c r="H65" s="12">
-        <v>22.58804619</v>
+        <v>63.830817719999999</v>
       </c>
       <c r="I65" s="12">
-        <v>383.74187000000001</v>
+        <v>343.07254890000002</v>
       </c>
       <c r="J65" s="12">
-        <v>476.66517670000002</v>
+        <v>550.00062520000006</v>
       </c>
       <c r="K65" s="12">
-        <v>-100.86927370000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
+        <v>-145.04765129999998</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:14" hidden="1">
       <c r="B66" s="9">
         <v>2020</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D66" s="10">
-        <v>38310.269</v>
+        <v>18.116042</v>
       </c>
       <c r="E66" s="10">
-        <v>34995.932000000001</v>
+        <v>21.578337000000001</v>
       </c>
       <c r="F66" s="10">
-        <v>3.3143370000000001</v>
+        <v>-3.4622950000000001</v>
       </c>
       <c r="G66" s="10">
-        <v>527.82391359999997</v>
+        <v>326.88726809999997</v>
       </c>
       <c r="H66" s="10">
-        <v>38.183420570000003</v>
+        <v>28.305219940000001</v>
       </c>
       <c r="I66" s="10">
-        <v>489.64049299999999</v>
+        <v>298.58204820000003</v>
       </c>
       <c r="J66" s="10">
-        <v>543.02371759999994</v>
+        <v>414.11920990000004</v>
       </c>
       <c r="K66" s="10">
-        <v>16.26658407</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" hidden="1">
+        <v>-74.267093519999989</v>
+      </c>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:14" hidden="1">
       <c r="B67" s="11">
         <v>2020</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D67" s="12">
-        <v>36433.716999999997</v>
+        <v>23.222657999999999</v>
       </c>
       <c r="E67" s="12">
-        <v>33715.379000000001</v>
+        <v>26.457052000000001</v>
       </c>
       <c r="F67" s="12">
+        <v>-3.234394</v>
+      </c>
+      <c r="G67" s="12">
+        <v>406.32991619999996</v>
+      </c>
+      <c r="H67" s="12">
+        <v>22.58804619</v>
+      </c>
+      <c r="I67" s="12">
+        <v>383.74187000000001</v>
+      </c>
+      <c r="J67" s="12">
+        <v>476.66517670000002</v>
+      </c>
+      <c r="K67" s="12">
+        <v>-100.86927370000001</v>
+      </c>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:14" hidden="1">
+      <c r="B68" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="10">
+        <v>38.310268999999998</v>
+      </c>
+      <c r="E68" s="10">
+        <v>34.995932000000003</v>
+      </c>
+      <c r="F68" s="10">
+        <v>3.3143370000000001</v>
+      </c>
+      <c r="G68" s="10">
+        <v>527.82391359999997</v>
+      </c>
+      <c r="H68" s="10">
+        <v>38.183420570000003</v>
+      </c>
+      <c r="I68" s="10">
+        <v>489.64049299999999</v>
+      </c>
+      <c r="J68" s="10">
+        <v>543.02371759999994</v>
+      </c>
+      <c r="K68" s="10">
+        <v>16.26658407</v>
+      </c>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12">
+        <v>36.433716999999994</v>
+      </c>
+      <c r="E69" s="12">
+        <v>33.715378999999999</v>
+      </c>
+      <c r="F69" s="12">
         <v>2.7183380000000001</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G69" s="12">
         <v>394.82727059999996</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H69" s="12">
         <v>41.572570460000001</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I69" s="12">
         <v>353.25470010000004</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J69" s="12">
         <v>433.69674780000003</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K69" s="12">
         <v>-30.15957229</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="13">
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="13">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="14">
-        <v>33580.843000000001</v>
-      </c>
-      <c r="E68" s="14">
-        <v>36062</v>
-      </c>
-      <c r="F68" s="14">
+      <c r="C70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="14">
+        <v>33.580843000000002</v>
+      </c>
+      <c r="E70" s="14">
+        <v>36.061999999999998</v>
+      </c>
+      <c r="F70" s="14">
         <v>-2.4811570000000001</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G70" s="14">
         <v>540.28258030000006</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H70" s="14">
         <v>55.314693489999996</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I70" s="14">
         <v>484.96788679999997</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J70" s="14">
         <v>504.22741729999996</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K70" s="14">
         <v>40.826203909999997</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="15">
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="16">
-        <v>38654.358999999997</v>
-      </c>
-      <c r="E69" s="16">
-        <v>35587.868999999999</v>
-      </c>
-      <c r="F69" s="16">
+      <c r="C71" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="16">
+        <v>38.654358999999999</v>
+      </c>
+      <c r="E71" s="16">
+        <v>35.587868999999998</v>
+      </c>
+      <c r="F71" s="16">
         <v>3.0664899999999999</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G71" s="16">
         <v>543.58259450000003</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H71" s="16">
         <v>121.4484357</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I71" s="16">
         <v>422.13415889999999</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J71" s="16">
         <v>734.08934550000004</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K71" s="16">
         <v>-226.43600739999999</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="10">
-        <v>37484.46</v>
-      </c>
-      <c r="E70" s="10">
-        <v>36697.660000000003</v>
-      </c>
-      <c r="F70" s="10">
-        <v>0.78679999999999994</v>
-      </c>
-      <c r="G70" s="10">
-        <v>473.86982849999998</v>
-      </c>
-      <c r="H70" s="10">
-        <v>74.790037569999996</v>
-      </c>
-      <c r="I70" s="10">
-        <v>399.07979090000003</v>
-      </c>
-      <c r="J70" s="10">
-        <v>477.06680619999997</v>
-      </c>
-      <c r="K70" s="10">
-        <v>-13.121122880000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="12">
-        <v>40762.114000000001</v>
-      </c>
-      <c r="E71" s="12">
-        <v>41449.531999999999</v>
-      </c>
-      <c r="F71" s="12">
-        <v>-0.68741700000000006</v>
-      </c>
-      <c r="G71" s="12">
-        <v>391.27770820000001</v>
-      </c>
-      <c r="H71" s="12">
-        <v>52.107626119999999</v>
-      </c>
-      <c r="I71" s="12">
-        <v>339.1700821</v>
-      </c>
-      <c r="J71" s="12">
-        <v>393.85330019999998</v>
-      </c>
-      <c r="K71" s="12">
-        <v>6.1751103700000005</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="2:14" hidden="1">
       <c r="B72" s="9">
         <v>2019</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D72" s="10">
-        <v>37180.582999999999</v>
+        <v>37.484459999999999</v>
       </c>
       <c r="E72" s="10">
-        <v>37332.184000000001</v>
+        <v>36.697660000000006</v>
       </c>
       <c r="F72" s="10">
-        <v>-0.15160099999999999</v>
+        <v>0.78679999999999994</v>
       </c>
       <c r="G72" s="10">
-        <v>498.68650060000004</v>
+        <v>473.86982849999998</v>
       </c>
       <c r="H72" s="10">
-        <v>163.53974220000001</v>
+        <v>74.790037569999996</v>
       </c>
       <c r="I72" s="10">
-        <v>335.14675829999999</v>
+        <v>399.07979090000003</v>
       </c>
       <c r="J72" s="10">
-        <v>536.88821819999998</v>
+        <v>477.06680619999997</v>
       </c>
       <c r="K72" s="10">
-        <v>-42.120543259999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" hidden="1">
+        <v>-13.121122880000001</v>
+      </c>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="2:14" hidden="1">
       <c r="B73" s="11">
         <v>2019</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D73" s="12">
-        <v>40051.154000000002</v>
+        <v>40.762114000000004</v>
       </c>
       <c r="E73" s="12">
-        <v>39648.432999999997</v>
+        <v>41.449531999999998</v>
       </c>
       <c r="F73" s="12">
-        <v>0.402721</v>
+        <v>-0.68741700000000006</v>
       </c>
       <c r="G73" s="12">
-        <v>427.82057650000002</v>
+        <v>391.27770820000001</v>
       </c>
       <c r="H73" s="12">
-        <v>61.700976759999996</v>
+        <v>52.107626119999999</v>
       </c>
       <c r="I73" s="12">
-        <v>366.11959970000004</v>
+        <v>339.1700821</v>
       </c>
       <c r="J73" s="12">
-        <v>394.68113240000002</v>
+        <v>393.85330019999998</v>
       </c>
       <c r="K73" s="12">
-        <v>34.967939649999998</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
+        <v>6.1751103700000005</v>
+      </c>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" hidden="1">
       <c r="B74" s="9">
         <v>2019</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D74" s="10">
-        <v>39115.732000000004</v>
+        <v>37.180582999999999</v>
       </c>
       <c r="E74" s="10">
-        <v>40406.334999999999</v>
+        <v>37.332183999999998</v>
       </c>
       <c r="F74" s="10">
-        <v>-1.2906030000000002</v>
+        <v>-0.15160099999999999</v>
       </c>
       <c r="G74" s="10">
-        <v>427.2480716</v>
+        <v>498.68650060000004</v>
       </c>
       <c r="H74" s="10">
-        <v>69.484158519999994</v>
+        <v>163.53974220000001</v>
       </c>
       <c r="I74" s="10">
-        <v>357.76391310000002</v>
+        <v>335.14675829999999</v>
       </c>
       <c r="J74" s="10">
-        <v>480.08610249999998</v>
+        <v>536.88821819999998</v>
       </c>
       <c r="K74" s="10">
-        <v>-33.152173529999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
+        <v>-42.120543259999998</v>
+      </c>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="2:14" hidden="1">
       <c r="B75" s="11">
         <v>2019</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="12">
-        <v>37924.985999999997</v>
+        <v>40.051154000000004</v>
       </c>
       <c r="E75" s="12">
-        <v>35382.743999999999</v>
+        <v>39.648432999999997</v>
       </c>
       <c r="F75" s="12">
-        <v>2.5422420000000003</v>
+        <v>0.402721</v>
       </c>
       <c r="G75" s="12">
-        <v>423.06132890000003</v>
+        <v>427.82057650000002</v>
       </c>
       <c r="H75" s="12">
-        <v>69.954328790000005</v>
+        <v>61.700976759999996</v>
       </c>
       <c r="I75" s="12">
-        <v>353.10700009999999</v>
+        <v>366.11959970000004</v>
       </c>
       <c r="J75" s="12">
-        <v>576.3008863</v>
+        <v>394.68113240000002</v>
       </c>
       <c r="K75" s="12">
-        <v>-152.27265929999999</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
+        <v>34.967939649999998</v>
+      </c>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="2:14" hidden="1">
       <c r="B76" s="9">
         <v>2019</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D76" s="10">
-        <v>41749.982000000004</v>
+        <v>39.115732000000001</v>
       </c>
       <c r="E76" s="10">
-        <v>40792.86</v>
+        <v>40.406334999999999</v>
       </c>
       <c r="F76" s="10">
-        <v>0.95712199999999992</v>
+        <v>-1.2906030000000002</v>
       </c>
       <c r="G76" s="10">
-        <v>413.0890435</v>
+        <v>427.2480716</v>
       </c>
       <c r="H76" s="10">
-        <v>79.2564797</v>
+        <v>69.484158519999994</v>
       </c>
       <c r="I76" s="10">
-        <v>333.8325638</v>
+        <v>357.76391310000002</v>
       </c>
       <c r="J76" s="10">
-        <v>424.37654580000003</v>
+        <v>480.08610249999998</v>
       </c>
       <c r="K76" s="10">
-        <v>-5.692812215</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" hidden="1">
+        <v>-33.152173529999999</v>
+      </c>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="2:14" hidden="1">
       <c r="B77" s="11">
         <v>2019</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" s="12">
-        <v>39586.47</v>
+        <v>37.924985999999997</v>
       </c>
       <c r="E77" s="12">
-        <v>38076.400999999998</v>
+        <v>35.382743999999995</v>
       </c>
       <c r="F77" s="12">
-        <v>1.5100689999999999</v>
+        <v>2.5422420000000003</v>
       </c>
       <c r="G77" s="12">
-        <v>490.97347509999997</v>
+        <v>423.06132890000003</v>
       </c>
       <c r="H77" s="12">
-        <v>84.355074259999995</v>
+        <v>69.954328790000005</v>
       </c>
       <c r="I77" s="12">
-        <v>406.61840089999998</v>
+        <v>353.10700009999999</v>
       </c>
       <c r="J77" s="12">
-        <v>426.19051860000002</v>
+        <v>576.3008863</v>
       </c>
       <c r="K77" s="12">
-        <v>62.526773919999997</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
+        <v>-152.27265929999999</v>
+      </c>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="2:14" hidden="1">
       <c r="B78" s="9">
         <v>2019</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D78" s="10">
-        <v>39018.828000000001</v>
+        <v>41.749982000000003</v>
       </c>
       <c r="E78" s="10">
-        <v>37530.885999999999</v>
+        <v>40.792859999999997</v>
       </c>
       <c r="F78" s="10">
-        <v>1.487941</v>
+        <v>0.95712199999999992</v>
       </c>
       <c r="G78" s="10">
-        <v>442.90060790000001</v>
+        <v>413.0890435</v>
       </c>
       <c r="H78" s="10">
-        <v>73.907545100000007</v>
+        <v>79.2564797</v>
       </c>
       <c r="I78" s="10">
-        <v>368.99306280000002</v>
+        <v>333.8325638</v>
       </c>
       <c r="J78" s="10">
-        <v>447.99316820000001</v>
+        <v>424.37654580000003</v>
       </c>
       <c r="K78" s="10">
-        <v>3.1435708460000003</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" hidden="1">
+        <v>-5.692812215</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="2:14" hidden="1">
       <c r="B79" s="11">
         <v>2019</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D79" s="12">
-        <v>36437.807000000001</v>
+        <v>39.586469999999998</v>
       </c>
       <c r="E79" s="12">
-        <v>35073.896999999997</v>
+        <v>38.076400999999997</v>
       </c>
       <c r="F79" s="12">
+        <v>1.5100689999999999</v>
+      </c>
+      <c r="G79" s="12">
+        <v>490.97347509999997</v>
+      </c>
+      <c r="H79" s="12">
+        <v>84.355074259999995</v>
+      </c>
+      <c r="I79" s="12">
+        <v>406.61840089999998</v>
+      </c>
+      <c r="J79" s="12">
+        <v>426.19051860000002</v>
+      </c>
+      <c r="K79" s="12">
+        <v>62.526773919999997</v>
+      </c>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="2:14" hidden="1">
+      <c r="B80" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="10">
+        <v>39.018827999999999</v>
+      </c>
+      <c r="E80" s="10">
+        <v>37.530885999999995</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1.487941</v>
+      </c>
+      <c r="G80" s="10">
+        <v>442.90060790000001</v>
+      </c>
+      <c r="H80" s="10">
+        <v>73.907545100000007</v>
+      </c>
+      <c r="I80" s="10">
+        <v>368.99306280000002</v>
+      </c>
+      <c r="J80" s="10">
+        <v>447.99316820000001</v>
+      </c>
+      <c r="K80" s="10">
+        <v>3.1435708460000003</v>
+      </c>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="2:14" hidden="1">
+      <c r="B81" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="12">
+        <v>36.437806999999999</v>
+      </c>
+      <c r="E81" s="12">
+        <v>35.073896999999995</v>
+      </c>
+      <c r="F81" s="12">
         <v>1.3639100000000002</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G81" s="12">
         <v>406.48133510000002</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H81" s="12">
         <v>60.695827799999996</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I81" s="12">
         <v>345.78550730000001</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J81" s="12">
         <v>391.78540830000003</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K81" s="12">
         <v>15.10888634</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="13">
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="2:14" hidden="1">
+      <c r="B82" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="14">
-        <v>32637.22</v>
-      </c>
-      <c r="E80" s="14">
-        <v>37262.788</v>
-      </c>
-      <c r="F80" s="14">
+      <c r="C82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="14">
+        <v>32.637219999999999</v>
+      </c>
+      <c r="E82" s="14">
+        <v>37.262788</v>
+      </c>
+      <c r="F82" s="14">
         <v>-4.6255680000000003</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G82" s="14">
         <v>445.9932058</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H82" s="14">
         <v>44.457353900000001</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I82" s="14">
         <v>401.53585190000001</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J82" s="14">
         <v>509.31251370000001</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K82" s="14">
         <v>-42.735297079999995</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="12">
-        <v>37597.546999999999</v>
-      </c>
-      <c r="E81" s="12">
-        <v>35692.966999999997</v>
-      </c>
-      <c r="F81" s="12">
-        <v>1.9045799999999999</v>
-      </c>
-      <c r="G81" s="12">
-        <v>458.98040019999996</v>
-      </c>
-      <c r="H81" s="12">
-        <v>93.046003830000004</v>
-      </c>
-      <c r="I81" s="12">
-        <v>365.93439640000003</v>
-      </c>
-      <c r="J81" s="12">
-        <v>623.05252050000001</v>
-      </c>
-      <c r="K81" s="12">
-        <v>-178.90771109999997</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="10">
-        <v>38595.389000000003</v>
-      </c>
-      <c r="E82" s="10">
-        <v>40928.716</v>
-      </c>
-      <c r="F82" s="10">
-        <v>-2.3333270000000002</v>
-      </c>
-      <c r="G82" s="10">
-        <v>435.33598950000004</v>
-      </c>
-      <c r="H82" s="10">
-        <v>87.314448180000014</v>
-      </c>
-      <c r="I82" s="10">
-        <v>348.02154129999997</v>
-      </c>
-      <c r="J82" s="10">
-        <v>454.46364279999995</v>
-      </c>
-      <c r="K82" s="10">
-        <v>-40.905675330000001</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="2:14" hidden="1">
       <c r="B83" s="11">
         <v>2018</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D83" s="12">
-        <v>41356.07</v>
+        <v>37.597546999999999</v>
       </c>
       <c r="E83" s="12">
-        <v>44290.891000000003</v>
+        <v>35.692966999999996</v>
       </c>
       <c r="F83" s="12">
-        <v>-2.9348209999999999</v>
+        <v>1.9045799999999999</v>
       </c>
       <c r="G83" s="12">
-        <v>429.29517010000001</v>
+        <v>458.98040019999996</v>
       </c>
       <c r="H83" s="12">
-        <v>84.098175850000004</v>
+        <v>93.046003830000004</v>
       </c>
       <c r="I83" s="12">
-        <v>345.19699420000001</v>
+        <v>365.93439640000003</v>
       </c>
       <c r="J83" s="12">
-        <v>401.2088488</v>
+        <v>623.05252050000001</v>
       </c>
       <c r="K83" s="12">
-        <v>35.850367480000003</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
+        <v>-178.90771109999997</v>
+      </c>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" hidden="1">
       <c r="B84" s="9">
         <v>2018</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D84" s="10">
-        <v>37700.601999999999</v>
+        <v>38.595389000000004</v>
       </c>
       <c r="E84" s="10">
-        <v>38001.682999999997</v>
+        <v>40.928716000000001</v>
       </c>
       <c r="F84" s="10">
-        <v>-0.30107999999999996</v>
+        <v>-2.3333270000000002</v>
       </c>
       <c r="G84" s="10">
-        <v>374.62295510000001</v>
+        <v>435.33598950000004</v>
       </c>
       <c r="H84" s="10">
-        <v>59.744647569999998</v>
+        <v>87.314448180000014</v>
       </c>
       <c r="I84" s="10">
-        <v>314.87830750000001</v>
+        <v>348.02154129999997</v>
       </c>
       <c r="J84" s="10">
-        <v>455.0669992</v>
+        <v>454.46364279999995</v>
       </c>
       <c r="K84" s="10">
-        <v>-80.179064410000009</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" hidden="1">
+        <v>-40.905675330000001</v>
+      </c>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="2:14" hidden="1">
       <c r="B85" s="11">
         <v>2018</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D85" s="12">
-        <v>39545.207999999999</v>
+        <v>41.356070000000003</v>
       </c>
       <c r="E85" s="12">
-        <v>42129.495999999999</v>
+        <v>44.290891000000002</v>
       </c>
       <c r="F85" s="12">
-        <v>-2.5842879999999999</v>
+        <v>-2.9348209999999999</v>
       </c>
       <c r="G85" s="12">
-        <v>403.9229641</v>
+        <v>429.29517010000001</v>
       </c>
       <c r="H85" s="12">
-        <v>86.42946843</v>
+        <v>84.098175850000004</v>
       </c>
       <c r="I85" s="12">
-        <v>317.49349560000002</v>
+        <v>345.19699420000001</v>
       </c>
       <c r="J85" s="12">
-        <v>431.72454049999999</v>
+        <v>401.2088488</v>
       </c>
       <c r="K85" s="12">
-        <v>-31.452990399999997</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" hidden="1">
+        <v>35.850367480000003</v>
+      </c>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="2:14" hidden="1">
       <c r="B86" s="9">
         <v>2018</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D86" s="10">
-        <v>36742.212</v>
+        <v>37.700601999999996</v>
       </c>
       <c r="E86" s="10">
-        <v>39612.118000000002</v>
+        <v>38.001683</v>
       </c>
       <c r="F86" s="10">
-        <v>-2.869907</v>
+        <v>-0.30107999999999996</v>
       </c>
       <c r="G86" s="10">
-        <v>510.96441529999998</v>
+        <v>374.62295510000001</v>
       </c>
       <c r="H86" s="10">
-        <v>92.059573439999994</v>
+        <v>59.744647569999998</v>
       </c>
       <c r="I86" s="10">
-        <v>418.90484179999999</v>
+        <v>314.87830750000001</v>
       </c>
       <c r="J86" s="10">
-        <v>434.67264309999996</v>
+        <v>455.0669992</v>
       </c>
       <c r="K86" s="10">
-        <v>7.344534736</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" hidden="1">
+        <v>-80.179064410000009</v>
+      </c>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="2:14" hidden="1">
       <c r="B87" s="11">
         <v>2018</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="12">
-        <v>37483.508000000002</v>
+        <v>39.545207999999995</v>
       </c>
       <c r="E87" s="12">
-        <v>38383.337</v>
+        <v>42.129495999999996</v>
       </c>
       <c r="F87" s="12">
-        <v>-0.89982799999999996</v>
+        <v>-2.5842879999999999</v>
       </c>
       <c r="G87" s="12">
-        <v>406.6136482</v>
+        <v>403.9229641</v>
       </c>
       <c r="H87" s="12">
-        <v>77.601648080000004</v>
+        <v>86.42946843</v>
       </c>
       <c r="I87" s="12">
-        <v>329.01200010000002</v>
+        <v>317.49349560000002</v>
       </c>
       <c r="J87" s="12">
-        <v>566.17339060000006</v>
+        <v>431.72454049999999</v>
       </c>
       <c r="K87" s="12">
-        <v>-169.83211939999998</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" hidden="1">
+        <v>-31.452990399999997</v>
+      </c>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="2:14" hidden="1">
       <c r="B88" s="9">
         <v>2018</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D88" s="10">
-        <v>39213.911999999997</v>
+        <v>36.742212000000002</v>
       </c>
       <c r="E88" s="10">
-        <v>40766.241000000002</v>
+        <v>39.612118000000002</v>
       </c>
       <c r="F88" s="10">
-        <v>-1.5523289999999998</v>
+        <v>-2.869907</v>
       </c>
       <c r="G88" s="10">
-        <v>378.23739899999998</v>
+        <v>510.96441529999998</v>
       </c>
       <c r="H88" s="10">
-        <v>74.942058579999994</v>
+        <v>92.059573439999994</v>
       </c>
       <c r="I88" s="10">
-        <v>303.29534039999999</v>
+        <v>418.90484179999999</v>
       </c>
       <c r="J88" s="10">
-        <v>414.29038909999997</v>
+        <v>434.67264309999996</v>
       </c>
       <c r="K88" s="10">
-        <v>-42.702346929999997</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" hidden="1">
+        <v>7.344534736</v>
+      </c>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="2:14" hidden="1">
       <c r="B89" s="11">
         <v>2018</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D89" s="12">
-        <v>37181.694000000003</v>
+        <v>37.483508</v>
       </c>
       <c r="E89" s="12">
-        <v>37471.964999999997</v>
+        <v>38.383336999999997</v>
       </c>
       <c r="F89" s="12">
-        <v>-0.290271</v>
+        <v>-0.89982799999999996</v>
       </c>
       <c r="G89" s="12">
-        <v>457.73002299999996</v>
+        <v>406.6136482</v>
       </c>
       <c r="H89" s="12">
-        <v>94.803737770000012</v>
+        <v>77.601648080000004</v>
       </c>
       <c r="I89" s="12">
-        <v>362.92628529999996</v>
+        <v>329.01200010000002</v>
       </c>
       <c r="J89" s="12">
-        <v>431.92046120000003</v>
+        <v>566.17339060000006</v>
       </c>
       <c r="K89" s="12">
-        <v>97.740447079999996</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="18" hidden="1" customHeight="1">
+        <v>-169.83211939999998</v>
+      </c>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" hidden="1">
       <c r="B90" s="9">
         <v>2018</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90" s="10">
-        <v>39484.266000000003</v>
+        <v>39.213911999999993</v>
       </c>
       <c r="E90" s="10">
-        <v>37734.614999999998</v>
+        <v>40.766241000000001</v>
       </c>
       <c r="F90" s="10">
-        <v>1.7496510000000001</v>
+        <v>-1.5523289999999998</v>
       </c>
       <c r="G90" s="10">
-        <v>405.0149012</v>
+        <v>378.23739899999998</v>
       </c>
       <c r="H90" s="10">
-        <v>77.807657630000008</v>
+        <v>74.942058579999994</v>
       </c>
       <c r="I90" s="10">
-        <v>327.20724359999997</v>
+        <v>303.29534039999999</v>
       </c>
       <c r="J90" s="10">
-        <v>442.02748349999996</v>
+        <v>414.29038909999997</v>
       </c>
       <c r="K90" s="10">
-        <v>-24.13319199</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" hidden="1">
+        <v>-42.702346929999997</v>
+      </c>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="2:14" hidden="1">
       <c r="B91" s="11">
         <v>2018</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D91" s="12">
-        <v>35093.792999999998</v>
+        <v>37.181694</v>
       </c>
       <c r="E91" s="12">
-        <v>34149.86</v>
+        <v>37.471964999999997</v>
       </c>
       <c r="F91" s="12">
-        <v>0.94393300000000002</v>
+        <v>-0.290271</v>
       </c>
       <c r="G91" s="12">
-        <v>389.22862729999997</v>
+        <v>457.73002299999996</v>
       </c>
       <c r="H91" s="12">
-        <v>61.288216349999999</v>
+        <v>94.803737770000012</v>
       </c>
       <c r="I91" s="12">
-        <v>327.94041100000004</v>
+        <v>362.92628529999996</v>
       </c>
       <c r="J91" s="12">
-        <v>443.14275679999997</v>
+        <v>431.92046120000003</v>
       </c>
       <c r="K91" s="12">
-        <v>-47.38522493</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" hidden="1">
+        <v>97.740447079999996</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" ht="18" hidden="1" customHeight="1">
       <c r="B92" s="9">
         <v>2018</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D92" s="10">
-        <v>30718.526999999998</v>
+        <v>39.484266000000005</v>
       </c>
       <c r="E92" s="10">
-        <v>35140.478000000003</v>
+        <v>37.734614999999998</v>
       </c>
       <c r="F92" s="10">
+        <v>1.7496510000000001</v>
+      </c>
+      <c r="G92" s="10">
+        <v>405.0149012</v>
+      </c>
+      <c r="H92" s="10">
+        <v>77.807657630000008</v>
+      </c>
+      <c r="I92" s="10">
+        <v>327.20724359999997</v>
+      </c>
+      <c r="J92" s="10">
+        <v>442.02748349999996</v>
+      </c>
+      <c r="K92" s="10">
+        <v>-24.13319199</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="2:14" hidden="1">
+      <c r="B93" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="12">
+        <v>35.093792999999998</v>
+      </c>
+      <c r="E93" s="12">
+        <v>34.149860000000004</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0.94393300000000002</v>
+      </c>
+      <c r="G93" s="12">
+        <v>389.22862729999997</v>
+      </c>
+      <c r="H93" s="12">
+        <v>61.288216349999999</v>
+      </c>
+      <c r="I93" s="12">
+        <v>327.94041100000004</v>
+      </c>
+      <c r="J93" s="12">
+        <v>443.14275679999997</v>
+      </c>
+      <c r="K93" s="12">
+        <v>-47.38522493</v>
+      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" hidden="1">
+      <c r="B94" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="10">
+        <v>30.718526999999998</v>
+      </c>
+      <c r="E94" s="10">
+        <v>35.140478000000002</v>
+      </c>
+      <c r="F94" s="10">
         <v>-4.421951</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G94" s="10">
         <v>465.16459659999998</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H94" s="10">
         <v>89.233049929999993</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I94" s="10">
         <v>375.93154670000001</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J94" s="10">
         <v>491.60764439999997</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K94" s="10">
         <v>-20.418911999999999</v>
       </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="17" t="s">
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="3" t="s">
+    <row r="96" spans="2:14">
+      <c r="B96" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="19" t="s">
-        <v>25</v>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
